--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19702" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19702" uniqueCount="1172">
   <si>
     <t>Path</t>
   </si>
@@ -2369,7 +2369,7 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANationalDrugCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANDCNCPDPCompoundCodeVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.modifier</t>
@@ -2719,523 +2719,529 @@
     <t>ExplanationOfBenefit.item.adjudication.category.text</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPRejectCodeVS</t>
+  </si>
+  <si>
+    <t>inoutnetwork</t>
+  </si>
+  <si>
+    <t>Benefit Payment Status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusCategoryVS</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail</t>
+  </si>
+  <si>
+    <t>Additional items</t>
+  </si>
+  <si>
+    <t>Second-tier of goods and services.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.sequence</t>
+  </si>
+  <si>
+    <t>A claim detail line. Either a simple (a product or service) or a 'group' of sub-details which are simple items.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.revenue</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.category</t>
+  </si>
+  <si>
+    <t>Examples include: Medical Care, Periodontics, Renal Dialysis, Vision Coverage.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.productOrService</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANationalDrugCodeVS</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.modifier</t>
+  </si>
+  <si>
+    <t>Service/Product billing modifiers</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.programCode</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.quantity</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.unitPrice</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.factor</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.net</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.udi</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.noteNumber</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.adjudication</t>
+  </si>
+  <si>
+    <t>Detail level adjudication details</t>
+  </si>
+  <si>
+    <t>The adjudication results.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail</t>
+  </si>
+  <si>
+    <t>Third-tier of goods and services.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.sequence</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.revenue</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.category</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.productOrService</t>
+  </si>
+  <si>
+    <t>Allowable service and product codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-uscls</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.modifier</t>
+  </si>
+  <si>
+    <t>For example, in Oral whether the treatment is cosmetic or associated with TMJ, or for Medical whether the treatment was outside the clinic or outside of office hours.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.programCode</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.quantity</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.unitPrice</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.factor</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.net</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.udi</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.noteNumber</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.item.detail.subDetail.adjudication</t>
+  </si>
+  <si>
+    <t>Subdetail level adjudication details</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem</t>
+  </si>
+  <si>
+    <t>Insurer added line items</t>
+  </si>
+  <si>
+    <t>The first-tier service adjudications for payor added product or service lines.</t>
+  </si>
+  <si>
+    <t>Insurers may redefine the provided product or service or may package and/or decompose groups of products and services. The addItems allows the insurer to provide their line item list with linkage to the submitted items/details/sub-details. In a preauthorization the insurer may use the addItem structure to provide additional information on authorized products and services.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.itemSequence</t>
+  </si>
+  <si>
+    <t>Item sequence number</t>
+  </si>
+  <si>
+    <t>Claim items which this service line is intended to replace.</t>
+  </si>
+  <si>
+    <t>Provides references to the claim items.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detailSequence</t>
+  </si>
+  <si>
+    <t>Detail sequence number</t>
+  </si>
+  <si>
+    <t>The sequence number of the details within the claim item which this line is intended to replace.</t>
+  </si>
+  <si>
+    <t>Provides references to the claim details within the claim item.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.subDetailSequence</t>
+  </si>
+  <si>
+    <t>Subdetail sequence number</t>
+  </si>
+  <si>
+    <t>The sequence number of the sub-details woithin the details within the claim item which this line is intended to replace.</t>
+  </si>
+  <si>
+    <t>Provides references to the claim sub-details within the claim detail.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.provider</t>
+  </si>
+  <si>
+    <t>Authorized providers</t>
+  </si>
+  <si>
+    <t>The providers who are authorized for the services rendered to the patient.</t>
+  </si>
+  <si>
+    <t>Insurer may provide authorization specifically to a restricted set of providers rather than an open authorization.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.productOrService</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.modifier</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.programCode</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.serviced[x]</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.location[x]</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.quantity</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.unitPrice</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.factor</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.net</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.bodySite</t>
+  </si>
+  <si>
+    <t>For example, providing a tooth code allows an insurer to identify a provider performing a filling on a tooth that was previously removed.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.subSite</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.noteNumber</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.adjudication</t>
+  </si>
+  <si>
+    <t>Added items adjudication</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail</t>
+  </si>
+  <si>
+    <t>The second-tier service adjudications for payor added services.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.productOrService</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.modifier</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.quantity</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.unitPrice</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.factor</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.net</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.noteNumber</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.adjudication</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail</t>
+  </si>
+  <si>
+    <t>The third-tier service adjudications for payor added services.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.productOrService</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.modifier</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.quantity</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.unitPrice</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.factor</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.net</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.noteNumber</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.addItem.detail.subDetail.adjudication</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication</t>
+  </si>
+  <si>
+    <t>Header-level adjudication</t>
+  </si>
+  <si>
+    <t>The adjudication results which are presented at the header level rather than at the line-item or add-item levels.</t>
+  </si>
+  <si>
+    <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.reason</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.amount</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.value</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.system</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.version</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.code</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.display</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.adjudication.category.text</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.total</t>
+  </si>
+  <si>
+    <t>Adjudication totals</t>
+  </si>
+  <si>
+    <t>Categorized monetary totals for the adjudication.</t>
+  </si>
+  <si>
+    <t>Totals for amounts submitted, co-pays, benefits payable etc.</t>
+  </si>
+  <si>
+    <t>To provide the requestor with financial totals by category for the adjudication.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.total.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.total.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.total.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.total.category</t>
+  </si>
+  <si>
+    <t>A code to indicate the information type of this adjudication record. Information types may include: the value submitted, maximum values or percentages allowed or payable under the plan, amounts that the patient is responsible for in aggregate or pertaining to this item, amounts paid by other coverages, and the benefit payable for this item.</t>
+  </si>
+  <si>
+    <t>Needed to convey the type of total provided.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationAmountCategoryVS</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.total.amount</t>
+  </si>
+  <si>
+    <t>Financial total for the category</t>
+  </si>
+  <si>
+    <t>Monetary total amount associated with the category.</t>
+  </si>
+  <si>
+    <t>Needed to convey the total monetary amount.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.payment</t>
+  </si>
+  <si>
+    <t>Payment Details</t>
+  </si>
+  <si>
+    <t>Payment details for the adjudication of the claim.</t>
+  </si>
+  <si>
+    <t>Needed to convey references to the financial instrument that has been used if payment has been made.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.payment.id</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.payment.extension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.payment.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.payment.type</t>
+  </si>
+  <si>
+    <t>Partial or complete payment</t>
+  </si>
+  <si>
+    <t>Whether this represents partial or complete payment of the benefits payable.</t>
+  </si>
+  <si>
+    <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCodeVS</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.payment.adjustment</t>
+  </si>
+  <si>
+    <t>Payment adjustment for non-claim issues</t>
+  </si>
+  <si>
+    <t>Total amount of all adjustments to this payment included in this transaction which are not related to this claim's adjudication.</t>
+  </si>
+  <si>
+    <t>Insurers will deduct amounts owing from the provider (adjustment), such as a prior overpayment, from the amount owing to the provider (benefits payable) when payment is made to the provider.</t>
+  </si>
+  <si>
+    <t>To advise the requestor of adjustments applied to the payment.</t>
+  </si>
+  <si>
+    <t>ExplanationOfBenefit.payment.adjustmentReason</t>
+  </si>
+  <si>
+    <t>Explanation for the variance</t>
+  </si>
+  <si>
+    <t>Reason for the payment adjustment.</t>
+  </si>
+  <si>
+    <t>Needed to clarify the monetary adjustment.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReasonVS</t>
-  </si>
-  <si>
-    <t>inoutnetwork</t>
-  </si>
-  <si>
-    <t>Benefit Payment Status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusCategoryVS</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail</t>
-  </si>
-  <si>
-    <t>Additional items</t>
-  </si>
-  <si>
-    <t>Second-tier of goods and services.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.sequence</t>
-  </si>
-  <si>
-    <t>A claim detail line. Either a simple (a product or service) or a 'group' of sub-details which are simple items.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.revenue</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.category</t>
-  </si>
-  <si>
-    <t>Examples include: Medical Care, Periodontics, Renal Dialysis, Vision Coverage.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.productOrService</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.modifier</t>
-  </si>
-  <si>
-    <t>Service/Product billing modifiers</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.programCode</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.quantity</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.unitPrice</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.factor</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.net</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.udi</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.noteNumber</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.adjudication</t>
-  </si>
-  <si>
-    <t>Detail level adjudication details</t>
-  </si>
-  <si>
-    <t>The adjudication results.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail</t>
-  </si>
-  <si>
-    <t>Third-tier of goods and services.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.sequence</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.revenue</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.productOrService</t>
-  </si>
-  <si>
-    <t>Allowable service and product codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-uscls</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.modifier</t>
-  </si>
-  <si>
-    <t>For example, in Oral whether the treatment is cosmetic or associated with TMJ, or for Medical whether the treatment was outside the clinic or outside of office hours.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.programCode</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.quantity</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.unitPrice</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.factor</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.net</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.udi</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.noteNumber</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.item.detail.subDetail.adjudication</t>
-  </si>
-  <si>
-    <t>Subdetail level adjudication details</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem</t>
-  </si>
-  <si>
-    <t>Insurer added line items</t>
-  </si>
-  <si>
-    <t>The first-tier service adjudications for payor added product or service lines.</t>
-  </si>
-  <si>
-    <t>Insurers may redefine the provided product or service or may package and/or decompose groups of products and services. The addItems allows the insurer to provide their line item list with linkage to the submitted items/details/sub-details. In a preauthorization the insurer may use the addItem structure to provide additional information on authorized products and services.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.itemSequence</t>
-  </si>
-  <si>
-    <t>Item sequence number</t>
-  </si>
-  <si>
-    <t>Claim items which this service line is intended to replace.</t>
-  </si>
-  <si>
-    <t>Provides references to the claim items.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detailSequence</t>
-  </si>
-  <si>
-    <t>Detail sequence number</t>
-  </si>
-  <si>
-    <t>The sequence number of the details within the claim item which this line is intended to replace.</t>
-  </si>
-  <si>
-    <t>Provides references to the claim details within the claim item.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.subDetailSequence</t>
-  </si>
-  <si>
-    <t>Subdetail sequence number</t>
-  </si>
-  <si>
-    <t>The sequence number of the sub-details woithin the details within the claim item which this line is intended to replace.</t>
-  </si>
-  <si>
-    <t>Provides references to the claim sub-details within the claim detail.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.provider</t>
-  </si>
-  <si>
-    <t>Authorized providers</t>
-  </si>
-  <si>
-    <t>The providers who are authorized for the services rendered to the patient.</t>
-  </si>
-  <si>
-    <t>Insurer may provide authorization specifically to a restricted set of providers rather than an open authorization.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.productOrService</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.modifier</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.programCode</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.serviced[x]</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.location[x]</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.quantity</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.unitPrice</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.factor</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.net</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.bodySite</t>
-  </si>
-  <si>
-    <t>For example, providing a tooth code allows an insurer to identify a provider performing a filling on a tooth that was previously removed.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.subSite</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.noteNumber</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.adjudication</t>
-  </si>
-  <si>
-    <t>Added items adjudication</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail</t>
-  </si>
-  <si>
-    <t>The second-tier service adjudications for payor added services.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.productOrService</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.modifier</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.quantity</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.unitPrice</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.factor</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.net</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.noteNumber</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.adjudication</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail</t>
-  </si>
-  <si>
-    <t>The third-tier service adjudications for payor added services.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.productOrService</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.modifier</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.quantity</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.unitPrice</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.factor</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.net</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.noteNumber</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.addItem.detail.subDetail.adjudication</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication</t>
-  </si>
-  <si>
-    <t>Header-level adjudication</t>
-  </si>
-  <si>
-    <t>The adjudication results which are presented at the header level rather than at the line-item or add-item levels.</t>
-  </si>
-  <si>
-    <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.reason</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.amount</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.value</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.system</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.version</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.code</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.display</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.adjudication.category.text</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.total</t>
-  </si>
-  <si>
-    <t>Adjudication totals</t>
-  </si>
-  <si>
-    <t>Categorized monetary totals for the adjudication.</t>
-  </si>
-  <si>
-    <t>Totals for amounts submitted, co-pays, benefits payable etc.</t>
-  </si>
-  <si>
-    <t>To provide the requestor with financial totals by category for the adjudication.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.total.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.total.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.total.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.total.category</t>
-  </si>
-  <si>
-    <t>A code to indicate the information type of this adjudication record. Information types may include: the value submitted, maximum values or percentages allowed or payable under the plan, amounts that the patient is responsible for in aggregate or pertaining to this item, amounts paid by other coverages, and the benefit payable for this item.</t>
-  </si>
-  <si>
-    <t>Needed to convey the type of total provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationAmountCategoryVS</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.total.amount</t>
-  </si>
-  <si>
-    <t>Financial total for the category</t>
-  </si>
-  <si>
-    <t>Monetary total amount associated with the category.</t>
-  </si>
-  <si>
-    <t>Needed to convey the total monetary amount.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.payment</t>
-  </si>
-  <si>
-    <t>Payment Details</t>
-  </si>
-  <si>
-    <t>Payment details for the adjudication of the claim.</t>
-  </si>
-  <si>
-    <t>Needed to convey references to the financial instrument that has been used if payment has been made.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.payment.id</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.payment.extension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.payment.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.payment.type</t>
-  </si>
-  <si>
-    <t>Partial or complete payment</t>
-  </si>
-  <si>
-    <t>Whether this represents partial or complete payment of the benefits payable.</t>
-  </si>
-  <si>
-    <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCodeVS</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.payment.adjustment</t>
-  </si>
-  <si>
-    <t>Payment adjustment for non-claim issues</t>
-  </si>
-  <si>
-    <t>Total amount of all adjustments to this payment included in this transaction which are not related to this claim's adjudication.</t>
-  </si>
-  <si>
-    <t>Insurers will deduct amounts owing from the provider (adjustment), such as a prior overpayment, from the amount owing to the provider (benefits payable) when payment is made to the provider.</t>
-  </si>
-  <si>
-    <t>To advise the requestor of adjustments applied to the payment.</t>
-  </si>
-  <si>
-    <t>ExplanationOfBenefit.payment.adjustmentReason</t>
-  </si>
-  <si>
-    <t>Explanation for the variance</t>
-  </si>
-  <si>
-    <t>Reason for the payment adjustment.</t>
-  </si>
-  <si>
-    <t>Needed to clarify the monetary adjustment.</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.date</t>
@@ -49236,7 +49242,7 @@
       </c>
       <c r="X408" s="2"/>
       <c r="Y408" t="s" s="2">
-        <v>764</v>
+        <v>895</v>
       </c>
       <c r="Z408" t="s" s="2">
         <v>43</v>
@@ -49283,7 +49289,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49309,7 +49315,7 @@
         <v>180</v>
       </c>
       <c r="K409" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L409" t="s" s="2">
         <v>767</v>
@@ -49367,7 +49373,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
@@ -49396,7 +49402,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49480,7 +49486,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>
@@ -49509,7 +49515,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49591,7 +49597,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
@@ -49620,7 +49626,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49702,7 +49708,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49731,7 +49737,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49815,7 +49821,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>
@@ -49844,7 +49850,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49928,7 +49934,7 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
@@ -49957,7 +49963,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -50039,7 +50045,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -50068,7 +50074,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
@@ -50150,7 +50156,7 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>41</v>
@@ -50179,7 +50185,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50205,10 +50211,10 @@
         <v>43</v>
       </c>
       <c r="K417" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="L417" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M417" s="2"/>
       <c r="N417" s="2"/>
@@ -50259,7 +50265,7 @@
         <v>43</v>
       </c>
       <c r="AE417" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF417" t="s" s="2">
         <v>41</v>
@@ -50288,7 +50294,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50317,7 +50323,7 @@
         <v>884</v>
       </c>
       <c r="L418" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M418" s="2"/>
       <c r="N418" s="2"/>
@@ -50368,7 +50374,7 @@
         <v>43</v>
       </c>
       <c r="AE418" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF418" t="s" s="2">
         <v>41</v>
@@ -50397,7 +50403,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
@@ -50506,7 +50512,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50617,7 +50623,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50730,7 +50736,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50812,7 +50818,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>50</v>
@@ -50841,7 +50847,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
@@ -50923,7 +50929,7 @@
         <v>43</v>
       </c>
       <c r="AE423" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AF423" t="s" s="2">
         <v>41</v>
@@ -50952,7 +50958,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -51036,7 +51042,7 @@
         <v>43</v>
       </c>
       <c r="AE424" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AF424" t="s" s="2">
         <v>41</v>
@@ -51065,7 +51071,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
@@ -51128,28 +51134,28 @@
         <v>116</v>
       </c>
       <c r="X425" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="Y425" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="Z425" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA425" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB425" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC425" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD425" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE425" t="s" s="2">
         <v>916</v>
-      </c>
-      <c r="Y425" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="Z425" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA425" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB425" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC425" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD425" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE425" t="s" s="2">
-        <v>915</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>50</v>
@@ -51178,7 +51184,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
@@ -51204,13 +51210,13 @@
         <v>180</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L426" t="s" s="2">
         <v>767</v>
       </c>
       <c r="M426" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N426" t="s" s="2">
         <v>769</v>
@@ -51262,7 +51268,7 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
@@ -51291,7 +51297,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
@@ -51375,7 +51381,7 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>41</v>
@@ -51404,7 +51410,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
@@ -51486,7 +51492,7 @@
         <v>43</v>
       </c>
       <c r="AE428" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AF428" t="s" s="2">
         <v>41</v>
@@ -51515,7 +51521,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51597,7 +51603,7 @@
         <v>43</v>
       </c>
       <c r="AE429" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AF429" t="s" s="2">
         <v>41</v>
@@ -51626,7 +51632,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
@@ -51710,7 +51716,7 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="AF430" t="s" s="2">
         <v>41</v>
@@ -51739,7 +51745,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51823,7 +51829,7 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>41</v>
@@ -51852,7 +51858,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" t="s" s="2">
@@ -51934,7 +51940,7 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
@@ -51963,7 +51969,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
@@ -52045,7 +52051,7 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>
@@ -52074,7 +52080,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" t="s" s="2">
@@ -52100,10 +52106,10 @@
         <v>43</v>
       </c>
       <c r="K434" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L434" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M434" s="2"/>
       <c r="N434" s="2"/>
@@ -52154,7 +52160,7 @@
         <v>43</v>
       </c>
       <c r="AE434" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="AF434" t="s" s="2">
         <v>41</v>
@@ -52183,7 +52189,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" t="s" s="2">
@@ -52209,14 +52215,14 @@
         <v>375</v>
       </c>
       <c r="K435" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L435" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M435" s="2"/>
       <c r="N435" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O435" t="s" s="2">
         <v>43</v>
@@ -52265,7 +52271,7 @@
         <v>43</v>
       </c>
       <c r="AE435" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF435" t="s" s="2">
         <v>41</v>
@@ -52294,7 +52300,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B436" s="2"/>
       <c r="C436" t="s" s="2">
@@ -52403,7 +52409,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B437" s="2"/>
       <c r="C437" t="s" s="2">
@@ -52514,7 +52520,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B438" s="2"/>
       <c r="C438" t="s" s="2">
@@ -52627,7 +52633,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" t="s" s="2">
@@ -52653,14 +52659,14 @@
         <v>483</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M439" s="2"/>
       <c r="N439" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="O439" t="s" s="2">
         <v>43</v>
@@ -52709,7 +52715,7 @@
         <v>43</v>
       </c>
       <c r="AE439" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AF439" t="s" s="2">
         <v>41</v>
@@ -52738,7 +52744,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B440" s="2"/>
       <c r="C440" t="s" s="2">
@@ -52764,14 +52770,14 @@
         <v>483</v>
       </c>
       <c r="K440" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L440" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M440" s="2"/>
       <c r="N440" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="O440" t="s" s="2">
         <v>43</v>
@@ -52820,7 +52826,7 @@
         <v>43</v>
       </c>
       <c r="AE440" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AF440" t="s" s="2">
         <v>41</v>
@@ -52849,7 +52855,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" t="s" s="2">
@@ -52875,14 +52881,14 @@
         <v>483</v>
       </c>
       <c r="K441" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L441" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M441" s="2"/>
       <c r="N441" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O441" t="s" s="2">
         <v>43</v>
@@ -52931,7 +52937,7 @@
         <v>43</v>
       </c>
       <c r="AE441" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF441" t="s" s="2">
         <v>41</v>
@@ -52960,7 +52966,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" t="s" s="2">
@@ -52986,14 +52992,14 @@
         <v>488</v>
       </c>
       <c r="K442" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="L442" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M442" s="2"/>
       <c r="N442" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O442" t="s" s="2">
         <v>43</v>
@@ -53042,7 +53048,7 @@
         <v>43</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>41</v>
@@ -53071,7 +53077,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" t="s" s="2">
@@ -53134,10 +53140,10 @@
         <v>116</v>
       </c>
       <c r="X443" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Y443" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="Z443" t="s" s="2">
         <v>43</v>
@@ -53155,7 +53161,7 @@
         <v>43</v>
       </c>
       <c r="AE443" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="AF443" t="s" s="2">
         <v>50</v>
@@ -53184,7 +53190,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B444" s="2"/>
       <c r="C444" t="s" s="2">
@@ -53210,7 +53216,7 @@
         <v>180</v>
       </c>
       <c r="K444" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L444" t="s" s="2">
         <v>767</v>
@@ -53268,7 +53274,7 @@
         <v>43</v>
       </c>
       <c r="AE444" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="AF444" t="s" s="2">
         <v>41</v>
@@ -53297,7 +53303,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B445" s="2"/>
       <c r="C445" t="s" s="2">
@@ -53381,7 +53387,7 @@
         <v>43</v>
       </c>
       <c r="AE445" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AF445" t="s" s="2">
         <v>41</v>
@@ -53410,7 +53416,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B446" s="2"/>
       <c r="C446" t="s" s="2">
@@ -53492,7 +53498,7 @@
         <v>43</v>
       </c>
       <c r="AE446" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AF446" t="s" s="2">
         <v>41</v>
@@ -53521,7 +53527,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" t="s" s="2">
@@ -53603,7 +53609,7 @@
         <v>43</v>
       </c>
       <c r="AE447" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="AF447" t="s" s="2">
         <v>41</v>
@@ -53632,7 +53638,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B448" s="2"/>
       <c r="C448" t="s" s="2">
@@ -53714,7 +53720,7 @@
         <v>43</v>
       </c>
       <c r="AE448" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AF448" t="s" s="2">
         <v>41</v>
@@ -53743,7 +53749,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s" s="2">
@@ -53825,7 +53831,7 @@
         <v>43</v>
       </c>
       <c r="AE449" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AF449" t="s" s="2">
         <v>41</v>
@@ -53854,7 +53860,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" t="s" s="2">
@@ -53938,7 +53944,7 @@
         <v>43</v>
       </c>
       <c r="AE450" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AF450" t="s" s="2">
         <v>41</v>
@@ -53967,7 +53973,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B451" s="2"/>
       <c r="C451" t="s" s="2">
@@ -54051,7 +54057,7 @@
         <v>43</v>
       </c>
       <c r="AE451" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AF451" t="s" s="2">
         <v>41</v>
@@ -54080,7 +54086,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" t="s" s="2">
@@ -54112,7 +54118,7 @@
         <v>814</v>
       </c>
       <c r="M452" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N452" t="s" s="2">
         <v>816</v>
@@ -54164,7 +54170,7 @@
         <v>43</v>
       </c>
       <c r="AE452" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="AF452" t="s" s="2">
         <v>41</v>
@@ -54193,7 +54199,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B453" s="2"/>
       <c r="C453" t="s" s="2">
@@ -54275,7 +54281,7 @@
         <v>43</v>
       </c>
       <c r="AE453" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AF453" t="s" s="2">
         <v>41</v>
@@ -54304,7 +54310,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B454" s="2"/>
       <c r="C454" t="s" s="2">
@@ -54386,7 +54392,7 @@
         <v>43</v>
       </c>
       <c r="AE454" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AF454" t="s" s="2">
         <v>41</v>
@@ -54415,7 +54421,7 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" t="s" s="2">
@@ -54441,10 +54447,10 @@
         <v>43</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L455" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M455" s="2"/>
       <c r="N455" s="2"/>
@@ -54495,7 +54501,7 @@
         <v>43</v>
       </c>
       <c r="AE455" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AF455" t="s" s="2">
         <v>41</v>
@@ -54524,7 +54530,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" t="s" s="2">
@@ -54550,10 +54556,10 @@
         <v>375</v>
       </c>
       <c r="K456" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L456" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M456" s="2"/>
       <c r="N456" s="2"/>
@@ -54604,7 +54610,7 @@
         <v>43</v>
       </c>
       <c r="AE456" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AF456" t="s" s="2">
         <v>41</v>
@@ -54633,7 +54639,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B457" s="2"/>
       <c r="C457" t="s" s="2">
@@ -54742,7 +54748,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B458" s="2"/>
       <c r="C458" t="s" s="2">
@@ -54853,7 +54859,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" t="s" s="2">
@@ -54966,7 +54972,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B460" s="2"/>
       <c r="C460" t="s" s="2">
@@ -55029,10 +55035,10 @@
         <v>116</v>
       </c>
       <c r="X460" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Y460" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="Z460" t="s" s="2">
         <v>43</v>
@@ -55050,7 +55056,7 @@
         <v>43</v>
       </c>
       <c r="AE460" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AF460" t="s" s="2">
         <v>50</v>
@@ -55079,7 +55085,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B461" s="2"/>
       <c r="C461" t="s" s="2">
@@ -55105,7 +55111,7 @@
         <v>180</v>
       </c>
       <c r="K461" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L461" t="s" s="2">
         <v>767</v>
@@ -55163,7 +55169,7 @@
         <v>43</v>
       </c>
       <c r="AE461" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF461" t="s" s="2">
         <v>41</v>
@@ -55192,7 +55198,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B462" s="2"/>
       <c r="C462" t="s" s="2">
@@ -55274,7 +55280,7 @@
         <v>43</v>
       </c>
       <c r="AE462" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AF462" t="s" s="2">
         <v>41</v>
@@ -55303,7 +55309,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B463" s="2"/>
       <c r="C463" t="s" s="2">
@@ -55385,7 +55391,7 @@
         <v>43</v>
       </c>
       <c r="AE463" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="AF463" t="s" s="2">
         <v>41</v>
@@ -55414,7 +55420,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" t="s" s="2">
@@ -55498,7 +55504,7 @@
         <v>43</v>
       </c>
       <c r="AE464" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AF464" t="s" s="2">
         <v>41</v>
@@ -55527,7 +55533,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" t="s" s="2">
@@ -55611,7 +55617,7 @@
         <v>43</v>
       </c>
       <c r="AE465" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="AF465" t="s" s="2">
         <v>41</v>
@@ -55640,7 +55646,7 @@
     </row>
     <row r="466" hidden="true">
       <c r="A466" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B466" s="2"/>
       <c r="C466" t="s" s="2">
@@ -55722,7 +55728,7 @@
         <v>43</v>
       </c>
       <c r="AE466" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AF466" t="s" s="2">
         <v>41</v>
@@ -55751,7 +55757,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" t="s" s="2">
@@ -55777,10 +55783,10 @@
         <v>43</v>
       </c>
       <c r="K467" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L467" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M467" s="2"/>
       <c r="N467" s="2"/>
@@ -55831,7 +55837,7 @@
         <v>43</v>
       </c>
       <c r="AE467" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AF467" t="s" s="2">
         <v>41</v>
@@ -55860,7 +55866,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B468" s="2"/>
       <c r="C468" t="s" s="2">
@@ -55886,10 +55892,10 @@
         <v>375</v>
       </c>
       <c r="K468" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L468" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="M468" s="2"/>
       <c r="N468" s="2"/>
@@ -55940,7 +55946,7 @@
         <v>43</v>
       </c>
       <c r="AE468" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AF468" t="s" s="2">
         <v>41</v>
@@ -55969,7 +55975,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B469" s="2"/>
       <c r="C469" t="s" s="2">
@@ -56078,7 +56084,7 @@
     </row>
     <row r="470" hidden="true">
       <c r="A470" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B470" s="2"/>
       <c r="C470" t="s" s="2">
@@ -56189,7 +56195,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B471" s="2"/>
       <c r="C471" t="s" s="2">
@@ -56302,7 +56308,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" t="s" s="2">
@@ -56365,10 +56371,10 @@
         <v>116</v>
       </c>
       <c r="X472" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Y472" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="Z472" t="s" s="2">
         <v>43</v>
@@ -56386,7 +56392,7 @@
         <v>43</v>
       </c>
       <c r="AE472" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AF472" t="s" s="2">
         <v>50</v>
@@ -56415,7 +56421,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B473" s="2"/>
       <c r="C473" t="s" s="2">
@@ -56441,7 +56447,7 @@
         <v>180</v>
       </c>
       <c r="K473" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L473" t="s" s="2">
         <v>767</v>
@@ -56499,7 +56505,7 @@
         <v>43</v>
       </c>
       <c r="AE473" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AF473" t="s" s="2">
         <v>41</v>
@@ -56528,7 +56534,7 @@
     </row>
     <row r="474" hidden="true">
       <c r="A474" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B474" s="2"/>
       <c r="C474" t="s" s="2">
@@ -56610,7 +56616,7 @@
         <v>43</v>
       </c>
       <c r="AE474" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AF474" t="s" s="2">
         <v>41</v>
@@ -56639,7 +56645,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B475" s="2"/>
       <c r="C475" t="s" s="2">
@@ -56721,7 +56727,7 @@
         <v>43</v>
       </c>
       <c r="AE475" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="AF475" t="s" s="2">
         <v>41</v>
@@ -56750,7 +56756,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B476" s="2"/>
       <c r="C476" t="s" s="2">
@@ -56834,7 +56840,7 @@
         <v>43</v>
       </c>
       <c r="AE476" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="AF476" t="s" s="2">
         <v>41</v>
@@ -56863,7 +56869,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B477" s="2"/>
       <c r="C477" t="s" s="2">
@@ -56947,7 +56953,7 @@
         <v>43</v>
       </c>
       <c r="AE477" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AF477" t="s" s="2">
         <v>41</v>
@@ -56976,7 +56982,7 @@
     </row>
     <row r="478" hidden="true">
       <c r="A478" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B478" s="2"/>
       <c r="C478" t="s" s="2">
@@ -57058,7 +57064,7 @@
         <v>43</v>
       </c>
       <c r="AE478" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="AF478" t="s" s="2">
         <v>41</v>
@@ -57087,7 +57093,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" t="s" s="2">
@@ -57113,10 +57119,10 @@
         <v>43</v>
       </c>
       <c r="K479" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L479" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M479" s="2"/>
       <c r="N479" s="2"/>
@@ -57167,7 +57173,7 @@
         <v>43</v>
       </c>
       <c r="AE479" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AF479" t="s" s="2">
         <v>41</v>
@@ -57196,7 +57202,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" t="s" s="2">
@@ -57222,14 +57228,14 @@
         <v>375</v>
       </c>
       <c r="K480" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="L480" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M480" s="2"/>
       <c r="N480" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O480" t="s" s="2">
         <v>43</v>
@@ -57278,7 +57284,7 @@
         <v>669</v>
       </c>
       <c r="AE480" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AF480" t="s" s="2">
         <v>41</v>
@@ -57307,7 +57313,7 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B481" s="2"/>
       <c r="C481" t="s" s="2">
@@ -57416,7 +57422,7 @@
     </row>
     <row r="482" hidden="true">
       <c r="A482" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B482" s="2"/>
       <c r="C482" t="s" s="2">
@@ -57527,7 +57533,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B483" s="2"/>
       <c r="C483" t="s" s="2">
@@ -57640,7 +57646,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B484" s="2"/>
       <c r="C484" t="s" s="2">
@@ -57751,7 +57757,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B485" s="2"/>
       <c r="C485" t="s" s="2">
@@ -57864,7 +57870,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" t="s" s="2">
@@ -57977,7 +57983,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B487" s="2"/>
       <c r="C487" t="s" s="2">
@@ -58090,7 +58096,7 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B488" t="s" s="2">
         <v>863</v>
@@ -58121,11 +58127,11 @@
         <v>864</v>
       </c>
       <c r="L488" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M488" s="2"/>
       <c r="N488" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O488" t="s" s="2">
         <v>43</v>
@@ -58174,7 +58180,7 @@
         <v>43</v>
       </c>
       <c r="AE488" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AF488" t="s" s="2">
         <v>41</v>
@@ -58203,7 +58209,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B489" s="2"/>
       <c r="C489" t="s" s="2">
@@ -58312,7 +58318,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B490" s="2"/>
       <c r="C490" t="s" s="2">
@@ -58423,7 +58429,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B491" s="2"/>
       <c r="C491" t="s" s="2">
@@ -58536,7 +58542,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B492" s="2"/>
       <c r="C492" t="s" s="2">
@@ -58647,7 +58653,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B493" s="2"/>
       <c r="C493" t="s" s="2">
@@ -58760,7 +58766,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" t="s" s="2">
@@ -58873,7 +58879,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" t="s" s="2">
@@ -58986,7 +58992,7 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B496" t="s" s="2">
         <v>880</v>
@@ -59017,11 +59023,11 @@
         <v>881</v>
       </c>
       <c r="L496" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M496" s="2"/>
       <c r="N496" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O496" t="s" s="2">
         <v>43</v>
@@ -59070,7 +59076,7 @@
         <v>43</v>
       </c>
       <c r="AE496" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AF496" t="s" s="2">
         <v>41</v>
@@ -59099,7 +59105,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B497" s="2"/>
       <c r="C497" t="s" s="2">
@@ -59208,7 +59214,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" t="s" s="2">
@@ -59319,7 +59325,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" t="s" s="2">
@@ -59432,7 +59438,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" t="s" s="2">
@@ -59543,7 +59549,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" t="s" s="2">
@@ -59652,7 +59658,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" t="s" s="2">
@@ -59763,7 +59769,7 @@
     </row>
     <row r="503" hidden="true">
       <c r="A503" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B503" s="2"/>
       <c r="C503" t="s" s="2">
@@ -59876,7 +59882,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B504" s="2"/>
       <c r="C504" t="s" s="2">
@@ -59985,7 +59991,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" t="s" s="2">
@@ -60096,7 +60102,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" t="s" s="2">
@@ -60209,7 +60215,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B507" s="2"/>
       <c r="C507" t="s" s="2">
@@ -60320,7 +60326,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" t="s" s="2">
@@ -60431,7 +60437,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B509" s="2"/>
       <c r="C509" t="s" s="2">
@@ -60542,7 +60548,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B510" s="2"/>
       <c r="C510" t="s" s="2">
@@ -60655,7 +60661,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B511" s="2"/>
       <c r="C511" t="s" s="2">
@@ -60768,7 +60774,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B512" s="2"/>
       <c r="C512" t="s" s="2">
@@ -60881,7 +60887,7 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B513" s="2"/>
       <c r="C513" t="s" s="2">
@@ -60994,7 +61000,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" t="s" s="2">
@@ -61107,7 +61113,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B515" s="2"/>
       <c r="C515" t="s" s="2">
@@ -61133,16 +61139,16 @@
         <v>375</v>
       </c>
       <c r="K515" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L515" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M515" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N515" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="O515" t="s" s="2">
         <v>43</v>
@@ -61191,7 +61197,7 @@
         <v>43</v>
       </c>
       <c r="AE515" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AF515" t="s" s="2">
         <v>41</v>
@@ -61220,7 +61226,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B516" s="2"/>
       <c r="C516" t="s" s="2">
@@ -61329,7 +61335,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B517" s="2"/>
       <c r="C517" t="s" s="2">
@@ -61440,7 +61446,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B518" s="2"/>
       <c r="C518" t="s" s="2">
@@ -61553,7 +61559,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B519" s="2"/>
       <c r="C519" t="s" s="2">
@@ -61582,13 +61588,13 @@
         <v>841</v>
       </c>
       <c r="L519" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M519" t="s" s="2">
         <v>843</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="O519" t="s" s="2">
         <v>43</v>
@@ -61617,7 +61623,7 @@
       </c>
       <c r="X519" s="2"/>
       <c r="Y519" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="Z519" t="s" s="2">
         <v>43</v>
@@ -61635,7 +61641,7 @@
         <v>43</v>
       </c>
       <c r="AE519" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="AF519" t="s" s="2">
         <v>50</v>
@@ -61664,7 +61670,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B520" s="2"/>
       <c r="C520" t="s" s="2">
@@ -61690,14 +61696,14 @@
         <v>796</v>
       </c>
       <c r="K520" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="L520" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M520" s="2"/>
       <c r="N520" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="O520" t="s" s="2">
         <v>43</v>
@@ -61746,7 +61752,7 @@
         <v>43</v>
       </c>
       <c r="AE520" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AF520" t="s" s="2">
         <v>50</v>
@@ -61775,7 +61781,7 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B521" s="2"/>
       <c r="C521" t="s" s="2">
@@ -61801,14 +61807,14 @@
         <v>375</v>
       </c>
       <c r="K521" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="L521" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="M521" s="2"/>
       <c r="N521" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="O521" t="s" s="2">
         <v>43</v>
@@ -61857,7 +61863,7 @@
         <v>43</v>
       </c>
       <c r="AE521" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="AF521" t="s" s="2">
         <v>41</v>
@@ -61886,7 +61892,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B522" s="2"/>
       <c r="C522" t="s" s="2">
@@ -61995,7 +62001,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B523" s="2"/>
       <c r="C523" t="s" s="2">
@@ -62106,7 +62112,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B524" s="2"/>
       <c r="C524" t="s" s="2">
@@ -62219,7 +62225,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B525" s="2"/>
       <c r="C525" t="s" s="2">
@@ -62245,14 +62251,14 @@
         <v>180</v>
       </c>
       <c r="K525" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="L525" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="M525" s="2"/>
       <c r="N525" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="O525" t="s" s="2">
         <v>43</v>
@@ -62281,7 +62287,7 @@
       </c>
       <c r="X525" s="2"/>
       <c r="Y525" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="Z525" t="s" s="2">
         <v>43</v>
@@ -62299,7 +62305,7 @@
         <v>43</v>
       </c>
       <c r="AE525" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="AF525" t="s" s="2">
         <v>41</v>
@@ -62328,7 +62334,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B526" s="2"/>
       <c r="C526" t="s" s="2">
@@ -62354,16 +62360,16 @@
         <v>796</v>
       </c>
       <c r="K526" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L526" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M526" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N526" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O526" t="s" s="2">
         <v>43</v>
@@ -62412,7 +62418,7 @@
         <v>43</v>
       </c>
       <c r="AE526" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="AF526" t="s" s="2">
         <v>41</v>
@@ -62441,7 +62447,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B527" s="2"/>
       <c r="C527" t="s" s="2">
@@ -62467,14 +62473,14 @@
         <v>180</v>
       </c>
       <c r="K527" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="L527" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="M527" s="2"/>
       <c r="N527" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="O527" t="s" s="2">
         <v>43</v>
@@ -62503,7 +62509,7 @@
       </c>
       <c r="X527" s="2"/>
       <c r="Y527" t="s" s="2">
-        <v>879</v>
+        <v>1053</v>
       </c>
       <c r="Z527" t="s" s="2">
         <v>43</v>
@@ -62521,7 +62527,7 @@
         <v>43</v>
       </c>
       <c r="AE527" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="AF527" t="s" s="2">
         <v>41</v>
@@ -62550,7 +62556,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" t="s" s="2">
@@ -62576,14 +62582,14 @@
         <v>702</v>
       </c>
       <c r="K528" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="L528" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="M528" s="2"/>
       <c r="N528" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="O528" t="s" s="2">
         <v>43</v>
@@ -62632,7 +62638,7 @@
         <v>43</v>
       </c>
       <c r="AE528" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="AF528" t="s" s="2">
         <v>41</v>
@@ -62661,7 +62667,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B529" s="2"/>
       <c r="C529" t="s" s="2">
@@ -62687,14 +62693,14 @@
         <v>796</v>
       </c>
       <c r="K529" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="L529" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="M529" s="2"/>
       <c r="N529" t="s" s="2">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="O529" t="s" s="2">
         <v>43</v>
@@ -62743,7 +62749,7 @@
         <v>43</v>
       </c>
       <c r="AE529" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="AF529" t="s" s="2">
         <v>41</v>
@@ -62772,7 +62778,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B530" s="2"/>
       <c r="C530" t="s" s="2">
@@ -62798,16 +62804,16 @@
         <v>159</v>
       </c>
       <c r="K530" t="s" s="2">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="L530" t="s" s="2">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="M530" t="s" s="2">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="N530" t="s" s="2">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="O530" t="s" s="2">
         <v>43</v>
@@ -62856,7 +62862,7 @@
         <v>43</v>
       </c>
       <c r="AE530" t="s" s="2">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="AF530" t="s" s="2">
         <v>41</v>
@@ -62885,7 +62891,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" t="s" s="2">
@@ -62911,16 +62917,16 @@
         <v>180</v>
       </c>
       <c r="K531" t="s" s="2">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="L531" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="M531" t="s" s="2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="N531" t="s" s="2">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="O531" t="s" s="2">
         <v>43</v>
@@ -62948,10 +62954,10 @@
         <v>116</v>
       </c>
       <c r="X531" t="s" s="2">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="Y531" t="s" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="Z531" t="s" s="2">
         <v>43</v>
@@ -62969,7 +62975,7 @@
         <v>43</v>
       </c>
       <c r="AE531" t="s" s="2">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="AF531" t="s" s="2">
         <v>41</v>
@@ -62998,7 +63004,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B532" s="2"/>
       <c r="C532" t="s" s="2">
@@ -63021,19 +63027,19 @@
         <v>43</v>
       </c>
       <c r="J532" t="s" s="2">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="K532" t="s" s="2">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="L532" t="s" s="2">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="M532" t="s" s="2">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="N532" t="s" s="2">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="O532" t="s" s="2">
         <v>43</v>
@@ -63082,7 +63088,7 @@
         <v>43</v>
       </c>
       <c r="AE532" t="s" s="2">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="AF532" t="s" s="2">
         <v>41</v>
@@ -63111,7 +63117,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B533" s="2"/>
       <c r="C533" t="s" s="2">
@@ -63137,14 +63143,14 @@
         <v>375</v>
       </c>
       <c r="K533" t="s" s="2">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="L533" t="s" s="2">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="M533" s="2"/>
       <c r="N533" t="s" s="2">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="O533" t="s" s="2">
         <v>43</v>
@@ -63193,7 +63199,7 @@
         <v>43</v>
       </c>
       <c r="AE533" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="AF533" t="s" s="2">
         <v>41</v>
@@ -63222,7 +63228,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B534" s="2"/>
       <c r="C534" t="s" s="2">
@@ -63331,7 +63337,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B535" s="2"/>
       <c r="C535" t="s" s="2">
@@ -63442,7 +63448,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B536" s="2"/>
       <c r="C536" t="s" s="2">
@@ -63555,7 +63561,7 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B537" s="2"/>
       <c r="C537" t="s" s="2">
@@ -63581,14 +63587,14 @@
         <v>483</v>
       </c>
       <c r="K537" t="s" s="2">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="L537" t="s" s="2">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="M537" s="2"/>
       <c r="N537" t="s" s="2">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="O537" t="s" s="2">
         <v>43</v>
@@ -63637,7 +63643,7 @@
         <v>43</v>
       </c>
       <c r="AE537" t="s" s="2">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="AF537" t="s" s="2">
         <v>41</v>
@@ -63666,7 +63672,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B538" s="2"/>
       <c r="C538" t="s" s="2">
@@ -63692,14 +63698,14 @@
         <v>126</v>
       </c>
       <c r="K538" t="s" s="2">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="M538" s="2"/>
       <c r="N538" t="s" s="2">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="O538" t="s" s="2">
         <v>43</v>
@@ -63727,10 +63733,10 @@
         <v>174</v>
       </c>
       <c r="X538" t="s" s="2">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="Y538" t="s" s="2">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="Z538" t="s" s="2">
         <v>43</v>
@@ -63748,7 +63754,7 @@
         <v>43</v>
       </c>
       <c r="AE538" t="s" s="2">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="AF538" t="s" s="2">
         <v>41</v>
@@ -63777,7 +63783,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" t="s" s="2">
@@ -63803,14 +63809,14 @@
         <v>52</v>
       </c>
       <c r="K539" t="s" s="2">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="M539" s="2"/>
       <c r="N539" t="s" s="2">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="O539" t="s" s="2">
         <v>43</v>
@@ -63859,7 +63865,7 @@
         <v>43</v>
       </c>
       <c r="AE539" t="s" s="2">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="AF539" t="s" s="2">
         <v>41</v>
@@ -63888,7 +63894,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" t="s" s="2">
@@ -63914,16 +63920,16 @@
         <v>180</v>
       </c>
       <c r="K540" t="s" s="2">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="L540" t="s" s="2">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="M540" t="s" s="2">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="N540" t="s" s="2">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="O540" t="s" s="2">
         <v>43</v>
@@ -63972,7 +63978,7 @@
         <v>43</v>
       </c>
       <c r="AE540" t="s" s="2">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="AF540" t="s" s="2">
         <v>41</v>
@@ -64001,7 +64007,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" t="s" s="2">
@@ -64027,16 +64033,16 @@
         <v>207</v>
       </c>
       <c r="K541" t="s" s="2">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="L541" t="s" s="2">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="N541" t="s" s="2">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="O541" t="s" s="2">
         <v>43</v>
@@ -64085,7 +64091,7 @@
         <v>43</v>
       </c>
       <c r="AE541" t="s" s="2">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="AF541" t="s" s="2">
         <v>41</v>
@@ -64114,7 +64120,7 @@
     </row>
     <row r="542" hidden="true">
       <c r="A542" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B542" s="2"/>
       <c r="C542" t="s" s="2">
@@ -64140,10 +64146,10 @@
         <v>375</v>
       </c>
       <c r="K542" t="s" s="2">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="L542" t="s" s="2">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="M542" s="2"/>
       <c r="N542" s="2"/>
@@ -64194,7 +64200,7 @@
         <v>43</v>
       </c>
       <c r="AE542" t="s" s="2">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="AF542" t="s" s="2">
         <v>41</v>
@@ -64223,7 +64229,7 @@
     </row>
     <row r="543" hidden="true">
       <c r="A543" t="s" s="2">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B543" s="2"/>
       <c r="C543" t="s" s="2">
@@ -64332,7 +64338,7 @@
     </row>
     <row r="544" hidden="true">
       <c r="A544" t="s" s="2">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B544" s="2"/>
       <c r="C544" t="s" s="2">
@@ -64443,7 +64449,7 @@
     </row>
     <row r="545" hidden="true">
       <c r="A545" t="s" s="2">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B545" s="2"/>
       <c r="C545" t="s" s="2">
@@ -64556,7 +64562,7 @@
     </row>
     <row r="546" hidden="true">
       <c r="A546" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B546" s="2"/>
       <c r="C546" t="s" s="2">
@@ -64591,7 +64597,7 @@
         <v>754</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="O546" t="s" s="2">
         <v>43</v>
@@ -64640,7 +64646,7 @@
         <v>43</v>
       </c>
       <c r="AE546" t="s" s="2">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="AF546" t="s" s="2">
         <v>50</v>
@@ -64669,7 +64675,7 @@
     </row>
     <row r="547" hidden="true">
       <c r="A547" t="s" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B547" s="2"/>
       <c r="C547" t="s" s="2">
@@ -64695,14 +64701,14 @@
         <v>284</v>
       </c>
       <c r="K547" t="s" s="2">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="L547" t="s" s="2">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="M547" s="2"/>
       <c r="N547" t="s" s="2">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="O547" t="s" s="2">
         <v>43</v>
@@ -64751,7 +64757,7 @@
         <v>43</v>
       </c>
       <c r="AE547" t="s" s="2">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="AF547" t="s" s="2">
         <v>41</v>
@@ -64780,7 +64786,7 @@
     </row>
     <row r="548" hidden="true">
       <c r="A548" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B548" s="2"/>
       <c r="C548" t="s" s="2">
@@ -64806,16 +64812,16 @@
         <v>52</v>
       </c>
       <c r="K548" t="s" s="2">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="L548" t="s" s="2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="O548" t="s" s="2">
         <v>43</v>
@@ -64864,7 +64870,7 @@
         <v>43</v>
       </c>
       <c r="AE548" t="s" s="2">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="AF548" t="s" s="2">
         <v>41</v>
@@ -64893,7 +64899,7 @@
     </row>
     <row r="549" hidden="true">
       <c r="A549" t="s" s="2">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B549" s="2"/>
       <c r="C549" t="s" s="2">
@@ -64919,16 +64925,16 @@
         <v>52</v>
       </c>
       <c r="K549" t="s" s="2">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="L549" t="s" s="2">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="M549" t="s" s="2">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="N549" t="s" s="2">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="O549" t="s" s="2">
         <v>43</v>
@@ -64977,7 +64983,7 @@
         <v>43</v>
       </c>
       <c r="AE549" t="s" s="2">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="AF549" t="s" s="2">
         <v>41</v>
@@ -65006,7 +65012,7 @@
     </row>
     <row r="550" hidden="true">
       <c r="A550" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B550" s="2"/>
       <c r="C550" t="s" s="2">
@@ -65032,14 +65038,14 @@
         <v>180</v>
       </c>
       <c r="K550" t="s" s="2">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="L550" t="s" s="2">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="M550" s="2"/>
       <c r="N550" t="s" s="2">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="O550" t="s" s="2">
         <v>43</v>
@@ -65067,10 +65073,10 @@
         <v>116</v>
       </c>
       <c r="X550" t="s" s="2">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="Y550" t="s" s="2">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="Z550" t="s" s="2">
         <v>43</v>
@@ -65088,7 +65094,7 @@
         <v>43</v>
       </c>
       <c r="AE550" t="s" s="2">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="AF550" t="s" s="2">
         <v>41</v>
@@ -65117,7 +65123,7 @@
     </row>
     <row r="551" hidden="true">
       <c r="A551" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B551" s="2"/>
       <c r="C551" t="s" s="2">
@@ -65143,14 +65149,14 @@
         <v>180</v>
       </c>
       <c r="K551" t="s" s="2">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="L551" t="s" s="2">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="M551" s="2"/>
       <c r="N551" t="s" s="2">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="O551" t="s" s="2">
         <v>43</v>
@@ -65178,10 +65184,10 @@
         <v>116</v>
       </c>
       <c r="X551" t="s" s="2">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="Y551" t="s" s="2">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="Z551" t="s" s="2">
         <v>43</v>
@@ -65199,7 +65205,7 @@
         <v>43</v>
       </c>
       <c r="AE551" t="s" s="2">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="AF551" t="s" s="2">
         <v>41</v>
@@ -65228,7 +65234,7 @@
     </row>
     <row r="552" hidden="true">
       <c r="A552" t="s" s="2">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B552" s="2"/>
       <c r="C552" t="s" s="2">
@@ -65254,14 +65260,14 @@
         <v>180</v>
       </c>
       <c r="K552" t="s" s="2">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="L552" t="s" s="2">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="M552" s="2"/>
       <c r="N552" t="s" s="2">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="O552" t="s" s="2">
         <v>43</v>
@@ -65289,10 +65295,10 @@
         <v>116</v>
       </c>
       <c r="X552" t="s" s="2">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="Y552" t="s" s="2">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="Z552" t="s" s="2">
         <v>43</v>
@@ -65310,7 +65316,7 @@
         <v>43</v>
       </c>
       <c r="AE552" t="s" s="2">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="AF552" t="s" s="2">
         <v>41</v>
@@ -65339,7 +65345,7 @@
     </row>
     <row r="553" hidden="true">
       <c r="A553" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B553" s="2"/>
       <c r="C553" t="s" s="2">
@@ -65365,10 +65371,10 @@
         <v>375</v>
       </c>
       <c r="K553" t="s" s="2">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="L553" t="s" s="2">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="M553" s="2"/>
       <c r="N553" s="2"/>
@@ -65419,7 +65425,7 @@
         <v>43</v>
       </c>
       <c r="AE553" t="s" s="2">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="AF553" t="s" s="2">
         <v>41</v>
@@ -65448,7 +65454,7 @@
     </row>
     <row r="554" hidden="true">
       <c r="A554" t="s" s="2">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B554" s="2"/>
       <c r="C554" t="s" s="2">
@@ -65557,7 +65563,7 @@
     </row>
     <row r="555" hidden="true">
       <c r="A555" t="s" s="2">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B555" s="2"/>
       <c r="C555" t="s" s="2">
@@ -65668,7 +65674,7 @@
     </row>
     <row r="556" hidden="true">
       <c r="A556" t="s" s="2">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B556" s="2"/>
       <c r="C556" t="s" s="2">
@@ -65781,7 +65787,7 @@
     </row>
     <row r="557" hidden="true">
       <c r="A557" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B557" s="2"/>
       <c r="C557" t="s" s="2">
@@ -65810,13 +65816,13 @@
         <v>752</v>
       </c>
       <c r="L557" t="s" s="2">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="M557" t="s" s="2">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="N557" t="s" s="2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="O557" t="s" s="2">
         <v>43</v>
@@ -65844,10 +65850,10 @@
         <v>116</v>
       </c>
       <c r="X557" t="s" s="2">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="Y557" t="s" s="2">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="Z557" t="s" s="2">
         <v>43</v>
@@ -65865,7 +65871,7 @@
         <v>43</v>
       </c>
       <c r="AE557" t="s" s="2">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="AF557" t="s" s="2">
         <v>50</v>
@@ -65894,7 +65900,7 @@
     </row>
     <row r="558" hidden="true">
       <c r="A558" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B558" s="2"/>
       <c r="C558" t="s" s="2">
@@ -65917,17 +65923,17 @@
         <v>43</v>
       </c>
       <c r="J558" t="s" s="2">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="K558" t="s" s="2">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="L558" t="s" s="2">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="M558" s="2"/>
       <c r="N558" t="s" s="2">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="O558" t="s" s="2">
         <v>43</v>
@@ -65976,7 +65982,7 @@
         <v>43</v>
       </c>
       <c r="AE558" t="s" s="2">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="AF558" t="s" s="2">
         <v>41</v>
@@ -66005,7 +66011,7 @@
     </row>
     <row r="559" hidden="true">
       <c r="A559" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B559" s="2"/>
       <c r="C559" t="s" s="2">
@@ -66028,17 +66034,17 @@
         <v>43</v>
       </c>
       <c r="J559" t="s" s="2">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="K559" t="s" s="2">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="L559" t="s" s="2">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="M559" s="2"/>
       <c r="N559" t="s" s="2">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="O559" t="s" s="2">
         <v>43</v>
@@ -66087,7 +66093,7 @@
         <v>43</v>
       </c>
       <c r="AE559" t="s" s="2">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="AF559" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19702" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19703" uniqueCount="1172">
   <si>
     <t>Path</t>
   </si>
@@ -1246,7 +1246,10 @@
     <t>Some insurers need a declaration of the type of relationship.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/RelatedClaimVS</t>
+    <t>Relationship of this claim to a related Claim.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.related.reference</t>
@@ -1651,7 +1654,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/InformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.id</t>
@@ -1661,9 +1664,6 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.coding</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.category.text</t>
@@ -3163,7 +3163,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -3780,7 +3780,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.41796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="27.65234375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -11104,11 +11104,13 @@
         <v>43</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>43</v>
@@ -11155,7 +11157,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -11181,16 +11183,16 @@
         <v>159</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
@@ -11239,7 +11241,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -11268,7 +11270,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -11291,17 +11293,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -11350,7 +11352,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -11379,7 +11381,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -11402,19 +11404,19 @@
         <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11463,7 +11465,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -11492,7 +11494,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11518,16 +11520,16 @@
         <v>375</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11576,7 +11578,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11605,7 +11607,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11714,7 +11716,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11825,7 +11827,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11938,7 +11940,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11964,14 +11966,14 @@
         <v>180</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -12000,7 +12002,7 @@
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>43</v>
@@ -12018,7 +12020,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -12047,7 +12049,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -12070,19 +12072,19 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
@@ -12131,7 +12133,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -12160,7 +12162,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -12183,19 +12185,19 @@
         <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>43</v>
@@ -12244,7 +12246,7 @@
         <v>43</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -12262,7 +12264,7 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>43</v>
@@ -12273,7 +12275,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -12296,17 +12298,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -12355,7 +12357,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -12370,10 +12372,10 @@
         <v>62</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>43</v>
@@ -12384,7 +12386,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -12410,14 +12412,14 @@
         <v>388</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12466,7 +12468,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -12484,7 +12486,7 @@
         <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>43</v>
@@ -12495,7 +12497,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12518,17 +12520,17 @@
         <v>43</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12577,7 +12579,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12606,7 +12608,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12632,16 +12634,16 @@
         <v>126</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -12669,10 +12671,10 @@
         <v>174</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>43</v>
@@ -12690,7 +12692,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>50</v>
@@ -12719,7 +12721,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12745,14 +12747,14 @@
         <v>52</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12801,7 +12803,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12830,7 +12832,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12856,16 +12858,16 @@
         <v>52</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12914,7 +12916,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12943,7 +12945,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12969,16 +12971,16 @@
         <v>207</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -13027,7 +13029,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -13056,7 +13058,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -13082,14 +13084,14 @@
         <v>375</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
@@ -13138,7 +13140,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -13167,7 +13169,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -13276,7 +13278,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -13387,7 +13389,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -13500,7 +13502,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13523,17 +13525,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13582,7 +13584,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13611,7 +13613,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13634,17 +13636,17 @@
         <v>43</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13693,7 +13695,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>50</v>
@@ -13711,7 +13713,7 @@
         <v>43</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>43</v>
@@ -13722,7 +13724,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13748,16 +13750,16 @@
         <v>284</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13806,7 +13808,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13835,7 +13837,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13861,16 +13863,16 @@
         <v>180</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13899,7 +13901,7 @@
       </c>
       <c r="X91" s="2"/>
       <c r="Y91" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
@@ -13917,7 +13919,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13946,7 +13948,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13972,14 +13974,14 @@
         <v>180</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -14007,10 +14009,10 @@
         <v>116</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
@@ -14028,7 +14030,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -14057,7 +14059,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -14083,16 +14085,16 @@
         <v>375</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>43</v>
@@ -14129,7 +14131,7 @@
         <v>43</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB93" t="s" s="2">
         <v>164</v>
@@ -14141,7 +14143,7 @@
         <v>76</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -14170,7 +14172,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -14279,7 +14281,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -14390,7 +14392,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -14503,7 +14505,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14526,17 +14528,17 @@
         <v>43</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14585,7 +14587,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>50</v>
@@ -14614,7 +14616,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14640,16 +14642,16 @@
         <v>180</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14678,7 +14680,7 @@
       </c>
       <c r="X98" s="2"/>
       <c r="Y98" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>43</v>
@@ -14696,7 +14698,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>50</v>
@@ -14725,7 +14727,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14834,7 +14836,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14945,7 +14947,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -15009,7 +15011,7 @@
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>43</v>
@@ -15617,7 +15619,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>557</v>
@@ -15648,13 +15650,13 @@
         <v>558</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15703,7 +15705,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
@@ -15732,7 +15734,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15841,7 +15843,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15952,7 +15954,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -16065,7 +16067,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -16088,17 +16090,17 @@
         <v>43</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -16147,7 +16149,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>50</v>
@@ -16176,7 +16178,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16202,16 +16204,16 @@
         <v>180</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>43</v>
@@ -16240,7 +16242,7 @@
       </c>
       <c r="X112" s="2"/>
       <c r="Y112" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
@@ -16258,7 +16260,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>50</v>
@@ -16287,7 +16289,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16396,7 +16398,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16507,7 +16509,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16571,7 +16573,7 @@
       </c>
       <c r="X115" s="2"/>
       <c r="Y115" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>43</v>
@@ -17956,7 +17958,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>567</v>
@@ -17987,13 +17989,13 @@
         <v>568</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -18042,7 +18044,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -18071,7 +18073,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18180,7 +18182,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18291,7 +18293,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18404,7 +18406,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18427,17 +18429,17 @@
         <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18486,7 +18488,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>50</v>
@@ -18515,7 +18517,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18541,16 +18543,16 @@
         <v>180</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18579,7 +18581,7 @@
       </c>
       <c r="X133" s="2"/>
       <c r="Y133" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>43</v>
@@ -18597,7 +18599,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>50</v>
@@ -18626,7 +18628,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18735,7 +18737,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18846,7 +18848,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18910,7 +18912,7 @@
       </c>
       <c r="X136" s="2"/>
       <c r="Y136" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>43</v>
@@ -20295,7 +20297,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>571</v>
@@ -20326,13 +20328,13 @@
         <v>572</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -20381,7 +20383,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20410,7 +20412,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20519,7 +20521,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20630,7 +20632,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20743,7 +20745,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20766,17 +20768,17 @@
         <v>43</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20825,7 +20827,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20854,7 +20856,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20880,16 +20882,16 @@
         <v>180</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20918,7 +20920,7 @@
       </c>
       <c r="X154" s="2"/>
       <c r="Y154" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
@@ -20936,7 +20938,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>50</v>
@@ -20965,7 +20967,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21074,7 +21076,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -21185,7 +21187,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21249,7 +21251,7 @@
       </c>
       <c r="X157" s="2"/>
       <c r="Y157" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z157" t="s" s="2">
         <v>43</v>
@@ -22634,7 +22636,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>575</v>
@@ -22665,13 +22667,13 @@
         <v>576</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22720,7 +22722,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22749,7 +22751,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22858,7 +22860,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22969,7 +22971,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23082,7 +23084,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23105,17 +23107,17 @@
         <v>43</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M174" s="2"/>
       <c r="N174" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -23164,7 +23166,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>50</v>
@@ -23193,7 +23195,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23219,16 +23221,16 @@
         <v>180</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -23257,7 +23259,7 @@
       </c>
       <c r="X175" s="2"/>
       <c r="Y175" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
@@ -23275,7 +23277,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>50</v>
@@ -23304,7 +23306,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23413,7 +23415,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23524,7 +23526,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23588,7 +23590,7 @@
       </c>
       <c r="X178" s="2"/>
       <c r="Y178" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -24975,7 +24977,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>578</v>
@@ -25006,13 +25008,13 @@
         <v>579</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -25061,7 +25063,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -25090,7 +25092,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25199,7 +25201,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25310,7 +25312,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25423,7 +25425,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25446,17 +25448,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25505,7 +25507,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>50</v>
@@ -25534,7 +25536,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25560,16 +25562,16 @@
         <v>180</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25598,7 +25600,7 @@
       </c>
       <c r="X196" s="2"/>
       <c r="Y196" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z196" t="s" s="2">
         <v>43</v>
@@ -25616,7 +25618,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>50</v>
@@ -25645,7 +25647,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25754,7 +25756,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25865,7 +25867,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25929,7 +25931,7 @@
       </c>
       <c r="X199" s="2"/>
       <c r="Y199" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z199" t="s" s="2">
         <v>43</v>
@@ -27314,7 +27316,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>582</v>
@@ -27345,13 +27347,13 @@
         <v>583</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27400,7 +27402,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27429,7 +27431,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27538,7 +27540,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27649,7 +27651,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27762,7 +27764,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27785,17 +27787,17 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27844,7 +27846,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>50</v>
@@ -27873,7 +27875,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27899,16 +27901,16 @@
         <v>180</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27937,7 +27939,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27955,7 +27957,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>50</v>
@@ -27984,7 +27986,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -28093,7 +28095,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -28204,7 +28206,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28268,7 +28270,7 @@
       </c>
       <c r="X220" s="2"/>
       <c r="Y220" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
@@ -29655,7 +29657,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>584</v>
@@ -29686,13 +29688,13 @@
         <v>585</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29741,7 +29743,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -29770,7 +29772,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29879,7 +29881,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29990,7 +29992,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -30103,7 +30105,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30126,17 +30128,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30185,7 +30187,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>50</v>
@@ -30214,7 +30216,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30240,16 +30242,16 @@
         <v>180</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30278,7 +30280,7 @@
       </c>
       <c r="X238" s="2"/>
       <c r="Y238" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z238" t="s" s="2">
         <v>43</v>
@@ -30296,7 +30298,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>50</v>
@@ -30325,7 +30327,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30434,7 +30436,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30545,7 +30547,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30609,7 +30611,7 @@
       </c>
       <c r="X241" s="2"/>
       <c r="Y241" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
@@ -31996,7 +31998,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>587</v>
@@ -32027,13 +32029,13 @@
         <v>588</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -32082,7 +32084,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -32111,7 +32113,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -32220,7 +32222,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32331,7 +32333,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32444,7 +32446,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32467,17 +32469,17 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32526,7 +32528,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>50</v>
@@ -32555,7 +32557,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32581,16 +32583,16 @@
         <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32619,7 +32621,7 @@
       </c>
       <c r="X259" s="2"/>
       <c r="Y259" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32637,7 +32639,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>50</v>
@@ -32666,7 +32668,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32775,7 +32777,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32886,7 +32888,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32950,7 +32952,7 @@
       </c>
       <c r="X262" s="2"/>
       <c r="Y262" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="Z262" t="s" s="2">
         <v>43</v>
@@ -34804,7 +34806,7 @@
         <v>43</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K279" t="s" s="2">
         <v>597</v>
@@ -35809,7 +35811,7 @@
         <v>43</v>
       </c>
       <c r="J288" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K288" t="s" s="2">
         <v>636</v>
@@ -36364,7 +36366,7 @@
         <v>43</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K293" t="s" s="2">
         <v>659</v>
@@ -40051,7 +40053,7 @@
         <v>43</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K326" t="s" s="2">
         <v>726</v>
@@ -40162,7 +40164,7 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K327" t="s" s="2">
         <v>730</v>
@@ -40273,7 +40275,7 @@
         <v>43</v>
       </c>
       <c r="J328" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K328" t="s" s="2">
         <v>734</v>
@@ -40384,7 +40386,7 @@
         <v>43</v>
       </c>
       <c r="J329" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K329" t="s" s="2">
         <v>738</v>
@@ -40495,7 +40497,7 @@
         <v>43</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K330" t="s" s="2">
         <v>742</v>
@@ -41355,7 +41357,7 @@
         <v>43</v>
       </c>
       <c r="AK337" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL337" t="s" s="2">
         <v>43</v>
@@ -42283,7 +42285,7 @@
         <v>43</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K346" t="s" s="2">
         <v>830</v>
@@ -42441,7 +42443,7 @@
         <v>43</v>
       </c>
       <c r="AA347" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB347" t="s" s="2">
         <v>164</v>
@@ -48866,7 +48868,7 @@
         <v>43</v>
       </c>
       <c r="J405" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K405" t="s" s="2">
         <v>719</v>
@@ -50097,7 +50099,7 @@
         <v>43</v>
       </c>
       <c r="J416" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K416" t="s" s="2">
         <v>830</v>
@@ -50759,7 +50761,7 @@
         <v>43</v>
       </c>
       <c r="J422" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K422" t="s" s="2">
         <v>719</v>
@@ -51992,7 +51994,7 @@
         <v>43</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K433" t="s" s="2">
         <v>830</v>
@@ -52656,7 +52658,7 @@
         <v>43</v>
       </c>
       <c r="J439" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K439" t="s" s="2">
         <v>938</v>
@@ -52767,7 +52769,7 @@
         <v>43</v>
       </c>
       <c r="J440" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K440" t="s" s="2">
         <v>942</v>
@@ -52878,7 +52880,7 @@
         <v>43</v>
       </c>
       <c r="J441" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K441" t="s" s="2">
         <v>946</v>
@@ -52989,7 +52991,7 @@
         <v>43</v>
       </c>
       <c r="J442" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K442" t="s" s="2">
         <v>950</v>
@@ -53627,7 +53629,7 @@
         <v>43</v>
       </c>
       <c r="AK447" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL447" t="s" s="2">
         <v>43</v>
@@ -54333,7 +54335,7 @@
         <v>43</v>
       </c>
       <c r="J454" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K454" t="s" s="2">
         <v>830</v>
@@ -55669,7 +55671,7 @@
         <v>43</v>
       </c>
       <c r="J466" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K466" t="s" s="2">
         <v>830</v>
@@ -57005,7 +57007,7 @@
         <v>43</v>
       </c>
       <c r="J478" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K478" t="s" s="2">
         <v>830</v>
@@ -57272,7 +57274,7 @@
         <v>43</v>
       </c>
       <c r="AA480" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AB480" t="s" s="2">
         <v>164</v>
@@ -63584,7 +63586,7 @@
         <v>43</v>
       </c>
       <c r="J537" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K537" t="s" s="2">
         <v>1088</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -40596,7 +40596,7 @@
         <v>41</v>
       </c>
       <c r="F331" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G331" t="s" s="2">
         <v>43</v>
@@ -43835,7 +43835,7 @@
         <v>41</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G360" t="s" s="2">
         <v>43</v>
@@ -44061,7 +44061,7 @@
         <v>41</v>
       </c>
       <c r="F362" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G362" t="s" s="2">
         <v>43</v>
@@ -46067,7 +46067,7 @@
         <v>41</v>
       </c>
       <c r="F380" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G380" t="s" s="2">
         <v>43</v>
@@ -46180,7 +46180,7 @@
         <v>41</v>
       </c>
       <c r="F381" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G381" t="s" s="2">
         <v>43</v>
@@ -58666,7 +58666,7 @@
         <v>41</v>
       </c>
       <c r="F493" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G493" t="s" s="2">
         <v>43</v>
@@ -58892,7 +58892,7 @@
         <v>41</v>
       </c>
       <c r="F495" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G495" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -2677,7 +2677,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjustmentAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationPayerValueCodesVS</t>
   </si>
   <si>
     <t>denialreason</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19073" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19073" uniqueCount="1164">
   <si>
     <t>Path</t>
   </si>
@@ -1873,10 +1873,6 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.diagnosis.diagnosis[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Condition)</t>
   </si>
   <si>
     <t>Nature of illness or problem</t>
@@ -34468,17 +34464,17 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K276" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="K276" t="s" s="2">
+      <c r="L276" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34506,10 +34502,10 @@
         <v>116</v>
       </c>
       <c r="X276" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Y276" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="Y276" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="Z276" t="s" s="2">
         <v>43</v>
@@ -34556,7 +34552,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34582,16 +34578,16 @@
         <v>180</v>
       </c>
       <c r="K277" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L277" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="L277" t="s" s="2">
+      <c r="M277" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="M277" t="s" s="2">
+      <c r="N277" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34619,11 +34615,11 @@
         <v>116</v>
       </c>
       <c r="X277" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="Y277" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="Y277" t="s" s="2">
-        <v>614</v>
-      </c>
       <c r="Z277" t="s" s="2">
         <v>43</v>
       </c>
@@ -34640,7 +34636,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34669,7 +34665,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34695,14 +34691,14 @@
         <v>180</v>
       </c>
       <c r="K278" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L278" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="L278" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34730,11 +34726,11 @@
         <v>116</v>
       </c>
       <c r="X278" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="Y278" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="Y278" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="Z278" t="s" s="2">
         <v>43</v>
       </c>
@@ -34751,7 +34747,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34780,7 +34776,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34806,16 +34802,16 @@
         <v>180</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L279" t="s" s="2">
+      <c r="M279" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M279" t="s" s="2">
+      <c r="N279" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="N279" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34843,11 +34839,11 @@
         <v>116</v>
       </c>
       <c r="X279" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="Y279" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="Y279" t="s" s="2">
-        <v>627</v>
-      </c>
       <c r="Z279" t="s" s="2">
         <v>43</v>
       </c>
@@ -34864,7 +34860,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34893,7 +34889,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34919,14 +34915,14 @@
         <v>375</v>
       </c>
       <c r="K280" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L280" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="L280" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O280" t="s" s="2">
         <v>43</v>
@@ -34975,7 +34971,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -35004,7 +35000,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -35113,7 +35109,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35224,7 +35220,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35337,7 +35333,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35363,14 +35359,14 @@
         <v>484</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35419,7 +35415,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>50</v>
@@ -35448,7 +35444,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35474,14 +35470,14 @@
         <v>180</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35509,11 +35505,11 @@
         <v>116</v>
       </c>
       <c r="X285" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Y285" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="Y285" t="s" s="2">
-        <v>642</v>
-      </c>
       <c r="Z285" t="s" s="2">
         <v>43</v>
       </c>
@@ -35530,7 +35526,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35559,7 +35555,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35585,14 +35581,14 @@
         <v>328</v>
       </c>
       <c r="K286" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L286" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="L286" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35641,7 +35637,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35670,7 +35666,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35696,14 +35692,14 @@
         <v>180</v>
       </c>
       <c r="K287" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L287" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="L287" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="M287" s="2"/>
       <c r="N287" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35731,11 +35727,11 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="Y287" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="Y287" t="s" s="2">
-        <v>652</v>
-      </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
       </c>
@@ -35752,7 +35748,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35781,7 +35777,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35804,17 +35800,17 @@
         <v>43</v>
       </c>
       <c r="J288" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="K288" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="K288" t="s" s="2">
+      <c r="L288" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L288" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="M288" s="2"/>
       <c r="N288" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35863,7 +35859,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35892,7 +35888,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35918,14 +35914,14 @@
         <v>484</v>
       </c>
       <c r="K289" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="L289" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="L289" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="M289" s="2"/>
       <c r="N289" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35974,7 +35970,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -36003,7 +35999,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -36029,16 +36025,16 @@
         <v>375</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="L290" t="s" s="2">
+      <c r="M290" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="M290" t="s" s="2">
+      <c r="N290" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="N290" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -36087,7 +36083,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>50</v>
@@ -36108,7 +36104,7 @@
         <v>43</v>
       </c>
       <c r="AL290" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AM290" t="s" s="2">
         <v>43</v>
@@ -36116,7 +36112,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36225,7 +36221,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36336,7 +36332,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36449,7 +36445,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36475,16 +36471,16 @@
         <v>284</v>
       </c>
       <c r="K294" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L294" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="L294" t="s" s="2">
+      <c r="M294" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="M294" t="s" s="2">
+      <c r="N294" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36533,7 +36529,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>50</v>
@@ -36562,7 +36558,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36585,17 +36581,17 @@
         <v>51</v>
       </c>
       <c r="J295" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="K295" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="K295" t="s" s="2">
+      <c r="L295" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="L295" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" t="s" s="2">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36644,7 +36640,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>50</v>
@@ -36673,7 +36669,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36699,16 +36695,16 @@
         <v>52</v>
       </c>
       <c r="K296" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="L296" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="L296" t="s" s="2">
+      <c r="M296" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="M296" t="s" s="2">
+      <c r="N296" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="N296" t="s" s="2">
-        <v>685</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36757,7 +36753,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36786,7 +36782,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36812,14 +36808,14 @@
         <v>375</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36868,7 +36864,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36897,7 +36893,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -37006,7 +37002,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -37117,7 +37113,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -37230,7 +37226,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37253,19 +37249,19 @@
         <v>43</v>
       </c>
       <c r="J301" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="K301" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="K301" t="s" s="2">
+      <c r="L301" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="L301" t="s" s="2">
+      <c r="M301" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="M301" t="s" s="2">
+      <c r="N301" t="s" s="2">
         <v>697</v>
-      </c>
-      <c r="N301" t="s" s="2">
-        <v>698</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37314,7 +37310,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37343,7 +37339,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37369,14 +37365,14 @@
         <v>180</v>
       </c>
       <c r="K302" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="L302" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="L302" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37404,11 +37400,11 @@
         <v>108</v>
       </c>
       <c r="X302" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="Y302" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="Y302" t="s" s="2">
-        <v>704</v>
-      </c>
       <c r="Z302" t="s" s="2">
         <v>43</v>
       </c>
@@ -37425,7 +37421,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37454,7 +37450,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37477,17 +37473,17 @@
         <v>43</v>
       </c>
       <c r="J303" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="K303" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="K303" t="s" s="2">
+      <c r="L303" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="L303" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37536,7 +37532,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37565,7 +37561,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37591,14 +37587,14 @@
         <v>375</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>711</v>
-      </c>
-      <c r="L304" t="s" s="2">
-        <v>712</v>
       </c>
       <c r="M304" s="2"/>
       <c r="N304" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37647,7 +37643,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37676,7 +37672,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37785,7 +37781,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37896,7 +37892,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -38009,7 +38005,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -38035,14 +38031,14 @@
         <v>484</v>
       </c>
       <c r="K308" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="L308" t="s" s="2">
         <v>718</v>
-      </c>
-      <c r="L308" t="s" s="2">
-        <v>719</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -38091,7 +38087,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>50</v>
@@ -38120,7 +38116,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38146,14 +38142,14 @@
         <v>484</v>
       </c>
       <c r="K309" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="L309" t="s" s="2">
         <v>722</v>
-      </c>
-      <c r="L309" t="s" s="2">
-        <v>723</v>
       </c>
       <c r="M309" s="2"/>
       <c r="N309" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -38202,7 +38198,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38231,7 +38227,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38257,14 +38253,14 @@
         <v>484</v>
       </c>
       <c r="K310" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="L310" t="s" s="2">
         <v>726</v>
-      </c>
-      <c r="L310" t="s" s="2">
-        <v>727</v>
       </c>
       <c r="M310" s="2"/>
       <c r="N310" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -38313,7 +38309,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38342,7 +38338,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38368,14 +38364,14 @@
         <v>484</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>730</v>
-      </c>
-      <c r="L311" t="s" s="2">
-        <v>731</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -38424,7 +38420,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38453,7 +38449,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38479,14 +38475,14 @@
         <v>484</v>
       </c>
       <c r="K312" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="L312" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38535,7 +38531,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38564,7 +38560,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38590,14 +38586,14 @@
         <v>180</v>
       </c>
       <c r="K313" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L313" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="M313" s="2"/>
       <c r="N313" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38625,11 +38621,11 @@
         <v>116</v>
       </c>
       <c r="X313" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="Y313" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="Y313" t="s" s="2">
-        <v>742</v>
-      </c>
       <c r="Z313" t="s" s="2">
         <v>43</v>
       </c>
@@ -38646,7 +38642,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38675,7 +38671,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38701,16 +38697,16 @@
         <v>180</v>
       </c>
       <c r="K314" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L314" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="L314" t="s" s="2">
+      <c r="M314" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="M314" t="s" s="2">
+      <c r="N314" t="s" s="2">
         <v>746</v>
-      </c>
-      <c r="N314" t="s" s="2">
-        <v>747</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38738,11 +38734,11 @@
         <v>116</v>
       </c>
       <c r="X314" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="Y314" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="Y314" t="s" s="2">
-        <v>749</v>
-      </c>
       <c r="Z314" t="s" s="2">
         <v>43</v>
       </c>
@@ -38759,7 +38755,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38788,11 +38784,11 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38814,16 +38810,16 @@
         <v>180</v>
       </c>
       <c r="K315" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="L315" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="L315" t="s" s="2">
+      <c r="M315" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="M315" t="s" s="2">
+      <c r="N315" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38852,7 +38848,7 @@
       </c>
       <c r="X315" s="2"/>
       <c r="Y315" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Z315" t="s" s="2">
         <v>43</v>
@@ -38870,7 +38866,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>50</v>
@@ -38899,7 +38895,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38925,16 +38921,16 @@
         <v>180</v>
       </c>
       <c r="K316" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L316" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="L316" t="s" s="2">
+      <c r="M316" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="M316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38962,11 +38958,11 @@
         <v>116</v>
       </c>
       <c r="X316" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="Y316" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="Y316" t="s" s="2">
-        <v>763</v>
-      </c>
       <c r="Z316" t="s" s="2">
         <v>43</v>
       </c>
@@ -38983,7 +38979,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -39012,7 +39008,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -39038,16 +39034,16 @@
         <v>180</v>
       </c>
       <c r="K317" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="L317" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="L317" t="s" s="2">
+      <c r="M317" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="M317" t="s" s="2">
+      <c r="N317" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="N317" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -39075,11 +39071,11 @@
         <v>116</v>
       </c>
       <c r="X317" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="Y317" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="Y317" t="s" s="2">
-        <v>770</v>
-      </c>
       <c r="Z317" t="s" s="2">
         <v>43</v>
       </c>
@@ -39096,7 +39092,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -39125,7 +39121,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -39151,14 +39147,14 @@
         <v>537</v>
       </c>
       <c r="K318" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="L318" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="L318" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39207,7 +39203,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39236,7 +39232,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39259,17 +39255,17 @@
         <v>43</v>
       </c>
       <c r="J319" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="K319" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="K319" t="s" s="2">
+      <c r="L319" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="L319" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39297,11 +39293,11 @@
         <v>116</v>
       </c>
       <c r="X319" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="Y319" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="Y319" t="s" s="2">
-        <v>781</v>
-      </c>
       <c r="Z319" t="s" s="2">
         <v>43</v>
       </c>
@@ -39318,7 +39314,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39347,7 +39343,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39370,17 +39366,17 @@
         <v>43</v>
       </c>
       <c r="J320" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="K320" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="K320" t="s" s="2">
+      <c r="L320" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="M320" s="2"/>
       <c r="N320" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39429,7 +39425,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39458,7 +39454,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39481,17 +39477,17 @@
         <v>43</v>
       </c>
       <c r="J321" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="K321" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="K321" t="s" s="2">
+      <c r="L321" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="M321" s="2"/>
       <c r="N321" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -39540,7 +39536,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39569,7 +39565,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39592,19 +39588,19 @@
         <v>43</v>
       </c>
       <c r="J322" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="K322" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="K322" t="s" s="2">
+      <c r="L322" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="L322" t="s" s="2">
+      <c r="M322" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="M322" t="s" s="2">
+      <c r="N322" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39653,7 +39649,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
@@ -39682,7 +39678,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39705,19 +39701,19 @@
         <v>43</v>
       </c>
       <c r="J323" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K323" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L323" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L323" t="s" s="2">
+      <c r="M323" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M323" t="s" s="2">
+      <c r="N323" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
@@ -39766,7 +39762,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39795,7 +39791,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39818,17 +39814,17 @@
         <v>43</v>
       </c>
       <c r="J324" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="K324" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="K324" t="s" s="2">
+      <c r="L324" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39877,7 +39873,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39906,7 +39902,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39932,16 +39928,16 @@
         <v>180</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L325" t="s" s="2">
+      <c r="M325" t="s" s="2">
         <v>806</v>
       </c>
-      <c r="M325" t="s" s="2">
+      <c r="N325" t="s" s="2">
         <v>807</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>808</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39969,11 +39965,11 @@
         <v>116</v>
       </c>
       <c r="X325" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="Y325" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="Y325" t="s" s="2">
-        <v>810</v>
-      </c>
       <c r="Z325" t="s" s="2">
         <v>43</v>
       </c>
@@ -39990,7 +39986,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -40019,7 +40015,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -40045,14 +40041,14 @@
         <v>180</v>
       </c>
       <c r="K326" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L326" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="L326" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="M326" s="2"/>
       <c r="N326" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -40080,11 +40076,11 @@
         <v>116</v>
       </c>
       <c r="X326" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="Y326" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="Y326" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="Z326" t="s" s="2">
         <v>43</v>
       </c>
@@ -40101,7 +40097,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -40130,7 +40126,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40153,17 +40149,17 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="K327" t="s" s="2">
         <v>817</v>
       </c>
-      <c r="K327" t="s" s="2">
+      <c r="L327" t="s" s="2">
         <v>818</v>
-      </c>
-      <c r="L327" t="s" s="2">
-        <v>819</v>
       </c>
       <c r="M327" s="2"/>
       <c r="N327" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40212,7 +40208,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40241,7 +40237,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40267,14 +40263,14 @@
         <v>484</v>
       </c>
       <c r="K328" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L328" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40323,7 +40319,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40352,7 +40348,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40378,14 +40374,14 @@
         <v>375</v>
       </c>
       <c r="K329" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="L329" t="s" s="2">
         <v>826</v>
-      </c>
-      <c r="L329" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="M329" s="2"/>
       <c r="N329" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40431,10 +40427,10 @@
         <v>43</v>
       </c>
       <c r="AD329" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40463,7 +40459,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40572,7 +40568,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40683,7 +40679,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40796,7 +40792,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40822,16 +40818,16 @@
         <v>180</v>
       </c>
       <c r="K333" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L333" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L333" t="s" s="2">
+      <c r="M333" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M333" t="s" s="2">
+      <c r="N333" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N333" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40860,7 +40856,7 @@
       </c>
       <c r="X333" s="2"/>
       <c r="Y333" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Z333" t="s" s="2">
         <v>43</v>
@@ -40878,7 +40874,7 @@
         <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF333" t="s" s="2">
         <v>50</v>
@@ -40907,7 +40903,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40933,16 +40929,16 @@
         <v>180</v>
       </c>
       <c r="K334" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L334" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="L334" t="s" s="2">
+      <c r="M334" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="M334" t="s" s="2">
+      <c r="N334" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="N334" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40970,11 +40966,11 @@
         <v>116</v>
       </c>
       <c r="X334" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="Y334" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="Y334" t="s" s="2">
-        <v>845</v>
-      </c>
       <c r="Z334" t="s" s="2">
         <v>43</v>
       </c>
@@ -40991,7 +40987,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -41020,7 +41016,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -41043,19 +41039,19 @@
         <v>43</v>
       </c>
       <c r="J335" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K335" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L335" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="L335" t="s" s="2">
+      <c r="M335" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="M335" t="s" s="2">
+      <c r="N335" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -41104,7 +41100,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -41133,7 +41129,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41156,19 +41152,19 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K336" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L336" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L336" t="s" s="2">
+      <c r="M336" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M336" t="s" s="2">
+      <c r="N336" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41217,7 +41213,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41246,10 +41242,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>43</v>
@@ -41274,14 +41270,14 @@
         <v>375</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41330,7 +41326,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41359,7 +41355,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41468,7 +41464,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41579,7 +41575,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41692,7 +41688,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41718,16 +41714,16 @@
         <v>180</v>
       </c>
       <c r="K341" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L341" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L341" t="s" s="2">
+      <c r="M341" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M341" t="s" s="2">
+      <c r="N341" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N341" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41756,7 +41752,7 @@
       </c>
       <c r="X341" s="2"/>
       <c r="Y341" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Z341" t="s" s="2">
         <v>43</v>
@@ -41774,7 +41770,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>50</v>
@@ -41803,7 +41799,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41829,16 +41825,16 @@
         <v>180</v>
       </c>
       <c r="K342" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L342" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="L342" t="s" s="2">
+      <c r="M342" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="M342" t="s" s="2">
+      <c r="N342" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="N342" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41866,11 +41862,11 @@
         <v>116</v>
       </c>
       <c r="X342" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="Y342" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="Y342" t="s" s="2">
-        <v>845</v>
-      </c>
       <c r="Z342" t="s" s="2">
         <v>43</v>
       </c>
@@ -41887,7 +41883,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41916,7 +41912,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41939,19 +41935,19 @@
         <v>43</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K343" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L343" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="L343" t="s" s="2">
+      <c r="M343" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="M343" t="s" s="2">
+      <c r="N343" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="N343" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -42000,7 +41996,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -42029,7 +42025,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -42052,19 +42048,19 @@
         <v>43</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K344" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L344" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L344" t="s" s="2">
+      <c r="M344" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M344" t="s" s="2">
+      <c r="N344" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N344" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -42113,7 +42109,7 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>41</v>
@@ -42142,10 +42138,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C345" t="s" s="2">
         <v>43</v>
@@ -42170,14 +42166,14 @@
         <v>375</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M345" s="2"/>
       <c r="N345" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42226,7 +42222,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -42255,7 +42251,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42364,7 +42360,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42475,7 +42471,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42588,7 +42584,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42614,16 +42610,16 @@
         <v>180</v>
       </c>
       <c r="K349" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L349" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L349" t="s" s="2">
+      <c r="M349" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M349" t="s" s="2">
+      <c r="N349" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N349" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42652,7 +42648,7 @@
       </c>
       <c r="X349" s="2"/>
       <c r="Y349" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42670,7 +42666,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>50</v>
@@ -42699,7 +42695,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42808,7 +42804,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42919,7 +42915,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -43032,7 +43028,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -43141,7 +43137,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43252,7 +43248,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43365,7 +43361,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43476,7 +43472,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43519,7 +43515,7 @@
         <v>43</v>
       </c>
       <c r="R357" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S357" t="s" s="2">
         <v>43</v>
@@ -43587,7 +43583,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43698,7 +43694,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43811,7 +43807,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43924,7 +43920,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43950,16 +43946,16 @@
         <v>180</v>
       </c>
       <c r="K361" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L361" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="L361" t="s" s="2">
+      <c r="M361" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="M361" t="s" s="2">
+      <c r="N361" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="N361" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43988,7 +43984,7 @@
       </c>
       <c r="X361" s="2"/>
       <c r="Y361" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
@@ -44006,7 +44002,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -44035,7 +44031,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -44058,19 +44054,19 @@
         <v>43</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L362" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="L362" t="s" s="2">
+      <c r="M362" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="M362" t="s" s="2">
+      <c r="N362" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -44119,7 +44115,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -44148,7 +44144,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44171,19 +44167,19 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K363" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L363" t="s" s="2">
+      <c r="M363" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M363" t="s" s="2">
+      <c r="N363" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N363" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44232,7 +44228,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44261,10 +44257,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B364" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C364" t="s" s="2">
         <v>43</v>
@@ -44289,14 +44285,14 @@
         <v>375</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44345,7 +44341,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44374,7 +44370,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44483,7 +44479,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44594,7 +44590,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44707,7 +44703,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44733,16 +44729,16 @@
         <v>180</v>
       </c>
       <c r="K368" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L368" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L368" t="s" s="2">
+      <c r="M368" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M368" t="s" s="2">
+      <c r="N368" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N368" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44771,7 +44767,7 @@
       </c>
       <c r="X368" s="2"/>
       <c r="Y368" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z368" t="s" s="2">
         <v>43</v>
@@ -44789,7 +44785,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>50</v>
@@ -44818,7 +44814,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44927,7 +44923,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -45038,7 +45034,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -45151,7 +45147,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45260,7 +45256,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45371,7 +45367,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45484,7 +45480,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45595,7 +45591,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45638,7 +45634,7 @@
         <v>43</v>
       </c>
       <c r="R376" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S376" t="s" s="2">
         <v>43</v>
@@ -45706,7 +45702,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45817,7 +45813,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45930,7 +45926,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -46043,7 +46039,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -46069,16 +46065,16 @@
         <v>180</v>
       </c>
       <c r="K380" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L380" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="L380" t="s" s="2">
+      <c r="M380" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="M380" t="s" s="2">
+      <c r="N380" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="N380" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -46106,11 +46102,11 @@
         <v>116</v>
       </c>
       <c r="X380" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="Y380" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="Y380" t="s" s="2">
-        <v>845</v>
-      </c>
       <c r="Z380" t="s" s="2">
         <v>43</v>
       </c>
@@ -46127,7 +46123,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -46156,7 +46152,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46179,19 +46175,19 @@
         <v>43</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K381" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L381" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="L381" t="s" s="2">
+      <c r="M381" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="M381" t="s" s="2">
+      <c r="N381" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="N381" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46240,7 +46236,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46269,7 +46265,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46292,19 +46288,19 @@
         <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K382" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L382" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L382" t="s" s="2">
+      <c r="M382" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M382" t="s" s="2">
+      <c r="N382" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46353,7 +46349,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46382,7 +46378,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46408,10 +46404,10 @@
         <v>375</v>
       </c>
       <c r="K383" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="L383" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="L383" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" s="2"/>
@@ -46462,7 +46458,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46491,7 +46487,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46600,7 +46596,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46711,7 +46707,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46824,7 +46820,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46850,14 +46846,14 @@
         <v>484</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46906,7 +46902,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>50</v>
@@ -46935,7 +46931,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46961,14 +46957,14 @@
         <v>180</v>
       </c>
       <c r="K388" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L388" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="L388" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
@@ -46996,11 +46992,11 @@
         <v>116</v>
       </c>
       <c r="X388" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="Y388" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="Y388" t="s" s="2">
-        <v>742</v>
-      </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
       </c>
@@ -47017,7 +47013,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -47046,7 +47042,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -47072,16 +47068,16 @@
         <v>180</v>
       </c>
       <c r="K389" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L389" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="L389" t="s" s="2">
-        <v>745</v>
-      </c>
       <c r="M389" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -47109,11 +47105,11 @@
         <v>116</v>
       </c>
       <c r="X389" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="Y389" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="Y389" t="s" s="2">
-        <v>749</v>
-      </c>
       <c r="Z389" t="s" s="2">
         <v>43</v>
       </c>
@@ -47130,7 +47126,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -47159,11 +47155,11 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -47185,16 +47181,16 @@
         <v>180</v>
       </c>
       <c r="K390" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="L390" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="L390" t="s" s="2">
+      <c r="M390" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="M390" t="s" s="2">
+      <c r="N390" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="N390" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47223,7 +47219,7 @@
       </c>
       <c r="X390" s="2"/>
       <c r="Y390" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Z390" t="s" s="2">
         <v>43</v>
@@ -47241,7 +47237,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>50</v>
@@ -47270,7 +47266,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47296,16 +47292,16 @@
         <v>180</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L391" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M391" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="M391" t="s" s="2">
+      <c r="N391" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="N391" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47333,11 +47329,11 @@
         <v>116</v>
       </c>
       <c r="X391" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="Y391" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="Y391" t="s" s="2">
-        <v>763</v>
-      </c>
       <c r="Z391" t="s" s="2">
         <v>43</v>
       </c>
@@ -47354,7 +47350,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47383,7 +47379,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47409,16 +47405,16 @@
         <v>180</v>
       </c>
       <c r="K392" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="L392" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="L392" t="s" s="2">
+      <c r="M392" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="M392" t="s" s="2">
+      <c r="N392" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="N392" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47446,11 +47442,11 @@
         <v>116</v>
       </c>
       <c r="X392" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="Y392" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="Y392" t="s" s="2">
-        <v>770</v>
-      </c>
       <c r="Z392" t="s" s="2">
         <v>43</v>
       </c>
@@ -47467,7 +47463,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47496,7 +47492,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47519,17 +47515,17 @@
         <v>43</v>
       </c>
       <c r="J393" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="K393" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="K393" t="s" s="2">
+      <c r="L393" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L393" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47578,7 +47574,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47607,7 +47603,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47630,17 +47626,17 @@
         <v>43</v>
       </c>
       <c r="J394" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="K394" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="K394" t="s" s="2">
+      <c r="L394" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="L394" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="M394" s="2"/>
       <c r="N394" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47689,7 +47685,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47718,7 +47714,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47741,19 +47737,19 @@
         <v>43</v>
       </c>
       <c r="J395" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="K395" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="K395" t="s" s="2">
+      <c r="L395" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="L395" t="s" s="2">
+      <c r="M395" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="M395" t="s" s="2">
+      <c r="N395" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="N395" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47802,7 +47798,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47831,7 +47827,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47854,19 +47850,19 @@
         <v>43</v>
       </c>
       <c r="J396" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K396" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L396" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L396" t="s" s="2">
+      <c r="M396" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M396" t="s" s="2">
+      <c r="N396" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N396" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O396" t="s" s="2">
         <v>43</v>
@@ -47915,7 +47911,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47944,7 +47940,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47967,17 +47963,17 @@
         <v>43</v>
       </c>
       <c r="J397" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="K397" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="K397" t="s" s="2">
+      <c r="L397" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L397" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="M397" s="2"/>
       <c r="N397" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O397" t="s" s="2">
         <v>43</v>
@@ -48026,7 +48022,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>41</v>
@@ -48055,7 +48051,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -48081,14 +48077,14 @@
         <v>484</v>
       </c>
       <c r="K398" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L398" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="L398" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="M398" s="2"/>
       <c r="N398" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O398" t="s" s="2">
         <v>43</v>
@@ -48137,7 +48133,7 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
@@ -48166,7 +48162,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48192,10 +48188,10 @@
         <v>43</v>
       </c>
       <c r="K399" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="L399" t="s" s="2">
         <v>899</v>
-      </c>
-      <c r="L399" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="M399" s="2"/>
       <c r="N399" s="2"/>
@@ -48246,7 +48242,7 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
@@ -48275,7 +48271,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48301,10 +48297,10 @@
         <v>375</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M400" s="2"/>
       <c r="N400" s="2"/>
@@ -48355,7 +48351,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -48384,7 +48380,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48493,7 +48489,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48604,7 +48600,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48717,7 +48713,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48743,14 +48739,14 @@
         <v>484</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48799,7 +48795,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>50</v>
@@ -48828,7 +48824,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48854,14 +48850,14 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="L405" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="L405" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="M405" s="2"/>
       <c r="N405" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48889,11 +48885,11 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="Y405" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="Y405" t="s" s="2">
-        <v>742</v>
-      </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
       </c>
@@ -48910,7 +48906,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48939,7 +48935,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48965,16 +48961,16 @@
         <v>180</v>
       </c>
       <c r="K406" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L406" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="L406" t="s" s="2">
+      <c r="M406" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="M406" t="s" s="2">
+      <c r="N406" t="s" s="2">
         <v>746</v>
-      </c>
-      <c r="N406" t="s" s="2">
-        <v>747</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -49002,11 +48998,11 @@
         <v>116</v>
       </c>
       <c r="X406" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="Y406" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="Y406" t="s" s="2">
-        <v>749</v>
-      </c>
       <c r="Z406" t="s" s="2">
         <v>43</v>
       </c>
@@ -49023,7 +49019,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -49052,11 +49048,11 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -49078,16 +49074,16 @@
         <v>180</v>
       </c>
       <c r="K407" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="L407" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="L407" t="s" s="2">
+      <c r="M407" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="M407" t="s" s="2">
+      <c r="N407" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="N407" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="O407" t="s" s="2">
         <v>43</v>
@@ -49115,11 +49111,11 @@
         <v>116</v>
       </c>
       <c r="X407" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="Y407" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="Y407" t="s" s="2">
-        <v>911</v>
-      </c>
       <c r="Z407" t="s" s="2">
         <v>43</v>
       </c>
@@ -49136,7 +49132,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>50</v>
@@ -49165,7 +49161,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49191,16 +49187,16 @@
         <v>180</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O408" t="s" s="2">
         <v>43</v>
@@ -49228,11 +49224,11 @@
         <v>116</v>
       </c>
       <c r="X408" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="Y408" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="Y408" t="s" s="2">
-        <v>763</v>
-      </c>
       <c r="Z408" t="s" s="2">
         <v>43</v>
       </c>
@@ -49249,7 +49245,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>41</v>
@@ -49278,7 +49274,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49304,16 +49300,16 @@
         <v>180</v>
       </c>
       <c r="K409" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="L409" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="L409" t="s" s="2">
+      <c r="M409" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="M409" t="s" s="2">
+      <c r="N409" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="N409" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -49341,11 +49337,11 @@
         <v>116</v>
       </c>
       <c r="X409" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="Y409" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="Y409" t="s" s="2">
-        <v>770</v>
-      </c>
       <c r="Z409" t="s" s="2">
         <v>43</v>
       </c>
@@ -49362,7 +49358,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
@@ -49391,7 +49387,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49414,17 +49410,17 @@
         <v>43</v>
       </c>
       <c r="J410" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="K410" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="K410" t="s" s="2">
+      <c r="L410" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L410" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="M410" s="2"/>
       <c r="N410" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -49473,7 +49469,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>
@@ -49502,7 +49498,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49525,17 +49521,17 @@
         <v>43</v>
       </c>
       <c r="J411" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="K411" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="K411" t="s" s="2">
+      <c r="L411" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="L411" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="M411" s="2"/>
       <c r="N411" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49584,7 +49580,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>41</v>
@@ -49613,7 +49609,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49636,19 +49632,19 @@
         <v>43</v>
       </c>
       <c r="J412" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="K412" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="K412" t="s" s="2">
+      <c r="L412" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="L412" t="s" s="2">
+      <c r="M412" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="M412" t="s" s="2">
+      <c r="N412" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="N412" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49697,7 +49693,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49726,7 +49722,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49749,19 +49745,19 @@
         <v>43</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K413" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L413" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L413" t="s" s="2">
+      <c r="M413" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M413" t="s" s="2">
+      <c r="N413" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N413" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49810,7 +49806,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>
@@ -49839,7 +49835,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s" s="2">
@@ -49862,17 +49858,17 @@
         <v>43</v>
       </c>
       <c r="J414" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="K414" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="K414" t="s" s="2">
+      <c r="L414" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="L414" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="M414" s="2"/>
       <c r="N414" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O414" t="s" s="2">
         <v>43</v>
@@ -49921,7 +49917,7 @@
         <v>43</v>
       </c>
       <c r="AE414" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AF414" t="s" s="2">
         <v>41</v>
@@ -49950,7 +49946,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s" s="2">
@@ -49976,14 +49972,14 @@
         <v>484</v>
       </c>
       <c r="K415" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L415" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="L415" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="M415" s="2"/>
       <c r="N415" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O415" t="s" s="2">
         <v>43</v>
@@ -50032,7 +50028,7 @@
         <v>43</v>
       </c>
       <c r="AE415" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AF415" t="s" s="2">
         <v>41</v>
@@ -50061,7 +50057,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s" s="2">
@@ -50087,10 +50083,10 @@
         <v>43</v>
       </c>
       <c r="K416" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L416" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M416" s="2"/>
       <c r="N416" s="2"/>
@@ -50141,7 +50137,7 @@
         <v>43</v>
       </c>
       <c r="AE416" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AF416" t="s" s="2">
         <v>41</v>
@@ -50170,7 +50166,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s" s="2">
@@ -50196,14 +50192,14 @@
         <v>375</v>
       </c>
       <c r="K417" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="L417" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="L417" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="M417" s="2"/>
       <c r="N417" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="O417" t="s" s="2">
         <v>43</v>
@@ -50252,7 +50248,7 @@
         <v>43</v>
       </c>
       <c r="AE417" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AF417" t="s" s="2">
         <v>41</v>
@@ -50281,7 +50277,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s" s="2">
@@ -50390,7 +50386,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s" s="2">
@@ -50501,7 +50497,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s" s="2">
@@ -50614,7 +50610,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s" s="2">
@@ -50640,14 +50636,14 @@
         <v>484</v>
       </c>
       <c r="K421" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L421" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L421" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M421" s="2"/>
       <c r="N421" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O421" t="s" s="2">
         <v>43</v>
@@ -50696,7 +50692,7 @@
         <v>43</v>
       </c>
       <c r="AE421" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF421" t="s" s="2">
         <v>41</v>
@@ -50725,7 +50721,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s" s="2">
@@ -50751,14 +50747,14 @@
         <v>484</v>
       </c>
       <c r="K422" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="L422" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="L422" t="s" s="2">
-        <v>936</v>
       </c>
       <c r="M422" s="2"/>
       <c r="N422" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="O422" t="s" s="2">
         <v>43</v>
@@ -50807,7 +50803,7 @@
         <v>43</v>
       </c>
       <c r="AE422" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AF422" t="s" s="2">
         <v>41</v>
@@ -50836,7 +50832,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s" s="2">
@@ -50862,14 +50858,14 @@
         <v>484</v>
       </c>
       <c r="K423" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="L423" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="L423" t="s" s="2">
-        <v>940</v>
       </c>
       <c r="M423" s="2"/>
       <c r="N423" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O423" t="s" s="2">
         <v>43</v>
@@ -50918,7 +50914,7 @@
         <v>43</v>
       </c>
       <c r="AE423" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF423" t="s" s="2">
         <v>41</v>
@@ -50947,7 +50943,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s" s="2">
@@ -50973,14 +50969,14 @@
         <v>489</v>
       </c>
       <c r="K424" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="L424" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="L424" t="s" s="2">
-        <v>944</v>
       </c>
       <c r="M424" s="2"/>
       <c r="N424" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O424" t="s" s="2">
         <v>43</v>
@@ -51029,7 +51025,7 @@
         <v>43</v>
       </c>
       <c r="AE424" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AF424" t="s" s="2">
         <v>41</v>
@@ -51058,11 +51054,11 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" t="s" s="2">
@@ -51084,16 +51080,16 @@
         <v>180</v>
       </c>
       <c r="K425" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="L425" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="L425" t="s" s="2">
+      <c r="M425" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="M425" t="s" s="2">
+      <c r="N425" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="N425" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="O425" t="s" s="2">
         <v>43</v>
@@ -51121,11 +51117,11 @@
         <v>116</v>
       </c>
       <c r="X425" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="Y425" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="Y425" t="s" s="2">
-        <v>911</v>
-      </c>
       <c r="Z425" t="s" s="2">
         <v>43</v>
       </c>
@@ -51142,7 +51138,7 @@
         <v>43</v>
       </c>
       <c r="AE425" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AF425" t="s" s="2">
         <v>50</v>
@@ -51171,7 +51167,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s" s="2">
@@ -51197,16 +51193,16 @@
         <v>180</v>
       </c>
       <c r="K426" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L426" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M426" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="M426" t="s" s="2">
+      <c r="N426" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="N426" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="O426" t="s" s="2">
         <v>43</v>
@@ -51234,11 +51230,11 @@
         <v>116</v>
       </c>
       <c r="X426" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="Y426" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="Y426" t="s" s="2">
-        <v>763</v>
-      </c>
       <c r="Z426" t="s" s="2">
         <v>43</v>
       </c>
@@ -51255,7 +51251,7 @@
         <v>43</v>
       </c>
       <c r="AE426" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AF426" t="s" s="2">
         <v>41</v>
@@ -51284,7 +51280,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s" s="2">
@@ -51310,16 +51306,16 @@
         <v>180</v>
       </c>
       <c r="K427" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="L427" t="s" s="2">
         <v>765</v>
       </c>
-      <c r="L427" t="s" s="2">
+      <c r="M427" t="s" s="2">
         <v>766</v>
       </c>
-      <c r="M427" t="s" s="2">
+      <c r="N427" t="s" s="2">
         <v>767</v>
-      </c>
-      <c r="N427" t="s" s="2">
-        <v>768</v>
       </c>
       <c r="O427" t="s" s="2">
         <v>43</v>
@@ -51347,11 +51343,11 @@
         <v>116</v>
       </c>
       <c r="X427" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="Y427" t="s" s="2">
         <v>769</v>
       </c>
-      <c r="Y427" t="s" s="2">
-        <v>770</v>
-      </c>
       <c r="Z427" t="s" s="2">
         <v>43</v>
       </c>
@@ -51368,7 +51364,7 @@
         <v>43</v>
       </c>
       <c r="AE427" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AF427" t="s" s="2">
         <v>41</v>
@@ -51397,7 +51393,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s" s="2">
@@ -51423,14 +51419,14 @@
         <v>537</v>
       </c>
       <c r="K428" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="L428" t="s" s="2">
         <v>772</v>
-      </c>
-      <c r="L428" t="s" s="2">
-        <v>773</v>
       </c>
       <c r="M428" s="2"/>
       <c r="N428" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O428" t="s" s="2">
         <v>43</v>
@@ -51479,7 +51475,7 @@
         <v>43</v>
       </c>
       <c r="AE428" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AF428" t="s" s="2">
         <v>41</v>
@@ -51508,7 +51504,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s" s="2">
@@ -51531,17 +51527,17 @@
         <v>43</v>
       </c>
       <c r="J429" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="K429" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="K429" t="s" s="2">
+      <c r="L429" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="L429" t="s" s="2">
-        <v>778</v>
       </c>
       <c r="M429" s="2"/>
       <c r="N429" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O429" t="s" s="2">
         <v>43</v>
@@ -51569,11 +51565,11 @@
         <v>116</v>
       </c>
       <c r="X429" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="Y429" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="Y429" t="s" s="2">
-        <v>781</v>
-      </c>
       <c r="Z429" t="s" s="2">
         <v>43</v>
       </c>
@@ -51590,7 +51586,7 @@
         <v>43</v>
       </c>
       <c r="AE429" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF429" t="s" s="2">
         <v>41</v>
@@ -51619,7 +51615,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s" s="2">
@@ -51642,17 +51638,17 @@
         <v>43</v>
       </c>
       <c r="J430" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="K430" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="K430" t="s" s="2">
+      <c r="L430" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L430" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="M430" s="2"/>
       <c r="N430" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O430" t="s" s="2">
         <v>43</v>
@@ -51701,7 +51697,7 @@
         <v>43</v>
       </c>
       <c r="AE430" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AF430" t="s" s="2">
         <v>41</v>
@@ -51730,7 +51726,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s" s="2">
@@ -51753,17 +51749,17 @@
         <v>43</v>
       </c>
       <c r="J431" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="K431" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="K431" t="s" s="2">
+      <c r="L431" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="L431" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="M431" s="2"/>
       <c r="N431" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O431" t="s" s="2">
         <v>43</v>
@@ -51812,7 +51808,7 @@
         <v>43</v>
       </c>
       <c r="AE431" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AF431" t="s" s="2">
         <v>41</v>
@@ -51841,7 +51837,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B432" s="2"/>
       <c r="C432" t="s" s="2">
@@ -51864,19 +51860,19 @@
         <v>43</v>
       </c>
       <c r="J432" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="K432" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="K432" t="s" s="2">
+      <c r="L432" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="L432" t="s" s="2">
+      <c r="M432" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="M432" t="s" s="2">
+      <c r="N432" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="N432" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="O432" t="s" s="2">
         <v>43</v>
@@ -51925,7 +51921,7 @@
         <v>43</v>
       </c>
       <c r="AE432" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AF432" t="s" s="2">
         <v>41</v>
@@ -51954,7 +51950,7 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s" s="2">
@@ -51977,19 +51973,19 @@
         <v>43</v>
       </c>
       <c r="J433" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K433" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L433" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L433" t="s" s="2">
+      <c r="M433" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M433" t="s" s="2">
+      <c r="N433" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N433" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O433" t="s" s="2">
         <v>43</v>
@@ -52038,7 +52034,7 @@
         <v>43</v>
       </c>
       <c r="AE433" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AF433" t="s" s="2">
         <v>41</v>
@@ -52067,7 +52063,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B434" s="2"/>
       <c r="C434" t="s" s="2">
@@ -52093,16 +52089,16 @@
         <v>180</v>
       </c>
       <c r="K434" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="L434" t="s" s="2">
         <v>805</v>
       </c>
-      <c r="L434" t="s" s="2">
-        <v>806</v>
-      </c>
       <c r="M434" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N434" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O434" t="s" s="2">
         <v>43</v>
@@ -52130,11 +52126,11 @@
         <v>116</v>
       </c>
       <c r="X434" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="Y434" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="Y434" t="s" s="2">
-        <v>810</v>
-      </c>
       <c r="Z434" t="s" s="2">
         <v>43</v>
       </c>
@@ -52151,7 +52147,7 @@
         <v>43</v>
       </c>
       <c r="AE434" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF434" t="s" s="2">
         <v>41</v>
@@ -52180,7 +52176,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B435" s="2"/>
       <c r="C435" t="s" s="2">
@@ -52206,14 +52202,14 @@
         <v>180</v>
       </c>
       <c r="K435" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L435" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="L435" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="M435" s="2"/>
       <c r="N435" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O435" t="s" s="2">
         <v>43</v>
@@ -52241,11 +52237,11 @@
         <v>116</v>
       </c>
       <c r="X435" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="Y435" t="s" s="2">
         <v>814</v>
       </c>
-      <c r="Y435" t="s" s="2">
-        <v>815</v>
-      </c>
       <c r="Z435" t="s" s="2">
         <v>43</v>
       </c>
@@ -52262,7 +52258,7 @@
         <v>43</v>
       </c>
       <c r="AE435" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AF435" t="s" s="2">
         <v>41</v>
@@ -52291,7 +52287,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B436" s="2"/>
       <c r="C436" t="s" s="2">
@@ -52317,14 +52313,14 @@
         <v>484</v>
       </c>
       <c r="K436" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L436" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="L436" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="M436" s="2"/>
       <c r="N436" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O436" t="s" s="2">
         <v>43</v>
@@ -52373,7 +52369,7 @@
         <v>43</v>
       </c>
       <c r="AE436" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AF436" t="s" s="2">
         <v>41</v>
@@ -52402,7 +52398,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B437" s="2"/>
       <c r="C437" t="s" s="2">
@@ -52428,10 +52424,10 @@
         <v>43</v>
       </c>
       <c r="K437" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L437" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M437" s="2"/>
       <c r="N437" s="2"/>
@@ -52482,7 +52478,7 @@
         <v>43</v>
       </c>
       <c r="AE437" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AF437" t="s" s="2">
         <v>41</v>
@@ -52511,7 +52507,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B438" s="2"/>
       <c r="C438" t="s" s="2">
@@ -52537,10 +52533,10 @@
         <v>375</v>
       </c>
       <c r="K438" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="M438" s="2"/>
       <c r="N438" s="2"/>
@@ -52591,7 +52587,7 @@
         <v>43</v>
       </c>
       <c r="AE438" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AF438" t="s" s="2">
         <v>41</v>
@@ -52620,7 +52616,7 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B439" s="2"/>
       <c r="C439" t="s" s="2">
@@ -52729,7 +52725,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B440" s="2"/>
       <c r="C440" t="s" s="2">
@@ -52840,7 +52836,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B441" s="2"/>
       <c r="C441" t="s" s="2">
@@ -52953,11 +52949,11 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B442" s="2"/>
       <c r="C442" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" t="s" s="2">
@@ -52979,16 +52975,16 @@
         <v>180</v>
       </c>
       <c r="K442" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="L442" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="L442" t="s" s="2">
+      <c r="M442" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="M442" t="s" s="2">
+      <c r="N442" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="N442" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="O442" t="s" s="2">
         <v>43</v>
@@ -53016,11 +53012,11 @@
         <v>116</v>
       </c>
       <c r="X442" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="Y442" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="Y442" t="s" s="2">
-        <v>911</v>
-      </c>
       <c r="Z442" t="s" s="2">
         <v>43</v>
       </c>
@@ -53037,7 +53033,7 @@
         <v>43</v>
       </c>
       <c r="AE442" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AF442" t="s" s="2">
         <v>50</v>
@@ -53066,7 +53062,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B443" s="2"/>
       <c r="C443" t="s" s="2">
@@ -53092,16 +53088,16 @@
         <v>180</v>
       </c>
       <c r="K443" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L443" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M443" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="M443" t="s" s="2">
+      <c r="N443" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="N443" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="O443" t="s" s="2">
         <v>43</v>
@@ -53129,11 +53125,11 @@
         <v>116</v>
       </c>
       <c r="X443" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="Y443" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="Y443" t="s" s="2">
-        <v>763</v>
-      </c>
       <c r="Z443" t="s" s="2">
         <v>43</v>
       </c>
@@ -53150,7 +53146,7 @@
         <v>43</v>
       </c>
       <c r="AE443" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AF443" t="s" s="2">
         <v>41</v>
@@ -53179,7 +53175,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B444" s="2"/>
       <c r="C444" t="s" s="2">
@@ -53202,17 +53198,17 @@
         <v>43</v>
       </c>
       <c r="J444" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="K444" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="K444" t="s" s="2">
+      <c r="L444" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L444" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="M444" s="2"/>
       <c r="N444" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O444" t="s" s="2">
         <v>43</v>
@@ -53261,7 +53257,7 @@
         <v>43</v>
       </c>
       <c r="AE444" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AF444" t="s" s="2">
         <v>41</v>
@@ -53290,7 +53286,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B445" s="2"/>
       <c r="C445" t="s" s="2">
@@ -53313,17 +53309,17 @@
         <v>43</v>
       </c>
       <c r="J445" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="K445" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="K445" t="s" s="2">
+      <c r="L445" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="L445" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="M445" s="2"/>
       <c r="N445" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O445" t="s" s="2">
         <v>43</v>
@@ -53372,7 +53368,7 @@
         <v>43</v>
       </c>
       <c r="AE445" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AF445" t="s" s="2">
         <v>41</v>
@@ -53401,7 +53397,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B446" s="2"/>
       <c r="C446" t="s" s="2">
@@ -53424,19 +53420,19 @@
         <v>43</v>
       </c>
       <c r="J446" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="K446" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="K446" t="s" s="2">
+      <c r="L446" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="L446" t="s" s="2">
+      <c r="M446" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="M446" t="s" s="2">
+      <c r="N446" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="N446" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="O446" t="s" s="2">
         <v>43</v>
@@ -53485,7 +53481,7 @@
         <v>43</v>
       </c>
       <c r="AE446" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AF446" t="s" s="2">
         <v>41</v>
@@ -53514,7 +53510,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" t="s" s="2">
@@ -53537,19 +53533,19 @@
         <v>43</v>
       </c>
       <c r="J447" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K447" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L447" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L447" t="s" s="2">
+      <c r="M447" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M447" t="s" s="2">
+      <c r="N447" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N447" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O447" t="s" s="2">
         <v>43</v>
@@ -53598,7 +53594,7 @@
         <v>43</v>
       </c>
       <c r="AE447" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AF447" t="s" s="2">
         <v>41</v>
@@ -53627,7 +53623,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B448" s="2"/>
       <c r="C448" t="s" s="2">
@@ -53653,14 +53649,14 @@
         <v>484</v>
       </c>
       <c r="K448" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L448" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="L448" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="M448" s="2"/>
       <c r="N448" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O448" t="s" s="2">
         <v>43</v>
@@ -53709,7 +53705,7 @@
         <v>43</v>
       </c>
       <c r="AE448" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AF448" t="s" s="2">
         <v>41</v>
@@ -53738,7 +53734,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s" s="2">
@@ -53764,10 +53760,10 @@
         <v>43</v>
       </c>
       <c r="K449" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L449" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M449" s="2"/>
       <c r="N449" s="2"/>
@@ -53818,7 +53814,7 @@
         <v>43</v>
       </c>
       <c r="AE449" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AF449" t="s" s="2">
         <v>41</v>
@@ -53847,7 +53843,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B450" s="2"/>
       <c r="C450" t="s" s="2">
@@ -53873,10 +53869,10 @@
         <v>375</v>
       </c>
       <c r="K450" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L450" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="M450" s="2"/>
       <c r="N450" s="2"/>
@@ -53927,7 +53923,7 @@
         <v>43</v>
       </c>
       <c r="AE450" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF450" t="s" s="2">
         <v>41</v>
@@ -53956,7 +53952,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B451" s="2"/>
       <c r="C451" t="s" s="2">
@@ -54065,7 +54061,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" t="s" s="2">
@@ -54176,7 +54172,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B453" s="2"/>
       <c r="C453" t="s" s="2">
@@ -54289,11 +54285,11 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B454" s="2"/>
       <c r="C454" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" t="s" s="2">
@@ -54315,16 +54311,16 @@
         <v>180</v>
       </c>
       <c r="K454" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="L454" t="s" s="2">
         <v>752</v>
       </c>
-      <c r="L454" t="s" s="2">
+      <c r="M454" t="s" s="2">
         <v>753</v>
       </c>
-      <c r="M454" t="s" s="2">
+      <c r="N454" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="N454" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="O454" t="s" s="2">
         <v>43</v>
@@ -54352,11 +54348,11 @@
         <v>116</v>
       </c>
       <c r="X454" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="Y454" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="Y454" t="s" s="2">
-        <v>911</v>
-      </c>
       <c r="Z454" t="s" s="2">
         <v>43</v>
       </c>
@@ -54373,7 +54369,7 @@
         <v>43</v>
       </c>
       <c r="AE454" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AF454" t="s" s="2">
         <v>50</v>
@@ -54402,7 +54398,7 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B455" s="2"/>
       <c r="C455" t="s" s="2">
@@ -54428,16 +54424,16 @@
         <v>180</v>
       </c>
       <c r="K455" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L455" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M455" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="M455" t="s" s="2">
+      <c r="N455" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="N455" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="O455" t="s" s="2">
         <v>43</v>
@@ -54465,11 +54461,11 @@
         <v>116</v>
       </c>
       <c r="X455" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="Y455" t="s" s="2">
         <v>762</v>
       </c>
-      <c r="Y455" t="s" s="2">
-        <v>763</v>
-      </c>
       <c r="Z455" t="s" s="2">
         <v>43</v>
       </c>
@@ -54486,7 +54482,7 @@
         <v>43</v>
       </c>
       <c r="AE455" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF455" t="s" s="2">
         <v>41</v>
@@ -54515,7 +54511,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B456" s="2"/>
       <c r="C456" t="s" s="2">
@@ -54538,17 +54534,17 @@
         <v>43</v>
       </c>
       <c r="J456" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="K456" t="s" s="2">
         <v>783</v>
       </c>
-      <c r="K456" t="s" s="2">
+      <c r="L456" t="s" s="2">
         <v>784</v>
-      </c>
-      <c r="L456" t="s" s="2">
-        <v>785</v>
       </c>
       <c r="M456" s="2"/>
       <c r="N456" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="O456" t="s" s="2">
         <v>43</v>
@@ -54597,7 +54593,7 @@
         <v>43</v>
       </c>
       <c r="AE456" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF456" t="s" s="2">
         <v>41</v>
@@ -54626,7 +54622,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B457" s="2"/>
       <c r="C457" t="s" s="2">
@@ -54649,17 +54645,17 @@
         <v>43</v>
       </c>
       <c r="J457" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="K457" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="K457" t="s" s="2">
+      <c r="L457" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="L457" t="s" s="2">
-        <v>790</v>
       </c>
       <c r="M457" s="2"/>
       <c r="N457" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="O457" t="s" s="2">
         <v>43</v>
@@ -54708,7 +54704,7 @@
         <v>43</v>
       </c>
       <c r="AE457" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AF457" t="s" s="2">
         <v>41</v>
@@ -54737,7 +54733,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B458" s="2"/>
       <c r="C458" t="s" s="2">
@@ -54760,19 +54756,19 @@
         <v>43</v>
       </c>
       <c r="J458" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="K458" t="s" s="2">
         <v>793</v>
       </c>
-      <c r="K458" t="s" s="2">
+      <c r="L458" t="s" s="2">
         <v>794</v>
       </c>
-      <c r="L458" t="s" s="2">
+      <c r="M458" t="s" s="2">
         <v>795</v>
       </c>
-      <c r="M458" t="s" s="2">
+      <c r="N458" t="s" s="2">
         <v>796</v>
-      </c>
-      <c r="N458" t="s" s="2">
-        <v>797</v>
       </c>
       <c r="O458" t="s" s="2">
         <v>43</v>
@@ -54821,7 +54817,7 @@
         <v>43</v>
       </c>
       <c r="AE458" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF458" t="s" s="2">
         <v>41</v>
@@ -54850,7 +54846,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" t="s" s="2">
@@ -54873,19 +54869,19 @@
         <v>43</v>
       </c>
       <c r="J459" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K459" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="L459" t="s" s="2">
         <v>799</v>
       </c>
-      <c r="L459" t="s" s="2">
+      <c r="M459" t="s" s="2">
         <v>800</v>
       </c>
-      <c r="M459" t="s" s="2">
+      <c r="N459" t="s" s="2">
         <v>801</v>
-      </c>
-      <c r="N459" t="s" s="2">
-        <v>802</v>
       </c>
       <c r="O459" t="s" s="2">
         <v>43</v>
@@ -54934,7 +54930,7 @@
         <v>43</v>
       </c>
       <c r="AE459" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AF459" t="s" s="2">
         <v>41</v>
@@ -54963,7 +54959,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B460" s="2"/>
       <c r="C460" t="s" s="2">
@@ -54989,14 +54985,14 @@
         <v>484</v>
       </c>
       <c r="K460" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L460" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="L460" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="M460" s="2"/>
       <c r="N460" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O460" t="s" s="2">
         <v>43</v>
@@ -55045,7 +55041,7 @@
         <v>43</v>
       </c>
       <c r="AE460" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AF460" t="s" s="2">
         <v>41</v>
@@ -55074,7 +55070,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B461" s="2"/>
       <c r="C461" t="s" s="2">
@@ -55100,10 +55096,10 @@
         <v>43</v>
       </c>
       <c r="K461" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L461" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M461" s="2"/>
       <c r="N461" s="2"/>
@@ -55154,7 +55150,7 @@
         <v>43</v>
       </c>
       <c r="AE461" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AF461" t="s" s="2">
         <v>41</v>
@@ -55183,7 +55179,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B462" s="2"/>
       <c r="C462" t="s" s="2">
@@ -55209,14 +55205,14 @@
         <v>375</v>
       </c>
       <c r="K462" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L462" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="L462" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="M462" s="2"/>
       <c r="N462" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O462" t="s" s="2">
         <v>43</v>
@@ -55262,10 +55258,10 @@
         <v>43</v>
       </c>
       <c r="AD462" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AE462" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AF462" t="s" s="2">
         <v>41</v>
@@ -55294,7 +55290,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B463" s="2"/>
       <c r="C463" t="s" s="2">
@@ -55403,7 +55399,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" t="s" s="2">
@@ -55514,7 +55510,7 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B465" s="2"/>
       <c r="C465" t="s" s="2">
@@ -55627,7 +55623,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B466" s="2"/>
       <c r="C466" t="s" s="2">
@@ -55653,16 +55649,16 @@
         <v>180</v>
       </c>
       <c r="K466" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L466" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L466" t="s" s="2">
+      <c r="M466" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M466" t="s" s="2">
+      <c r="N466" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N466" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O466" t="s" s="2">
         <v>43</v>
@@ -55691,7 +55687,7 @@
       </c>
       <c r="X466" s="2"/>
       <c r="Y466" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="Z466" t="s" s="2">
         <v>43</v>
@@ -55709,7 +55705,7 @@
         <v>43</v>
       </c>
       <c r="AE466" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF466" t="s" s="2">
         <v>50</v>
@@ -55738,7 +55734,7 @@
     </row>
     <row r="467" hidden="true">
       <c r="A467" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" t="s" s="2">
@@ -55764,16 +55760,16 @@
         <v>180</v>
       </c>
       <c r="K467" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L467" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="L467" t="s" s="2">
+      <c r="M467" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="M467" t="s" s="2">
+      <c r="N467" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="N467" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="O467" t="s" s="2">
         <v>43</v>
@@ -55801,11 +55797,11 @@
         <v>116</v>
       </c>
       <c r="X467" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="Y467" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="Y467" t="s" s="2">
-        <v>845</v>
-      </c>
       <c r="Z467" t="s" s="2">
         <v>43</v>
       </c>
@@ -55822,7 +55818,7 @@
         <v>43</v>
       </c>
       <c r="AE467" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF467" t="s" s="2">
         <v>41</v>
@@ -55851,7 +55847,7 @@
     </row>
     <row r="468" hidden="true">
       <c r="A468" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B468" s="2"/>
       <c r="C468" t="s" s="2">
@@ -55874,19 +55870,19 @@
         <v>43</v>
       </c>
       <c r="J468" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K468" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L468" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="L468" t="s" s="2">
+      <c r="M468" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="M468" t="s" s="2">
+      <c r="N468" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="N468" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="O468" t="s" s="2">
         <v>43</v>
@@ -55935,7 +55931,7 @@
         <v>43</v>
       </c>
       <c r="AE468" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF468" t="s" s="2">
         <v>41</v>
@@ -55964,7 +55960,7 @@
     </row>
     <row r="469" hidden="true">
       <c r="A469" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B469" s="2"/>
       <c r="C469" t="s" s="2">
@@ -55987,19 +55983,19 @@
         <v>43</v>
       </c>
       <c r="J469" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K469" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L469" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L469" t="s" s="2">
+      <c r="M469" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M469" t="s" s="2">
+      <c r="N469" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N469" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="O469" t="s" s="2">
         <v>43</v>
@@ -56048,7 +56044,7 @@
         <v>43</v>
       </c>
       <c r="AE469" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF469" t="s" s="2">
         <v>41</v>
@@ -56077,10 +56073,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C470" t="s" s="2">
         <v>43</v>
@@ -56105,14 +56101,14 @@
         <v>375</v>
       </c>
       <c r="K470" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L470" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M470" s="2"/>
       <c r="N470" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O470" t="s" s="2">
         <v>43</v>
@@ -56161,7 +56157,7 @@
         <v>43</v>
       </c>
       <c r="AE470" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AF470" t="s" s="2">
         <v>41</v>
@@ -56190,7 +56186,7 @@
     </row>
     <row r="471" hidden="true">
       <c r="A471" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B471" s="2"/>
       <c r="C471" t="s" s="2">
@@ -56299,7 +56295,7 @@
     </row>
     <row r="472" hidden="true">
       <c r="A472" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B472" s="2"/>
       <c r="C472" t="s" s="2">
@@ -56410,7 +56406,7 @@
     </row>
     <row r="473" hidden="true">
       <c r="A473" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B473" s="2"/>
       <c r="C473" t="s" s="2">
@@ -56523,7 +56519,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B474" s="2"/>
       <c r="C474" t="s" s="2">
@@ -56549,16 +56545,16 @@
         <v>180</v>
       </c>
       <c r="K474" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L474" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L474" t="s" s="2">
+      <c r="M474" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M474" t="s" s="2">
+      <c r="N474" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N474" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O474" t="s" s="2">
         <v>43</v>
@@ -56587,7 +56583,7 @@
       </c>
       <c r="X474" s="2"/>
       <c r="Y474" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Z474" t="s" s="2">
         <v>43</v>
@@ -56605,7 +56601,7 @@
         <v>43</v>
       </c>
       <c r="AE474" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF474" t="s" s="2">
         <v>50</v>
@@ -56634,7 +56630,7 @@
     </row>
     <row r="475" hidden="true">
       <c r="A475" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B475" s="2"/>
       <c r="C475" t="s" s="2">
@@ -56660,16 +56656,16 @@
         <v>180</v>
       </c>
       <c r="K475" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L475" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="L475" t="s" s="2">
+      <c r="M475" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="M475" t="s" s="2">
+      <c r="N475" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="N475" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="O475" t="s" s="2">
         <v>43</v>
@@ -56697,11 +56693,11 @@
         <v>116</v>
       </c>
       <c r="X475" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="Y475" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="Y475" t="s" s="2">
-        <v>845</v>
-      </c>
       <c r="Z475" t="s" s="2">
         <v>43</v>
       </c>
@@ -56718,7 +56714,7 @@
         <v>43</v>
       </c>
       <c r="AE475" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF475" t="s" s="2">
         <v>41</v>
@@ -56747,7 +56743,7 @@
     </row>
     <row r="476" hidden="true">
       <c r="A476" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B476" s="2"/>
       <c r="C476" t="s" s="2">
@@ -56770,19 +56766,19 @@
         <v>43</v>
       </c>
       <c r="J476" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K476" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L476" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="L476" t="s" s="2">
+      <c r="M476" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="M476" t="s" s="2">
+      <c r="N476" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="N476" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="O476" t="s" s="2">
         <v>43</v>
@@ -56831,7 +56827,7 @@
         <v>43</v>
       </c>
       <c r="AE476" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF476" t="s" s="2">
         <v>41</v>
@@ -56860,7 +56856,7 @@
     </row>
     <row r="477" hidden="true">
       <c r="A477" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B477" s="2"/>
       <c r="C477" t="s" s="2">
@@ -56883,19 +56879,19 @@
         <v>43</v>
       </c>
       <c r="J477" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K477" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L477" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L477" t="s" s="2">
+      <c r="M477" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M477" t="s" s="2">
+      <c r="N477" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N477" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="O477" t="s" s="2">
         <v>43</v>
@@ -56944,7 +56940,7 @@
         <v>43</v>
       </c>
       <c r="AE477" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF477" t="s" s="2">
         <v>41</v>
@@ -56973,10 +56969,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C478" t="s" s="2">
         <v>43</v>
@@ -57001,14 +56997,14 @@
         <v>375</v>
       </c>
       <c r="K478" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L478" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M478" s="2"/>
       <c r="N478" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O478" t="s" s="2">
         <v>43</v>
@@ -57057,7 +57053,7 @@
         <v>43</v>
       </c>
       <c r="AE478" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AF478" t="s" s="2">
         <v>41</v>
@@ -57086,7 +57082,7 @@
     </row>
     <row r="479" hidden="true">
       <c r="A479" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B479" s="2"/>
       <c r="C479" t="s" s="2">
@@ -57195,7 +57191,7 @@
     </row>
     <row r="480" hidden="true">
       <c r="A480" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" t="s" s="2">
@@ -57306,7 +57302,7 @@
     </row>
     <row r="481" hidden="true">
       <c r="A481" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B481" s="2"/>
       <c r="C481" t="s" s="2">
@@ -57419,7 +57415,7 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B482" s="2"/>
       <c r="C482" t="s" s="2">
@@ -57445,16 +57441,16 @@
         <v>180</v>
       </c>
       <c r="K482" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="L482" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="L482" t="s" s="2">
+      <c r="M482" t="s" s="2">
         <v>835</v>
       </c>
-      <c r="M482" t="s" s="2">
+      <c r="N482" t="s" s="2">
         <v>836</v>
-      </c>
-      <c r="N482" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="O482" t="s" s="2">
         <v>43</v>
@@ -57483,7 +57479,7 @@
       </c>
       <c r="X482" s="2"/>
       <c r="Y482" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="Z482" t="s" s="2">
         <v>43</v>
@@ -57501,7 +57497,7 @@
         <v>43</v>
       </c>
       <c r="AE482" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF482" t="s" s="2">
         <v>50</v>
@@ -57530,7 +57526,7 @@
     </row>
     <row r="483" hidden="true">
       <c r="A483" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B483" s="2"/>
       <c r="C483" t="s" s="2">
@@ -57639,7 +57635,7 @@
     </row>
     <row r="484" hidden="true">
       <c r="A484" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B484" s="2"/>
       <c r="C484" t="s" s="2">
@@ -57750,7 +57746,7 @@
     </row>
     <row r="485" hidden="true">
       <c r="A485" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B485" s="2"/>
       <c r="C485" t="s" s="2">
@@ -57863,7 +57859,7 @@
     </row>
     <row r="486" hidden="true">
       <c r="A486" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B486" s="2"/>
       <c r="C486" t="s" s="2">
@@ -57972,7 +57968,7 @@
     </row>
     <row r="487" hidden="true">
       <c r="A487" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B487" s="2"/>
       <c r="C487" t="s" s="2">
@@ -58083,7 +58079,7 @@
     </row>
     <row r="488" hidden="true">
       <c r="A488" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B488" s="2"/>
       <c r="C488" t="s" s="2">
@@ -58196,7 +58192,7 @@
     </row>
     <row r="489" hidden="true">
       <c r="A489" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B489" s="2"/>
       <c r="C489" t="s" s="2">
@@ -58307,7 +58303,7 @@
     </row>
     <row r="490" hidden="true">
       <c r="A490" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B490" s="2"/>
       <c r="C490" t="s" s="2">
@@ -58350,7 +58346,7 @@
         <v>43</v>
       </c>
       <c r="R490" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S490" t="s" s="2">
         <v>43</v>
@@ -58418,7 +58414,7 @@
     </row>
     <row r="491" hidden="true">
       <c r="A491" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B491" s="2"/>
       <c r="C491" t="s" s="2">
@@ -58529,7 +58525,7 @@
     </row>
     <row r="492" hidden="true">
       <c r="A492" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B492" s="2"/>
       <c r="C492" t="s" s="2">
@@ -58642,7 +58638,7 @@
     </row>
     <row r="493" hidden="true">
       <c r="A493" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B493" s="2"/>
       <c r="C493" t="s" s="2">
@@ -58755,7 +58751,7 @@
     </row>
     <row r="494" hidden="true">
       <c r="A494" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B494" s="2"/>
       <c r="C494" t="s" s="2">
@@ -58781,16 +58777,16 @@
         <v>180</v>
       </c>
       <c r="K494" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="L494" t="s" s="2">
         <v>840</v>
       </c>
-      <c r="L494" t="s" s="2">
+      <c r="M494" t="s" s="2">
         <v>841</v>
       </c>
-      <c r="M494" t="s" s="2">
+      <c r="N494" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="N494" t="s" s="2">
-        <v>843</v>
       </c>
       <c r="O494" t="s" s="2">
         <v>43</v>
@@ -58818,11 +58814,11 @@
         <v>116</v>
       </c>
       <c r="X494" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="Y494" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="Y494" t="s" s="2">
-        <v>845</v>
-      </c>
       <c r="Z494" t="s" s="2">
         <v>43</v>
       </c>
@@ -58839,7 +58835,7 @@
         <v>43</v>
       </c>
       <c r="AE494" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF494" t="s" s="2">
         <v>41</v>
@@ -58868,7 +58864,7 @@
     </row>
     <row r="495" hidden="true">
       <c r="A495" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B495" s="2"/>
       <c r="C495" t="s" s="2">
@@ -58891,19 +58887,19 @@
         <v>43</v>
       </c>
       <c r="J495" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K495" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L495" t="s" s="2">
         <v>847</v>
       </c>
-      <c r="L495" t="s" s="2">
+      <c r="M495" t="s" s="2">
         <v>848</v>
       </c>
-      <c r="M495" t="s" s="2">
+      <c r="N495" t="s" s="2">
         <v>849</v>
-      </c>
-      <c r="N495" t="s" s="2">
-        <v>850</v>
       </c>
       <c r="O495" t="s" s="2">
         <v>43</v>
@@ -58952,7 +58948,7 @@
         <v>43</v>
       </c>
       <c r="AE495" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF495" t="s" s="2">
         <v>41</v>
@@ -58981,7 +58977,7 @@
     </row>
     <row r="496" hidden="true">
       <c r="A496" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B496" s="2"/>
       <c r="C496" t="s" s="2">
@@ -59004,19 +59000,19 @@
         <v>43</v>
       </c>
       <c r="J496" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K496" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L496" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="L496" t="s" s="2">
+      <c r="M496" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="M496" t="s" s="2">
+      <c r="N496" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="N496" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="O496" t="s" s="2">
         <v>43</v>
@@ -59065,7 +59061,7 @@
         <v>43</v>
       </c>
       <c r="AE496" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF496" t="s" s="2">
         <v>41</v>
@@ -59094,7 +59090,7 @@
     </row>
     <row r="497" hidden="true">
       <c r="A497" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B497" s="2"/>
       <c r="C497" t="s" s="2">
@@ -59120,16 +59116,16 @@
         <v>375</v>
       </c>
       <c r="K497" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L497" t="s" s="2">
         <v>1010</v>
       </c>
-      <c r="L497" t="s" s="2">
+      <c r="M497" t="s" s="2">
         <v>1011</v>
       </c>
-      <c r="M497" t="s" s="2">
+      <c r="N497" t="s" s="2">
         <v>1012</v>
-      </c>
-      <c r="N497" t="s" s="2">
-        <v>1013</v>
       </c>
       <c r="O497" t="s" s="2">
         <v>43</v>
@@ -59178,7 +59174,7 @@
         <v>43</v>
       </c>
       <c r="AE497" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF497" t="s" s="2">
         <v>41</v>
@@ -59207,7 +59203,7 @@
     </row>
     <row r="498" hidden="true">
       <c r="A498" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" t="s" s="2">
@@ -59316,7 +59312,7 @@
     </row>
     <row r="499" hidden="true">
       <c r="A499" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B499" s="2"/>
       <c r="C499" t="s" s="2">
@@ -59427,7 +59423,7 @@
     </row>
     <row r="500" hidden="true">
       <c r="A500" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B500" s="2"/>
       <c r="C500" t="s" s="2">
@@ -59540,7 +59536,7 @@
     </row>
     <row r="501" hidden="true">
       <c r="A501" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B501" s="2"/>
       <c r="C501" t="s" s="2">
@@ -59566,16 +59562,16 @@
         <v>180</v>
       </c>
       <c r="K501" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L501" t="s" s="2">
+        <v>1017</v>
+      </c>
+      <c r="M501" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="N501" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="M501" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="N501" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="O501" t="s" s="2">
         <v>43</v>
@@ -59604,7 +59600,7 @@
       </c>
       <c r="X501" s="2"/>
       <c r="Y501" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Z501" t="s" s="2">
         <v>43</v>
@@ -59622,7 +59618,7 @@
         <v>43</v>
       </c>
       <c r="AE501" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AF501" t="s" s="2">
         <v>50</v>
@@ -59651,7 +59647,7 @@
     </row>
     <row r="502" hidden="true">
       <c r="A502" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B502" s="2"/>
       <c r="C502" t="s" s="2">
@@ -59674,17 +59670,17 @@
         <v>51</v>
       </c>
       <c r="J502" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K502" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="L502" t="s" s="2">
         <v>1022</v>
-      </c>
-      <c r="L502" t="s" s="2">
-        <v>1023</v>
       </c>
       <c r="M502" s="2"/>
       <c r="N502" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O502" t="s" s="2">
         <v>43</v>
@@ -59733,7 +59729,7 @@
         <v>43</v>
       </c>
       <c r="AE502" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AF502" t="s" s="2">
         <v>50</v>
@@ -59762,7 +59758,7 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B503" s="2"/>
       <c r="C503" t="s" s="2">
@@ -59788,14 +59784,14 @@
         <v>375</v>
       </c>
       <c r="K503" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="L503" t="s" s="2">
         <v>1026</v>
-      </c>
-      <c r="L503" t="s" s="2">
-        <v>1027</v>
       </c>
       <c r="M503" s="2"/>
       <c r="N503" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O503" t="s" s="2">
         <v>43</v>
@@ -59844,7 +59840,7 @@
         <v>43</v>
       </c>
       <c r="AE503" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AF503" t="s" s="2">
         <v>41</v>
@@ -59873,7 +59869,7 @@
     </row>
     <row r="504" hidden="true">
       <c r="A504" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B504" s="2"/>
       <c r="C504" t="s" s="2">
@@ -59982,7 +59978,7 @@
     </row>
     <row r="505" hidden="true">
       <c r="A505" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" t="s" s="2">
@@ -60093,7 +60089,7 @@
     </row>
     <row r="506" hidden="true">
       <c r="A506" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B506" s="2"/>
       <c r="C506" t="s" s="2">
@@ -60206,7 +60202,7 @@
     </row>
     <row r="507" hidden="true">
       <c r="A507" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B507" s="2"/>
       <c r="C507" t="s" s="2">
@@ -60232,14 +60228,14 @@
         <v>180</v>
       </c>
       <c r="K507" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="L507" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="L507" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="M507" s="2"/>
       <c r="N507" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="O507" t="s" s="2">
         <v>43</v>
@@ -60268,7 +60264,7 @@
       </c>
       <c r="X507" s="2"/>
       <c r="Y507" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Z507" t="s" s="2">
         <v>43</v>
@@ -60286,7 +60282,7 @@
         <v>43</v>
       </c>
       <c r="AE507" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AF507" t="s" s="2">
         <v>41</v>
@@ -60315,7 +60311,7 @@
     </row>
     <row r="508" hidden="true">
       <c r="A508" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B508" s="2"/>
       <c r="C508" t="s" s="2">
@@ -60338,19 +60334,19 @@
         <v>43</v>
       </c>
       <c r="J508" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K508" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="L508" t="s" s="2">
         <v>1038</v>
       </c>
-      <c r="L508" t="s" s="2">
+      <c r="M508" t="s" s="2">
         <v>1039</v>
       </c>
-      <c r="M508" t="s" s="2">
+      <c r="N508" t="s" s="2">
         <v>1040</v>
-      </c>
-      <c r="N508" t="s" s="2">
-        <v>1041</v>
       </c>
       <c r="O508" t="s" s="2">
         <v>43</v>
@@ -60399,7 +60395,7 @@
         <v>43</v>
       </c>
       <c r="AE508" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AF508" t="s" s="2">
         <v>41</v>
@@ -60428,7 +60424,7 @@
     </row>
     <row r="509" hidden="true">
       <c r="A509" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B509" s="2"/>
       <c r="C509" t="s" s="2">
@@ -60454,14 +60450,14 @@
         <v>180</v>
       </c>
       <c r="K509" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="L509" t="s" s="2">
         <v>1043</v>
-      </c>
-      <c r="L509" t="s" s="2">
-        <v>1044</v>
       </c>
       <c r="M509" s="2"/>
       <c r="N509" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O509" t="s" s="2">
         <v>43</v>
@@ -60490,7 +60486,7 @@
       </c>
       <c r="X509" s="2"/>
       <c r="Y509" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Z509" t="s" s="2">
         <v>43</v>
@@ -60508,7 +60504,7 @@
         <v>43</v>
       </c>
       <c r="AE509" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AF509" t="s" s="2">
         <v>41</v>
@@ -60537,7 +60533,7 @@
     </row>
     <row r="510" hidden="true">
       <c r="A510" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B510" s="2"/>
       <c r="C510" t="s" s="2">
@@ -60560,17 +60556,17 @@
         <v>43</v>
       </c>
       <c r="J510" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K510" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="L510" t="s" s="2">
         <v>1048</v>
-      </c>
-      <c r="L510" t="s" s="2">
-        <v>1049</v>
       </c>
       <c r="M510" s="2"/>
       <c r="N510" t="s" s="2">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="O510" t="s" s="2">
         <v>43</v>
@@ -60619,7 +60615,7 @@
         <v>43</v>
       </c>
       <c r="AE510" t="s" s="2">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AF510" t="s" s="2">
         <v>41</v>
@@ -60648,7 +60644,7 @@
     </row>
     <row r="511" hidden="true">
       <c r="A511" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B511" s="2"/>
       <c r="C511" t="s" s="2">
@@ -60671,17 +60667,17 @@
         <v>43</v>
       </c>
       <c r="J511" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K511" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="L511" t="s" s="2">
         <v>1052</v>
-      </c>
-      <c r="L511" t="s" s="2">
-        <v>1053</v>
       </c>
       <c r="M511" s="2"/>
       <c r="N511" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O511" t="s" s="2">
         <v>43</v>
@@ -60730,7 +60726,7 @@
         <v>43</v>
       </c>
       <c r="AE511" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AF511" t="s" s="2">
         <v>41</v>
@@ -60759,7 +60755,7 @@
     </row>
     <row r="512" hidden="true">
       <c r="A512" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B512" s="2"/>
       <c r="C512" t="s" s="2">
@@ -60785,16 +60781,16 @@
         <v>159</v>
       </c>
       <c r="K512" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="L512" t="s" s="2">
         <v>1056</v>
       </c>
-      <c r="L512" t="s" s="2">
+      <c r="M512" t="s" s="2">
         <v>1057</v>
       </c>
-      <c r="M512" t="s" s="2">
+      <c r="N512" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="N512" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="O512" t="s" s="2">
         <v>43</v>
@@ -60843,7 +60839,7 @@
         <v>43</v>
       </c>
       <c r="AE512" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AF512" t="s" s="2">
         <v>41</v>
@@ -60872,7 +60868,7 @@
     </row>
     <row r="513" hidden="true">
       <c r="A513" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B513" s="2"/>
       <c r="C513" t="s" s="2">
@@ -60898,16 +60894,16 @@
         <v>180</v>
       </c>
       <c r="K513" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="L513" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="L513" t="s" s="2">
+      <c r="M513" t="s" s="2">
         <v>1062</v>
       </c>
-      <c r="M513" t="s" s="2">
+      <c r="N513" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="N513" t="s" s="2">
-        <v>1064</v>
       </c>
       <c r="O513" t="s" s="2">
         <v>43</v>
@@ -60935,11 +60931,11 @@
         <v>116</v>
       </c>
       <c r="X513" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="Y513" t="s" s="2">
         <v>1065</v>
       </c>
-      <c r="Y513" t="s" s="2">
-        <v>1066</v>
-      </c>
       <c r="Z513" t="s" s="2">
         <v>43</v>
       </c>
@@ -60956,7 +60952,7 @@
         <v>43</v>
       </c>
       <c r="AE513" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AF513" t="s" s="2">
         <v>41</v>
@@ -60985,7 +60981,7 @@
     </row>
     <row r="514" hidden="true">
       <c r="A514" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" t="s" s="2">
@@ -61008,19 +61004,19 @@
         <v>43</v>
       </c>
       <c r="J514" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="K514" t="s" s="2">
         <v>1068</v>
       </c>
-      <c r="K514" t="s" s="2">
+      <c r="L514" t="s" s="2">
         <v>1069</v>
       </c>
-      <c r="L514" t="s" s="2">
+      <c r="M514" t="s" s="2">
         <v>1070</v>
       </c>
-      <c r="M514" t="s" s="2">
+      <c r="N514" t="s" s="2">
         <v>1071</v>
-      </c>
-      <c r="N514" t="s" s="2">
-        <v>1072</v>
       </c>
       <c r="O514" t="s" s="2">
         <v>43</v>
@@ -61069,7 +61065,7 @@
         <v>43</v>
       </c>
       <c r="AE514" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="AF514" t="s" s="2">
         <v>41</v>
@@ -61098,7 +61094,7 @@
     </row>
     <row r="515" hidden="true">
       <c r="A515" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B515" s="2"/>
       <c r="C515" t="s" s="2">
@@ -61124,14 +61120,14 @@
         <v>375</v>
       </c>
       <c r="K515" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="L515" t="s" s="2">
         <v>1074</v>
-      </c>
-      <c r="L515" t="s" s="2">
-        <v>1075</v>
       </c>
       <c r="M515" s="2"/>
       <c r="N515" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O515" t="s" s="2">
         <v>43</v>
@@ -61180,7 +61176,7 @@
         <v>43</v>
       </c>
       <c r="AE515" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AF515" t="s" s="2">
         <v>41</v>
@@ -61209,7 +61205,7 @@
     </row>
     <row r="516" hidden="true">
       <c r="A516" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B516" s="2"/>
       <c r="C516" t="s" s="2">
@@ -61318,7 +61314,7 @@
     </row>
     <row r="517" hidden="true">
       <c r="A517" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B517" s="2"/>
       <c r="C517" t="s" s="2">
@@ -61429,7 +61425,7 @@
     </row>
     <row r="518" hidden="true">
       <c r="A518" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B518" s="2"/>
       <c r="C518" t="s" s="2">
@@ -61542,7 +61538,7 @@
     </row>
     <row r="519" hidden="true">
       <c r="A519" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B519" s="2"/>
       <c r="C519" t="s" s="2">
@@ -61568,14 +61564,14 @@
         <v>484</v>
       </c>
       <c r="K519" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="L519" t="s" s="2">
         <v>1081</v>
-      </c>
-      <c r="L519" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="M519" s="2"/>
       <c r="N519" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O519" t="s" s="2">
         <v>43</v>
@@ -61624,7 +61620,7 @@
         <v>43</v>
       </c>
       <c r="AE519" t="s" s="2">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AF519" t="s" s="2">
         <v>41</v>
@@ -61653,7 +61649,7 @@
     </row>
     <row r="520" hidden="true">
       <c r="A520" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B520" s="2"/>
       <c r="C520" t="s" s="2">
@@ -61679,14 +61675,14 @@
         <v>126</v>
       </c>
       <c r="K520" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="L520" t="s" s="2">
         <v>1085</v>
-      </c>
-      <c r="L520" t="s" s="2">
-        <v>1086</v>
       </c>
       <c r="M520" s="2"/>
       <c r="N520" t="s" s="2">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O520" t="s" s="2">
         <v>43</v>
@@ -61714,11 +61710,11 @@
         <v>174</v>
       </c>
       <c r="X520" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="Y520" t="s" s="2">
         <v>1088</v>
       </c>
-      <c r="Y520" t="s" s="2">
-        <v>1089</v>
-      </c>
       <c r="Z520" t="s" s="2">
         <v>43</v>
       </c>
@@ -61735,7 +61731,7 @@
         <v>43</v>
       </c>
       <c r="AE520" t="s" s="2">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AF520" t="s" s="2">
         <v>41</v>
@@ -61764,7 +61760,7 @@
     </row>
     <row r="521" hidden="true">
       <c r="A521" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B521" s="2"/>
       <c r="C521" t="s" s="2">
@@ -61790,14 +61786,14 @@
         <v>52</v>
       </c>
       <c r="K521" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="L521" t="s" s="2">
         <v>1091</v>
-      </c>
-      <c r="L521" t="s" s="2">
-        <v>1092</v>
       </c>
       <c r="M521" s="2"/>
       <c r="N521" t="s" s="2">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O521" t="s" s="2">
         <v>43</v>
@@ -61846,7 +61842,7 @@
         <v>43</v>
       </c>
       <c r="AE521" t="s" s="2">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AF521" t="s" s="2">
         <v>41</v>
@@ -61875,7 +61871,7 @@
     </row>
     <row r="522" hidden="true">
       <c r="A522" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B522" s="2"/>
       <c r="C522" t="s" s="2">
@@ -61901,16 +61897,16 @@
         <v>180</v>
       </c>
       <c r="K522" t="s" s="2">
+        <v>1094</v>
+      </c>
+      <c r="L522" t="s" s="2">
         <v>1095</v>
       </c>
-      <c r="L522" t="s" s="2">
+      <c r="M522" t="s" s="2">
         <v>1096</v>
       </c>
-      <c r="M522" t="s" s="2">
+      <c r="N522" t="s" s="2">
         <v>1097</v>
-      </c>
-      <c r="N522" t="s" s="2">
-        <v>1098</v>
       </c>
       <c r="O522" t="s" s="2">
         <v>43</v>
@@ -61959,7 +61955,7 @@
         <v>43</v>
       </c>
       <c r="AE522" t="s" s="2">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AF522" t="s" s="2">
         <v>41</v>
@@ -61988,7 +61984,7 @@
     </row>
     <row r="523" hidden="true">
       <c r="A523" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B523" s="2"/>
       <c r="C523" t="s" s="2">
@@ -62014,16 +62010,16 @@
         <v>207</v>
       </c>
       <c r="K523" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="L523" t="s" s="2">
         <v>1100</v>
       </c>
-      <c r="L523" t="s" s="2">
+      <c r="M523" t="s" s="2">
         <v>1101</v>
       </c>
-      <c r="M523" t="s" s="2">
+      <c r="N523" t="s" s="2">
         <v>1102</v>
-      </c>
-      <c r="N523" t="s" s="2">
-        <v>1103</v>
       </c>
       <c r="O523" t="s" s="2">
         <v>43</v>
@@ -62072,7 +62068,7 @@
         <v>43</v>
       </c>
       <c r="AE523" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AF523" t="s" s="2">
         <v>41</v>
@@ -62101,7 +62097,7 @@
     </row>
     <row r="524" hidden="true">
       <c r="A524" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B524" s="2"/>
       <c r="C524" t="s" s="2">
@@ -62127,10 +62123,10 @@
         <v>375</v>
       </c>
       <c r="K524" t="s" s="2">
+        <v>1104</v>
+      </c>
+      <c r="L524" t="s" s="2">
         <v>1105</v>
-      </c>
-      <c r="L524" t="s" s="2">
-        <v>1106</v>
       </c>
       <c r="M524" s="2"/>
       <c r="N524" s="2"/>
@@ -62181,7 +62177,7 @@
         <v>43</v>
       </c>
       <c r="AE524" t="s" s="2">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AF524" t="s" s="2">
         <v>41</v>
@@ -62210,7 +62206,7 @@
     </row>
     <row r="525" hidden="true">
       <c r="A525" t="s" s="2">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B525" s="2"/>
       <c r="C525" t="s" s="2">
@@ -62319,7 +62315,7 @@
     </row>
     <row r="526" hidden="true">
       <c r="A526" t="s" s="2">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B526" s="2"/>
       <c r="C526" t="s" s="2">
@@ -62430,7 +62426,7 @@
     </row>
     <row r="527" hidden="true">
       <c r="A527" t="s" s="2">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B527" s="2"/>
       <c r="C527" t="s" s="2">
@@ -62543,7 +62539,7 @@
     </row>
     <row r="528" hidden="true">
       <c r="A528" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B528" s="2"/>
       <c r="C528" t="s" s="2">
@@ -62569,16 +62565,16 @@
         <v>180</v>
       </c>
       <c r="K528" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L528" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="L528" t="s" s="2">
+      <c r="M528" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="M528" t="s" s="2">
-        <v>746</v>
-      </c>
       <c r="N528" t="s" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="O528" t="s" s="2">
         <v>43</v>
@@ -62606,11 +62602,11 @@
         <v>116</v>
       </c>
       <c r="X528" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="Y528" t="s" s="2">
         <v>748</v>
       </c>
-      <c r="Y528" t="s" s="2">
-        <v>749</v>
-      </c>
       <c r="Z528" t="s" s="2">
         <v>43</v>
       </c>
@@ -62627,7 +62623,7 @@
         <v>43</v>
       </c>
       <c r="AE528" t="s" s="2">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AF528" t="s" s="2">
         <v>50</v>
@@ -62656,7 +62652,7 @@
     </row>
     <row r="529" hidden="true">
       <c r="A529" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B529" s="2"/>
       <c r="C529" t="s" s="2">
@@ -62682,14 +62678,14 @@
         <v>284</v>
       </c>
       <c r="K529" t="s" s="2">
+        <v>1112</v>
+      </c>
+      <c r="L529" t="s" s="2">
         <v>1113</v>
-      </c>
-      <c r="L529" t="s" s="2">
-        <v>1114</v>
       </c>
       <c r="M529" s="2"/>
       <c r="N529" t="s" s="2">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="O529" t="s" s="2">
         <v>43</v>
@@ -62738,7 +62734,7 @@
         <v>43</v>
       </c>
       <c r="AE529" t="s" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="AF529" t="s" s="2">
         <v>41</v>
@@ -62767,7 +62763,7 @@
     </row>
     <row r="530" hidden="true">
       <c r="A530" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B530" s="2"/>
       <c r="C530" t="s" s="2">
@@ -62793,16 +62789,16 @@
         <v>52</v>
       </c>
       <c r="K530" t="s" s="2">
+        <v>1116</v>
+      </c>
+      <c r="L530" t="s" s="2">
         <v>1117</v>
       </c>
-      <c r="L530" t="s" s="2">
+      <c r="M530" t="s" s="2">
         <v>1118</v>
       </c>
-      <c r="M530" t="s" s="2">
+      <c r="N530" t="s" s="2">
         <v>1119</v>
-      </c>
-      <c r="N530" t="s" s="2">
-        <v>1120</v>
       </c>
       <c r="O530" t="s" s="2">
         <v>43</v>
@@ -62851,7 +62847,7 @@
         <v>43</v>
       </c>
       <c r="AE530" t="s" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="AF530" t="s" s="2">
         <v>41</v>
@@ -62880,7 +62876,7 @@
     </row>
     <row r="531" hidden="true">
       <c r="A531" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B531" s="2"/>
       <c r="C531" t="s" s="2">
@@ -62906,16 +62902,16 @@
         <v>52</v>
       </c>
       <c r="K531" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="L531" t="s" s="2">
         <v>1122</v>
       </c>
-      <c r="L531" t="s" s="2">
+      <c r="M531" t="s" s="2">
         <v>1123</v>
       </c>
-      <c r="M531" t="s" s="2">
+      <c r="N531" t="s" s="2">
         <v>1124</v>
-      </c>
-      <c r="N531" t="s" s="2">
-        <v>1125</v>
       </c>
       <c r="O531" t="s" s="2">
         <v>43</v>
@@ -62964,7 +62960,7 @@
         <v>43</v>
       </c>
       <c r="AE531" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AF531" t="s" s="2">
         <v>41</v>
@@ -62993,7 +62989,7 @@
     </row>
     <row r="532" hidden="true">
       <c r="A532" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B532" s="2"/>
       <c r="C532" t="s" s="2">
@@ -63019,14 +63015,14 @@
         <v>180</v>
       </c>
       <c r="K532" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="L532" t="s" s="2">
         <v>1127</v>
-      </c>
-      <c r="L532" t="s" s="2">
-        <v>1128</v>
       </c>
       <c r="M532" s="2"/>
       <c r="N532" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O532" t="s" s="2">
         <v>43</v>
@@ -63054,11 +63050,11 @@
         <v>116</v>
       </c>
       <c r="X532" t="s" s="2">
+        <v>1129</v>
+      </c>
+      <c r="Y532" t="s" s="2">
         <v>1130</v>
       </c>
-      <c r="Y532" t="s" s="2">
-        <v>1131</v>
-      </c>
       <c r="Z532" t="s" s="2">
         <v>43</v>
       </c>
@@ -63075,7 +63071,7 @@
         <v>43</v>
       </c>
       <c r="AE532" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AF532" t="s" s="2">
         <v>41</v>
@@ -63104,7 +63100,7 @@
     </row>
     <row r="533" hidden="true">
       <c r="A533" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B533" s="2"/>
       <c r="C533" t="s" s="2">
@@ -63130,14 +63126,14 @@
         <v>180</v>
       </c>
       <c r="K533" t="s" s="2">
+        <v>1132</v>
+      </c>
+      <c r="L533" t="s" s="2">
         <v>1133</v>
-      </c>
-      <c r="L533" t="s" s="2">
-        <v>1134</v>
       </c>
       <c r="M533" s="2"/>
       <c r="N533" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O533" t="s" s="2">
         <v>43</v>
@@ -63165,11 +63161,11 @@
         <v>116</v>
       </c>
       <c r="X533" t="s" s="2">
+        <v>1135</v>
+      </c>
+      <c r="Y533" t="s" s="2">
         <v>1136</v>
       </c>
-      <c r="Y533" t="s" s="2">
-        <v>1137</v>
-      </c>
       <c r="Z533" t="s" s="2">
         <v>43</v>
       </c>
@@ -63186,7 +63182,7 @@
         <v>43</v>
       </c>
       <c r="AE533" t="s" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AF533" t="s" s="2">
         <v>41</v>
@@ -63215,7 +63211,7 @@
     </row>
     <row r="534" hidden="true">
       <c r="A534" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B534" s="2"/>
       <c r="C534" t="s" s="2">
@@ -63241,14 +63237,14 @@
         <v>180</v>
       </c>
       <c r="K534" t="s" s="2">
+        <v>1138</v>
+      </c>
+      <c r="L534" t="s" s="2">
         <v>1139</v>
-      </c>
-      <c r="L534" t="s" s="2">
-        <v>1140</v>
       </c>
       <c r="M534" s="2"/>
       <c r="N534" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O534" t="s" s="2">
         <v>43</v>
@@ -63276,11 +63272,11 @@
         <v>116</v>
       </c>
       <c r="X534" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="Y534" t="s" s="2">
         <v>1141</v>
       </c>
-      <c r="Y534" t="s" s="2">
-        <v>1142</v>
-      </c>
       <c r="Z534" t="s" s="2">
         <v>43</v>
       </c>
@@ -63297,7 +63293,7 @@
         <v>43</v>
       </c>
       <c r="AE534" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AF534" t="s" s="2">
         <v>41</v>
@@ -63326,7 +63322,7 @@
     </row>
     <row r="535" hidden="true">
       <c r="A535" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B535" s="2"/>
       <c r="C535" t="s" s="2">
@@ -63352,10 +63348,10 @@
         <v>375</v>
       </c>
       <c r="K535" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="L535" t="s" s="2">
         <v>1144</v>
-      </c>
-      <c r="L535" t="s" s="2">
-        <v>1145</v>
       </c>
       <c r="M535" s="2"/>
       <c r="N535" s="2"/>
@@ -63406,7 +63402,7 @@
         <v>43</v>
       </c>
       <c r="AE535" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AF535" t="s" s="2">
         <v>41</v>
@@ -63435,7 +63431,7 @@
     </row>
     <row r="536" hidden="true">
       <c r="A536" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B536" s="2"/>
       <c r="C536" t="s" s="2">
@@ -63544,7 +63540,7 @@
     </row>
     <row r="537" hidden="true">
       <c r="A537" t="s" s="2">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B537" s="2"/>
       <c r="C537" t="s" s="2">
@@ -63655,7 +63651,7 @@
     </row>
     <row r="538" hidden="true">
       <c r="A538" t="s" s="2">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B538" s="2"/>
       <c r="C538" t="s" s="2">
@@ -63768,7 +63764,7 @@
     </row>
     <row r="539" hidden="true">
       <c r="A539" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B539" s="2"/>
       <c r="C539" t="s" s="2">
@@ -63794,16 +63790,16 @@
         <v>180</v>
       </c>
       <c r="K539" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L539" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="M539" t="s" s="2">
         <v>1150</v>
       </c>
-      <c r="M539" t="s" s="2">
+      <c r="N539" t="s" s="2">
         <v>1151</v>
-      </c>
-      <c r="N539" t="s" s="2">
-        <v>1152</v>
       </c>
       <c r="O539" t="s" s="2">
         <v>43</v>
@@ -63831,11 +63827,11 @@
         <v>116</v>
       </c>
       <c r="X539" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="Y539" t="s" s="2">
         <v>1153</v>
       </c>
-      <c r="Y539" t="s" s="2">
-        <v>1154</v>
-      </c>
       <c r="Z539" t="s" s="2">
         <v>43</v>
       </c>
@@ -63852,7 +63848,7 @@
         <v>43</v>
       </c>
       <c r="AE539" t="s" s="2">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AF539" t="s" s="2">
         <v>50</v>
@@ -63881,7 +63877,7 @@
     </row>
     <row r="540" hidden="true">
       <c r="A540" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B540" s="2"/>
       <c r="C540" t="s" s="2">
@@ -63904,17 +63900,17 @@
         <v>43</v>
       </c>
       <c r="J540" t="s" s="2">
+        <v>1155</v>
+      </c>
+      <c r="K540" t="s" s="2">
         <v>1156</v>
       </c>
-      <c r="K540" t="s" s="2">
+      <c r="L540" t="s" s="2">
         <v>1157</v>
-      </c>
-      <c r="L540" t="s" s="2">
-        <v>1158</v>
       </c>
       <c r="M540" s="2"/>
       <c r="N540" t="s" s="2">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="O540" t="s" s="2">
         <v>43</v>
@@ -63963,7 +63959,7 @@
         <v>43</v>
       </c>
       <c r="AE540" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AF540" t="s" s="2">
         <v>41</v>
@@ -63992,7 +63988,7 @@
     </row>
     <row r="541" hidden="true">
       <c r="A541" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B541" s="2"/>
       <c r="C541" t="s" s="2">
@@ -64015,17 +64011,17 @@
         <v>43</v>
       </c>
       <c r="J541" t="s" s="2">
+        <v>1160</v>
+      </c>
+      <c r="K541" t="s" s="2">
         <v>1161</v>
       </c>
-      <c r="K541" t="s" s="2">
+      <c r="L541" t="s" s="2">
         <v>1162</v>
-      </c>
-      <c r="L541" t="s" s="2">
-        <v>1163</v>
       </c>
       <c r="M541" s="2"/>
       <c r="N541" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="O541" t="s" s="2">
         <v>43</v>
@@ -64074,7 +64070,7 @@
         <v>43</v>
       </c>
       <c r="AE541" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AF541" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -35799,7 +35799,7 @@
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F288" t="s" s="2">
         <v>50</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -2513,7 +2513,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationPayerValueCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodesVS</t>
   </si>
   <si>
     <t>denialreason</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -766,13 +766,13 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/ValueSet/claim-type"/&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/claim-type"/&gt;
     &lt;code value="#pharmacy"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
+    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1591,7 +1591,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
-    &lt;code value="brandGenericCode"/&gt;
+    &lt;code value="brandgenericcode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1608,7 +1608,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
-    &lt;code value="rxOriginCode"/&gt;
+    &lt;code value="rxorigincode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1639,7 +1639,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
-    &lt;code value="dawCode"/&gt;
+    &lt;code value="dawcode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1670,7 +1670,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
-    &lt;code value="daysSupply"/&gt;
+    &lt;code value="dayssupply"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -767,7 +767,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/claim-type"/&gt;
-    &lt;code value="#pharmacy"/&gt;
+    &lt;code value="pharmacy"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14463" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14463" uniqueCount="1083">
   <si>
     <t>Path</t>
   </si>
@@ -2540,14 +2540,6 @@
   </si>
   <si>
     <t>Benefit Payment Status</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimAdjudicationCategoryCS"/&gt;
-    &lt;code value="inoutnetwork"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
@@ -32426,7 +32418,7 @@
         <v>43</v>
       </c>
       <c r="R259" t="s" s="2">
-        <v>803</v>
+        <v>43</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>43</v>
@@ -32445,7 +32437,7 @@
       </c>
       <c r="X259" s="2"/>
       <c r="Y259" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32831,7 +32823,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32857,10 +32849,10 @@
         <v>317</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>806</v>
-      </c>
-      <c r="L263" t="s" s="2">
-        <v>807</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -32911,7 +32903,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32940,7 +32932,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33049,7 +33041,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33160,7 +33152,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33273,7 +33265,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33302,7 +33294,7 @@
         <v>650</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
@@ -33355,7 +33347,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>50</v>
@@ -33384,7 +33376,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33466,7 +33458,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33495,7 +33487,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33527,7 +33519,7 @@
         <v>684</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N269" t="s" s="2">
         <v>686</v>
@@ -33579,7 +33571,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33608,7 +33600,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33672,7 +33664,7 @@
       </c>
       <c r="X270" s="2"/>
       <c r="Y270" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33690,7 +33682,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>50</v>
@@ -33719,7 +33711,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33745,7 +33737,7 @@
         <v>180</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L271" t="s" s="2">
         <v>698</v>
@@ -33803,7 +33795,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33832,7 +33824,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33916,7 +33908,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33945,7 +33937,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34027,7 +34019,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34056,7 +34048,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34138,7 +34130,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34167,7 +34159,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34251,7 +34243,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34280,7 +34272,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34364,7 +34356,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34393,7 +34385,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34475,7 +34467,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34504,7 +34496,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34586,7 +34578,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34615,7 +34607,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34641,10 +34633,10 @@
         <v>43</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>828</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>829</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -34695,7 +34687,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34724,7 +34716,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34750,10 +34742,10 @@
         <v>317</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -34804,7 +34796,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34833,7 +34825,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34942,7 +34934,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35053,7 +35045,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35166,7 +35158,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35195,7 +35187,7 @@
         <v>650</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
@@ -35248,7 +35240,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>50</v>
@@ -35277,7 +35269,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35359,7 +35351,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35388,7 +35380,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35472,7 +35464,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35501,7 +35493,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35564,11 +35556,11 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="Y287" t="s" s="2">
         <v>839</v>
       </c>
-      <c r="Y287" t="s" s="2">
-        <v>840</v>
-      </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
       </c>
@@ -35585,7 +35577,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35614,7 +35606,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35640,13 +35632,13 @@
         <v>180</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L288" t="s" s="2">
         <v>698</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N288" t="s" s="2">
         <v>700</v>
@@ -35698,7 +35690,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35727,7 +35719,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35811,7 +35803,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35840,7 +35832,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35922,7 +35914,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35951,7 +35943,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36033,7 +36025,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36062,7 +36054,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36146,7 +36138,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36175,7 +36167,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36259,7 +36251,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36288,7 +36280,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36370,7 +36362,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36399,7 +36391,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36481,7 +36473,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36510,7 +36502,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36536,10 +36528,10 @@
         <v>43</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -36590,7 +36582,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36619,7 +36611,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36645,14 +36637,14 @@
         <v>317</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36701,7 +36693,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36730,7 +36722,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36839,7 +36831,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36950,7 +36942,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -37063,7 +37055,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37089,14 +37081,14 @@
         <v>426</v>
       </c>
       <c r="K301" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="L301" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="L301" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37145,7 +37137,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37174,7 +37166,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37200,14 +37192,14 @@
         <v>426</v>
       </c>
       <c r="K302" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="L302" t="s" s="2">
         <v>864</v>
-      </c>
-      <c r="L302" t="s" s="2">
-        <v>865</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37256,7 +37248,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37285,7 +37277,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37311,14 +37303,14 @@
         <v>426</v>
       </c>
       <c r="K303" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="L303" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L303" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37367,7 +37359,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37396,7 +37388,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37422,14 +37414,14 @@
         <v>431</v>
       </c>
       <c r="K304" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="L304" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="L304" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="M304" s="2"/>
       <c r="N304" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37478,7 +37470,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37507,7 +37499,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37570,11 +37562,11 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="Y305" t="s" s="2">
         <v>839</v>
       </c>
-      <c r="Y305" t="s" s="2">
-        <v>840</v>
-      </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
       </c>
@@ -37591,7 +37583,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>50</v>
@@ -37620,7 +37612,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37646,7 +37638,7 @@
         <v>180</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L306" t="s" s="2">
         <v>698</v>
@@ -37704,7 +37696,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37733,7 +37725,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37817,7 +37809,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37846,7 +37838,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37928,7 +37920,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37957,7 +37949,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38039,7 +38031,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38068,7 +38060,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38150,7 +38142,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38179,7 +38171,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38261,7 +38253,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38290,7 +38282,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38374,7 +38366,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38403,7 +38395,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38487,7 +38479,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38516,7 +38508,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38548,7 +38540,7 @@
         <v>745</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="N314" t="s" s="2">
         <v>747</v>
@@ -38600,7 +38592,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38629,7 +38621,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38711,7 +38703,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38740,7 +38732,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38822,7 +38814,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38851,7 +38843,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38877,10 +38869,10 @@
         <v>43</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -38931,7 +38923,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38960,7 +38952,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38986,10 +38978,10 @@
         <v>317</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -39040,7 +39032,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39069,7 +39061,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39178,7 +39170,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39289,7 +39281,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39402,7 +39394,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39465,11 +39457,11 @@
         <v>116</v>
       </c>
       <c r="X322" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="Y322" t="s" s="2">
         <v>839</v>
       </c>
-      <c r="Y322" t="s" s="2">
-        <v>840</v>
-      </c>
       <c r="Z322" t="s" s="2">
         <v>43</v>
       </c>
@@ -39486,7 +39478,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>50</v>
@@ -39515,7 +39507,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39541,7 +39533,7 @@
         <v>180</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L323" t="s" s="2">
         <v>698</v>
@@ -39599,7 +39591,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39628,7 +39620,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39710,7 +39702,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39739,7 +39731,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39821,7 +39813,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39850,7 +39842,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39934,7 +39926,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39963,7 +39955,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40047,7 +40039,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40076,7 +40068,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40158,7 +40150,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40187,7 +40179,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40213,10 +40205,10 @@
         <v>43</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -40267,7 +40259,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40296,7 +40288,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40322,10 +40314,10 @@
         <v>317</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
@@ -40376,7 +40368,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40405,7 +40397,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40514,7 +40506,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40625,7 +40617,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40738,7 +40730,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40801,11 +40793,11 @@
         <v>116</v>
       </c>
       <c r="X334" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="Y334" t="s" s="2">
         <v>839</v>
       </c>
-      <c r="Y334" t="s" s="2">
-        <v>840</v>
-      </c>
       <c r="Z334" t="s" s="2">
         <v>43</v>
       </c>
@@ -40822,7 +40814,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>50</v>
@@ -40851,7 +40843,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40877,7 +40869,7 @@
         <v>180</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L335" t="s" s="2">
         <v>698</v>
@@ -40935,7 +40927,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40964,7 +40956,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41046,7 +41038,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41075,7 +41067,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41157,7 +41149,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41186,7 +41178,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41270,7 +41262,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41299,7 +41291,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41383,7 +41375,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41412,7 +41404,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41494,7 +41486,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41523,7 +41515,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41549,10 +41541,10 @@
         <v>43</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -41603,7 +41595,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41632,7 +41624,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41658,14 +41650,14 @@
         <v>317</v>
       </c>
       <c r="K342" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="L342" t="s" s="2">
         <v>917</v>
-      </c>
-      <c r="L342" t="s" s="2">
-        <v>918</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41705,7 +41697,7 @@
         <v>459</v>
       </c>
       <c r="AB342" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AC342" t="s" s="2">
         <v>43</v>
@@ -41714,7 +41706,7 @@
         <v>589</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41743,7 +41735,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41852,7 +41844,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41963,7 +41955,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42076,7 +42068,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42187,7 +42179,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42300,7 +42292,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42413,7 +42405,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42526,7 +42518,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>794</v>
@@ -42557,11 +42549,11 @@
         <v>795</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42610,7 +42602,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42639,7 +42631,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42748,7 +42740,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42859,7 +42851,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42972,7 +42964,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -43083,7 +43075,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43196,7 +43188,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43309,7 +43301,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43422,7 +43414,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>801</v>
@@ -43453,11 +43445,11 @@
         <v>802</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43506,7 +43498,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43535,7 +43527,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43644,7 +43636,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43755,7 +43747,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43868,7 +43860,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43913,7 +43905,7 @@
         <v>43</v>
       </c>
       <c r="R362" t="s" s="2">
-        <v>803</v>
+        <v>43</v>
       </c>
       <c r="S362" t="s" s="2">
         <v>43</v>
@@ -43932,7 +43924,7 @@
       </c>
       <c r="X362" s="2"/>
       <c r="Y362" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
@@ -43979,7 +43971,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44092,7 +44084,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44205,7 +44197,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44318,7 +44310,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44344,16 +44336,16 @@
         <v>317</v>
       </c>
       <c r="K366" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="L366" t="s" s="2">
         <v>929</v>
       </c>
-      <c r="L366" t="s" s="2">
+      <c r="M366" t="s" s="2">
         <v>930</v>
       </c>
-      <c r="M366" t="s" s="2">
+      <c r="N366" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="N366" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44402,7 +44394,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44431,7 +44423,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44540,7 +44532,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44651,7 +44643,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44764,7 +44756,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44793,13 +44785,13 @@
         <v>772</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M370" t="s" s="2">
         <v>774</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44828,7 +44820,7 @@
       </c>
       <c r="X370" s="2"/>
       <c r="Y370" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44846,7 +44838,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>50</v>
@@ -44875,7 +44867,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44901,14 +44893,14 @@
         <v>727</v>
       </c>
       <c r="K371" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="L371" t="s" s="2">
         <v>941</v>
-      </c>
-      <c r="L371" t="s" s="2">
-        <v>942</v>
       </c>
       <c r="M371" s="2"/>
       <c r="N371" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44957,7 +44949,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>50</v>
@@ -44986,7 +44978,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45012,14 +45004,14 @@
         <v>317</v>
       </c>
       <c r="K372" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L372" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L372" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M372" s="2"/>
       <c r="N372" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45068,7 +45060,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45097,7 +45089,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45206,7 +45198,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45317,7 +45309,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45430,7 +45422,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45456,14 +45448,14 @@
         <v>180</v>
       </c>
       <c r="K376" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="L376" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="L376" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="M376" s="2"/>
       <c r="N376" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
@@ -45492,7 +45484,7 @@
       </c>
       <c r="X376" s="2"/>
       <c r="Y376" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45510,7 +45502,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45539,7 +45531,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45565,16 +45557,16 @@
         <v>727</v>
       </c>
       <c r="K377" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="L377" t="s" s="2">
         <v>957</v>
       </c>
-      <c r="L377" t="s" s="2">
+      <c r="M377" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="M377" t="s" s="2">
+      <c r="N377" t="s" s="2">
         <v>959</v>
-      </c>
-      <c r="N377" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
@@ -45623,7 +45615,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
@@ -45652,7 +45644,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45678,14 +45670,14 @@
         <v>180</v>
       </c>
       <c r="K378" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="L378" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="L378" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="M378" s="2"/>
       <c r="N378" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45714,7 +45706,7 @@
       </c>
       <c r="X378" s="2"/>
       <c r="Y378" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Z378" t="s" s="2">
         <v>43</v>
@@ -45732,7 +45724,7 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
@@ -45761,7 +45753,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45787,14 +45779,14 @@
         <v>633</v>
       </c>
       <c r="K379" t="s" s="2">
+        <v>966</v>
+      </c>
+      <c r="L379" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="L379" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45843,7 +45835,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45872,7 +45864,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45898,14 +45890,14 @@
         <v>727</v>
       </c>
       <c r="K380" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="L380" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="L380" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45954,7 +45946,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45983,7 +45975,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46009,16 +46001,16 @@
         <v>159</v>
       </c>
       <c r="K381" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L381" t="s" s="2">
         <v>975</v>
       </c>
-      <c r="L381" t="s" s="2">
+      <c r="M381" t="s" s="2">
         <v>976</v>
       </c>
-      <c r="M381" t="s" s="2">
+      <c r="N381" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="N381" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46067,7 +46059,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46096,7 +46088,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46122,16 +46114,16 @@
         <v>180</v>
       </c>
       <c r="K382" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="L382" t="s" s="2">
         <v>980</v>
       </c>
-      <c r="L382" t="s" s="2">
+      <c r="M382" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="M382" t="s" s="2">
+      <c r="N382" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="N382" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46159,11 +46151,11 @@
         <v>116</v>
       </c>
       <c r="X382" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="Y382" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="Y382" t="s" s="2">
-        <v>985</v>
-      </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
       </c>
@@ -46180,7 +46172,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46209,7 +46201,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46232,19 +46224,19 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="K383" t="s" s="2">
         <v>987</v>
       </c>
-      <c r="K383" t="s" s="2">
+      <c r="L383" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="L383" t="s" s="2">
+      <c r="M383" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="M383" t="s" s="2">
+      <c r="N383" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="N383" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46293,7 +46285,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46322,7 +46314,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46348,14 +46340,14 @@
         <v>317</v>
       </c>
       <c r="K384" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="L384" t="s" s="2">
         <v>993</v>
-      </c>
-      <c r="L384" t="s" s="2">
-        <v>994</v>
       </c>
       <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46404,7 +46396,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46433,7 +46425,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46542,7 +46534,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46653,7 +46645,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46766,7 +46758,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46792,14 +46784,14 @@
         <v>426</v>
       </c>
       <c r="K388" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="L388" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="L388" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
@@ -46848,7 +46840,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46877,7 +46869,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46903,14 +46895,14 @@
         <v>126</v>
       </c>
       <c r="K389" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="L389" t="s" s="2">
         <v>1004</v>
-      </c>
-      <c r="L389" t="s" s="2">
-        <v>1005</v>
       </c>
       <c r="M389" s="2"/>
       <c r="N389" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
@@ -46938,11 +46930,11 @@
         <v>174</v>
       </c>
       <c r="X389" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="Y389" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="Y389" t="s" s="2">
-        <v>1008</v>
-      </c>
       <c r="Z389" t="s" s="2">
         <v>43</v>
       </c>
@@ -46959,7 +46951,7 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
@@ -46988,7 +46980,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47014,14 +47006,14 @@
         <v>52</v>
       </c>
       <c r="K390" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="L390" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="L390" t="s" s="2">
-        <v>1011</v>
       </c>
       <c r="M390" s="2"/>
       <c r="N390" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47070,7 +47062,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -47099,7 +47091,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47125,16 +47117,16 @@
         <v>180</v>
       </c>
       <c r="K391" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="L391" t="s" s="2">
         <v>1014</v>
       </c>
-      <c r="L391" t="s" s="2">
+      <c r="M391" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="M391" t="s" s="2">
+      <c r="N391" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="N391" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47183,7 +47175,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47212,7 +47204,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47238,16 +47230,16 @@
         <v>207</v>
       </c>
       <c r="K392" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="L392" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="L392" t="s" s="2">
+      <c r="M392" t="s" s="2">
         <v>1020</v>
       </c>
-      <c r="M392" t="s" s="2">
+      <c r="N392" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="N392" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47296,7 +47288,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47325,7 +47317,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47351,10 +47343,10 @@
         <v>317</v>
       </c>
       <c r="K393" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="L393" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="L393" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" s="2"/>
@@ -47405,7 +47397,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47434,7 +47426,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47543,7 +47535,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47654,7 +47646,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47767,7 +47759,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47802,7 +47794,7 @@
         <v>685</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O397" t="s" s="2">
         <v>43</v>
@@ -47851,7 +47843,7 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AF397" t="s" s="2">
         <v>50</v>
@@ -47880,7 +47872,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47906,14 +47898,14 @@
         <v>437</v>
       </c>
       <c r="K398" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="L398" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="L398" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="M398" s="2"/>
       <c r="N398" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="O398" t="s" s="2">
         <v>43</v>
@@ -47962,7 +47954,7 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
@@ -47991,7 +47983,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48017,16 +48009,16 @@
         <v>52</v>
       </c>
       <c r="K399" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="L399" t="s" s="2">
         <v>1036</v>
       </c>
-      <c r="L399" t="s" s="2">
+      <c r="M399" t="s" s="2">
         <v>1037</v>
       </c>
-      <c r="M399" t="s" s="2">
+      <c r="N399" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="N399" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -48075,7 +48067,7 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
@@ -48104,7 +48096,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48130,16 +48122,16 @@
         <v>52</v>
       </c>
       <c r="K400" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L400" t="s" s="2">
         <v>1041</v>
       </c>
-      <c r="L400" t="s" s="2">
+      <c r="M400" t="s" s="2">
         <v>1042</v>
       </c>
-      <c r="M400" t="s" s="2">
+      <c r="N400" t="s" s="2">
         <v>1043</v>
-      </c>
-      <c r="N400" t="s" s="2">
-        <v>1044</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48188,7 +48180,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>41</v>
@@ -48217,7 +48209,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48243,14 +48235,14 @@
         <v>180</v>
       </c>
       <c r="K401" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="L401" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="L401" t="s" s="2">
-        <v>1047</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48278,11 +48270,11 @@
         <v>116</v>
       </c>
       <c r="X401" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="Y401" t="s" s="2">
         <v>1049</v>
       </c>
-      <c r="Y401" t="s" s="2">
-        <v>1050</v>
-      </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
       </c>
@@ -48299,7 +48291,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48328,7 +48320,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48354,14 +48346,14 @@
         <v>180</v>
       </c>
       <c r="K402" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="L402" t="s" s="2">
         <v>1052</v>
-      </c>
-      <c r="L402" t="s" s="2">
-        <v>1053</v>
       </c>
       <c r="M402" s="2"/>
       <c r="N402" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48389,11 +48381,11 @@
         <v>116</v>
       </c>
       <c r="X402" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="Y402" t="s" s="2">
         <v>1055</v>
       </c>
-      <c r="Y402" t="s" s="2">
-        <v>1056</v>
-      </c>
       <c r="Z402" t="s" s="2">
         <v>43</v>
       </c>
@@ -48410,7 +48402,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48439,7 +48431,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48465,14 +48457,14 @@
         <v>180</v>
       </c>
       <c r="K403" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="L403" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="L403" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="M403" s="2"/>
       <c r="N403" t="s" s="2">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48500,11 +48492,11 @@
         <v>116</v>
       </c>
       <c r="X403" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="Y403" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="Y403" t="s" s="2">
-        <v>1061</v>
-      </c>
       <c r="Z403" t="s" s="2">
         <v>43</v>
       </c>
@@ -48521,7 +48513,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48550,7 +48542,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48576,10 +48568,10 @@
         <v>317</v>
       </c>
       <c r="K404" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="L404" t="s" s="2">
         <v>1063</v>
-      </c>
-      <c r="L404" t="s" s="2">
-        <v>1064</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" s="2"/>
@@ -48630,7 +48622,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48659,7 +48651,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48768,7 +48760,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48879,7 +48871,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48992,7 +48984,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49021,13 +49013,13 @@
         <v>683</v>
       </c>
       <c r="L408" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="M408" t="s" s="2">
         <v>1069</v>
       </c>
-      <c r="M408" t="s" s="2">
+      <c r="N408" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="N408" t="s" s="2">
-        <v>1071</v>
       </c>
       <c r="O408" t="s" s="2">
         <v>43</v>
@@ -49055,11 +49047,11 @@
         <v>116</v>
       </c>
       <c r="X408" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="Y408" t="s" s="2">
         <v>1072</v>
       </c>
-      <c r="Y408" t="s" s="2">
-        <v>1073</v>
-      </c>
       <c r="Z408" t="s" s="2">
         <v>43</v>
       </c>
@@ -49076,7 +49068,7 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AF408" t="s" s="2">
         <v>50</v>
@@ -49105,7 +49097,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49128,17 +49120,17 @@
         <v>43</v>
       </c>
       <c r="J409" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="K409" t="s" s="2">
         <v>1075</v>
       </c>
-      <c r="K409" t="s" s="2">
+      <c r="L409" t="s" s="2">
         <v>1076</v>
-      </c>
-      <c r="L409" t="s" s="2">
-        <v>1077</v>
       </c>
       <c r="M409" s="2"/>
       <c r="N409" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O409" t="s" s="2">
         <v>43</v>
@@ -49187,7 +49179,7 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
@@ -49216,7 +49208,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49239,17 +49231,17 @@
         <v>43</v>
       </c>
       <c r="J410" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="K410" t="s" s="2">
         <v>1080</v>
       </c>
-      <c r="K410" t="s" s="2">
+      <c r="L410" t="s" s="2">
         <v>1081</v>
-      </c>
-      <c r="L410" t="s" s="2">
-        <v>1082</v>
       </c>
       <c r="M410" s="2"/>
       <c r="N410" t="s" s="2">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -49298,7 +49290,7 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AF410" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$410</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$413</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14463" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14562" uniqueCount="1088">
   <si>
     <t>Path</t>
   </si>
@@ -2897,6 +2897,23 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>adjudication-type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
@@ -3531,7 +3548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM410"/>
+  <dimension ref="A1:AM413"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -41848,11 +41865,11 @@
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F344" t="s" s="2">
         <v>42</v>
@@ -41870,14 +41887,12 @@
         <v>70</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>71</v>
+        <v>922</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M344" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="M344" s="2"/>
       <c r="N344" s="2"/>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -41914,16 +41929,14 @@
         <v>43</v>
       </c>
       <c r="AA344" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB344" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB344" s="2"/>
       <c r="AC344" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD344" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE344" t="s" s="2">
         <v>77</v>
@@ -41950,48 +41963,46 @@
         <v>43</v>
       </c>
       <c r="AM344" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="345" hidden="true">
+    <row r="345">
       <c r="A345" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="B345" s="2"/>
+        <v>921</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>924</v>
+      </c>
       <c r="C345" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F345" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G345" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H345" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I345" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>70</v>
+        <v>925</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>326</v>
+        <v>922</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M345" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N345" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="M345" s="2"/>
+      <c r="N345" s="2"/>
       <c r="O345" t="s" s="2">
         <v>43</v>
       </c>
@@ -42039,7 +42050,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>41</v>
@@ -42048,7 +42059,7 @@
         <v>42</v>
       </c>
       <c r="AH345" t="s" s="2">
-        <v>43</v>
+        <v>926</v>
       </c>
       <c r="AI345" t="s" s="2">
         <v>78</v>
@@ -42063,47 +42074,47 @@
         <v>43</v>
       </c>
       <c r="AM345" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F346" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G346" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H346" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I346" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>772</v>
+        <v>326</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>773</v>
+        <v>327</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>774</v>
+        <v>73</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>775</v>
+        <v>156</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42128,11 +42139,13 @@
         <v>43</v>
       </c>
       <c r="W346" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X346" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y346" t="s" s="2">
-        <v>776</v>
+        <v>43</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -42150,19 +42163,19 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>771</v>
+        <v>328</v>
       </c>
       <c r="AF346" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI346" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ346" t="s" s="2">
         <v>43</v>
@@ -42174,12 +42187,12 @@
         <v>43</v>
       </c>
       <c r="AM346" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42187,7 +42200,7 @@
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F347" t="s" s="2">
         <v>50</v>
@@ -42205,16 +42218,16 @@
         <v>180</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42239,13 +42252,11 @@
         <v>43</v>
       </c>
       <c r="W347" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X347" t="s" s="2">
-        <v>782</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42263,10 +42274,10 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG347" t="s" s="2">
         <v>50</v>
@@ -42292,7 +42303,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42315,19 +42326,19 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>727</v>
+        <v>180</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42352,13 +42363,13 @@
         <v>43</v>
       </c>
       <c r="W348" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X348" t="s" s="2">
-        <v>43</v>
+        <v>782</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>43</v>
+        <v>783</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42376,7 +42387,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42405,7 +42416,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42428,19 +42439,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42489,7 +42500,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42516,13 +42527,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="B350" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
         <v>43</v>
       </c>
@@ -42531,10 +42540,10 @@
         <v>41</v>
       </c>
       <c r="F350" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G350" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H350" t="s" s="2">
         <v>43</v>
@@ -42543,17 +42552,19 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>317</v>
+        <v>732</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="M350" s="2"/>
+        <v>791</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>792</v>
+      </c>
       <c r="N350" t="s" s="2">
-        <v>918</v>
+        <v>793</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42602,13 +42613,13 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>915</v>
+        <v>789</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>43</v>
@@ -42629,11 +42640,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="351" hidden="true">
+    <row r="351">
       <c r="A351" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="B351" s="2"/>
+        <v>915</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>794</v>
+      </c>
       <c r="C351" t="s" s="2">
         <v>43</v>
       </c>
@@ -42642,10 +42655,10 @@
         <v>41</v>
       </c>
       <c r="F351" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G351" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H351" t="s" s="2">
         <v>43</v>
@@ -42654,16 +42667,18 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>64</v>
+        <v>795</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>65</v>
+        <v>917</v>
       </c>
       <c r="M351" s="2"/>
-      <c r="N351" s="2"/>
+      <c r="N351" t="s" s="2">
+        <v>918</v>
+      </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
       </c>
@@ -42711,19 +42726,19 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>66</v>
+        <v>915</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI351" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ351" t="s" s="2">
         <v>43</v>
@@ -42735,23 +42750,23 @@
         <v>43</v>
       </c>
       <c r="AM351" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F352" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G352" t="s" s="2">
         <v>43</v>
@@ -42763,17 +42778,15 @@
         <v>43</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M352" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M352" s="2"/>
       <c r="N352" s="2"/>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42822,19 +42835,19 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>43</v>
@@ -42851,15 +42864,15 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F353" t="s" s="2">
         <v>42</v>
@@ -42868,26 +42881,22 @@
         <v>43</v>
       </c>
       <c r="H353" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I353" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J353" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>326</v>
+        <v>922</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M353" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="M353" s="2"/>
+      <c r="N353" s="2"/>
       <c r="O353" t="s" s="2">
         <v>43</v>
       </c>
@@ -42923,19 +42932,17 @@
         <v>43</v>
       </c>
       <c r="AA353" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB353" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB353" s="2"/>
       <c r="AC353" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD353" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42959,14 +42966,16 @@
         <v>43</v>
       </c>
       <c r="AM353" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="354" hidden="true">
+    <row r="354">
       <c r="A354" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="B354" s="2"/>
+        <v>921</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>924</v>
+      </c>
       <c r="C354" t="s" s="2">
         <v>43</v>
       </c>
@@ -42978,7 +42987,7 @@
         <v>50</v>
       </c>
       <c r="G354" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H354" t="s" s="2">
         <v>43</v>
@@ -42987,20 +42996,16 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>180</v>
+        <v>925</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>772</v>
+        <v>922</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="M354" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>775</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="M354" s="2"/>
+      <c r="N354" s="2"/>
       <c r="O354" t="s" s="2">
         <v>43</v>
       </c>
@@ -43024,11 +43029,13 @@
         <v>43</v>
       </c>
       <c r="W354" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X354" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X354" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y354" t="s" s="2">
-        <v>796</v>
+        <v>43</v>
       </c>
       <c r="Z354" t="s" s="2">
         <v>43</v>
@@ -43046,19 +43053,19 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>771</v>
+        <v>77</v>
       </c>
       <c r="AF354" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>43</v>
+        <v>926</v>
       </c>
       <c r="AI354" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ354" t="s" s="2">
         <v>43</v>
@@ -43075,42 +43082,42 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F355" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H355" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I355" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>778</v>
+        <v>326</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>779</v>
+        <v>327</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>780</v>
+        <v>73</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>781</v>
+        <v>156</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43135,13 +43142,13 @@
         <v>43</v>
       </c>
       <c r="W355" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X355" t="s" s="2">
-        <v>782</v>
+        <v>43</v>
       </c>
       <c r="Y355" t="s" s="2">
-        <v>783</v>
+        <v>43</v>
       </c>
       <c r="Z355" t="s" s="2">
         <v>43</v>
@@ -43159,19 +43166,19 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>777</v>
+        <v>328</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI355" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ355" t="s" s="2">
         <v>43</v>
@@ -43183,12 +43190,12 @@
         <v>43</v>
       </c>
       <c r="AM355" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43211,19 +43218,19 @@
         <v>43</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>727</v>
+        <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43248,13 +43255,11 @@
         <v>43</v>
       </c>
       <c r="W356" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X356" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X356" s="2"/>
       <c r="Y356" t="s" s="2">
-        <v>43</v>
+        <v>796</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43272,10 +43277,10 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG356" t="s" s="2">
         <v>50</v>
@@ -43301,7 +43306,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43324,19 +43329,19 @@
         <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>732</v>
+        <v>180</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43361,13 +43366,13 @@
         <v>43</v>
       </c>
       <c r="W357" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>43</v>
+        <v>782</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>43</v>
+        <v>783</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43385,7 +43390,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43412,13 +43417,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="B358" t="s" s="2">
-        <v>801</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
         <v>43</v>
       </c>
@@ -43430,7 +43433,7 @@
         <v>50</v>
       </c>
       <c r="G358" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H358" t="s" s="2">
         <v>43</v>
@@ -43439,17 +43442,19 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>317</v>
+        <v>727</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="M358" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="M358" t="s" s="2">
+        <v>787</v>
+      </c>
       <c r="N358" t="s" s="2">
-        <v>918</v>
+        <v>788</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43498,13 +43503,13 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>915</v>
+        <v>784</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>43</v>
@@ -43527,7 +43532,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43550,16 +43555,20 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>52</v>
+        <v>732</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>64</v>
+        <v>790</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M359" s="2"/>
-      <c r="N359" s="2"/>
+        <v>791</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="N359" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
       </c>
@@ -43607,7 +43616,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>66</v>
+        <v>789</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43619,7 +43628,7 @@
         <v>43</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ359" t="s" s="2">
         <v>43</v>
@@ -43631,26 +43640,28 @@
         <v>43</v>
       </c>
       <c r="AM359" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="360" hidden="true">
+    <row r="360">
       <c r="A360" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="B360" s="2"/>
+        <v>915</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>801</v>
+      </c>
       <c r="C360" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G360" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H360" t="s" s="2">
         <v>43</v>
@@ -43659,18 +43670,18 @@
         <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>71</v>
+        <v>802</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M360" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N360" s="2"/>
+        <v>917</v>
+      </c>
+      <c r="M360" s="2"/>
+      <c r="N360" t="s" s="2">
+        <v>918</v>
+      </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
       </c>
@@ -43718,7 +43729,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>77</v>
+        <v>915</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43730,7 +43741,7 @@
         <v>43</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ360" t="s" s="2">
         <v>43</v>
@@ -43742,48 +43753,44 @@
         <v>43</v>
       </c>
       <c r="AM360" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F361" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G361" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H361" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I361" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>326</v>
+        <v>64</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M361" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N361" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M361" s="2"/>
+      <c r="N361" s="2"/>
       <c r="O361" t="s" s="2">
         <v>43</v>
       </c>
@@ -43831,19 +43838,19 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>328</v>
+        <v>66</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>43</v>
@@ -43855,12 +43862,12 @@
         <v>43</v>
       </c>
       <c r="AM361" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43871,7 +43878,7 @@
         <v>50</v>
       </c>
       <c r="F362" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G362" t="s" s="2">
         <v>43</v>
@@ -43883,20 +43890,16 @@
         <v>43</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>772</v>
+        <v>922</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="M362" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>775</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="M362" s="2"/>
+      <c r="N362" s="2"/>
       <c r="O362" t="s" s="2">
         <v>43</v>
       </c>
@@ -43920,41 +43923,41 @@
         <v>43</v>
       </c>
       <c r="W362" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X362" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y362" t="s" s="2">
-        <v>803</v>
+        <v>43</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB362" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB362" s="2"/>
       <c r="AC362" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD362" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>771</v>
+        <v>77</v>
       </c>
       <c r="AF362" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI362" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ362" t="s" s="2">
         <v>43</v>
@@ -43969,23 +43972,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="363" hidden="true">
+    <row r="363">
       <c r="A363" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="B363" t="s" s="2">
         <v>924</v>
       </c>
-      <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F363" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G363" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H363" t="s" s="2">
         <v>43</v>
@@ -43994,20 +43999,16 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>180</v>
+        <v>925</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>778</v>
+        <v>922</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="M363" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="N363" t="s" s="2">
-        <v>781</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="M363" s="2"/>
+      <c r="N363" s="2"/>
       <c r="O363" t="s" s="2">
         <v>43</v>
       </c>
@@ -44031,13 +44032,13 @@
         <v>43</v>
       </c>
       <c r="W363" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X363" t="s" s="2">
-        <v>782</v>
+        <v>43</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>783</v>
+        <v>43</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44055,19 +44056,19 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>777</v>
+        <v>77</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH363" t="s" s="2">
-        <v>43</v>
+        <v>926</v>
       </c>
       <c r="AI363" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ363" t="s" s="2">
         <v>43</v>
@@ -44084,42 +44085,42 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F364" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G364" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H364" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I364" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>785</v>
+        <v>326</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>786</v>
+        <v>327</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>787</v>
+        <v>73</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>788</v>
+        <v>156</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44168,19 +44169,19 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>784</v>
+        <v>328</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI364" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ364" t="s" s="2">
         <v>43</v>
@@ -44192,12 +44193,12 @@
         <v>43</v>
       </c>
       <c r="AM364" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44205,7 +44206,7 @@
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F365" t="s" s="2">
         <v>50</v>
@@ -44220,19 +44221,19 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>732</v>
+        <v>180</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44257,13 +44258,11 @@
         <v>43</v>
       </c>
       <c r="W365" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X365" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X365" s="2"/>
       <c r="Y365" t="s" s="2">
-        <v>43</v>
+        <v>803</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44281,10 +44280,10 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="AF365" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG365" t="s" s="2">
         <v>50</v>
@@ -44310,7 +44309,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44321,7 +44320,7 @@
         <v>41</v>
       </c>
       <c r="F366" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G366" t="s" s="2">
         <v>43</v>
@@ -44330,22 +44329,22 @@
         <v>43</v>
       </c>
       <c r="I366" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>928</v>
+        <v>778</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>929</v>
+        <v>779</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>930</v>
+        <v>780</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>931</v>
+        <v>781</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44370,13 +44369,13 @@
         <v>43</v>
       </c>
       <c r="W366" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X366" t="s" s="2">
-        <v>43</v>
+        <v>782</v>
       </c>
       <c r="Y366" t="s" s="2">
-        <v>43</v>
+        <v>783</v>
       </c>
       <c r="Z366" t="s" s="2">
         <v>43</v>
@@ -44394,13 +44393,13 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>927</v>
+        <v>777</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>43</v>
@@ -44423,7 +44422,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44446,16 +44445,20 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>52</v>
+        <v>727</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>64</v>
+        <v>785</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M367" s="2"/>
-      <c r="N367" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N367" t="s" s="2">
+        <v>788</v>
+      </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
       </c>
@@ -44503,7 +44506,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>66</v>
+        <v>784</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
@@ -44515,7 +44518,7 @@
         <v>43</v>
       </c>
       <c r="AI367" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ367" t="s" s="2">
         <v>43</v>
@@ -44527,23 +44530,23 @@
         <v>43</v>
       </c>
       <c r="AM367" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F368" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G368" t="s" s="2">
         <v>43</v>
@@ -44555,18 +44558,20 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>70</v>
+        <v>732</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>71</v>
+        <v>790</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>72</v>
+        <v>791</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N368" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
       </c>
@@ -44614,19 +44619,19 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>77</v>
+        <v>789</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI368" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ368" t="s" s="2">
         <v>43</v>
@@ -44638,16 +44643,16 @@
         <v>43</v>
       </c>
       <c r="AM368" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
@@ -44660,25 +44665,25 @@
         <v>43</v>
       </c>
       <c r="H369" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I369" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>326</v>
+        <v>933</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>327</v>
+        <v>934</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>73</v>
+        <v>935</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>156</v>
+        <v>936</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44727,7 +44732,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>328</v>
+        <v>932</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44739,7 +44744,7 @@
         <v>43</v>
       </c>
       <c r="AI369" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ369" t="s" s="2">
         <v>43</v>
@@ -44751,12 +44756,12 @@
         <v>43</v>
       </c>
       <c r="AM369" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44764,7 +44769,7 @@
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F370" t="s" s="2">
         <v>50</v>
@@ -44776,23 +44781,19 @@
         <v>43</v>
       </c>
       <c r="I370" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J370" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>772</v>
+        <v>64</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="M370" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="N370" t="s" s="2">
-        <v>937</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M370" s="2"/>
+      <c r="N370" s="2"/>
       <c r="O370" t="s" s="2">
         <v>43</v>
       </c>
@@ -44816,11 +44817,13 @@
         <v>43</v>
       </c>
       <c r="W370" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X370" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y370" t="s" s="2">
-        <v>938</v>
+        <v>43</v>
       </c>
       <c r="Z370" t="s" s="2">
         <v>43</v>
@@ -44838,10 +44841,10 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>935</v>
+        <v>66</v>
       </c>
       <c r="AF370" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG370" t="s" s="2">
         <v>50</v>
@@ -44850,7 +44853,7 @@
         <v>43</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ370" t="s" s="2">
         <v>43</v>
@@ -44862,23 +44865,23 @@
         <v>43</v>
       </c>
       <c r="AM370" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F371" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G371" t="s" s="2">
         <v>43</v>
@@ -44887,21 +44890,21 @@
         <v>43</v>
       </c>
       <c r="I371" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>940</v>
+        <v>71</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="M371" s="2"/>
-      <c r="N371" t="s" s="2">
-        <v>942</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N371" s="2"/>
       <c r="O371" t="s" s="2">
         <v>43</v>
       </c>
@@ -44949,69 +44952,71 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL371" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM371" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="372" hidden="true">
+      <c r="A372" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="AF371" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG371" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH371" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI371" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ371" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK371" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL371" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM371" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F372" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H372" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H372" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I372" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J372" t="s" s="2">
-        <v>317</v>
+        <v>70</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>944</v>
+        <v>326</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="M372" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N372" t="s" s="2">
-        <v>946</v>
+        <v>156</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45060,19 +45065,19 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>943</v>
+        <v>328</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI372" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ372" t="s" s="2">
         <v>43</v>
@@ -45084,12 +45089,12 @@
         <v>43</v>
       </c>
       <c r="AM372" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45097,7 +45102,7 @@
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F373" t="s" s="2">
         <v>50</v>
@@ -45109,19 +45114,23 @@
         <v>43</v>
       </c>
       <c r="I373" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J373" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>64</v>
+        <v>772</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M373" s="2"/>
-      <c r="N373" s="2"/>
+        <v>941</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N373" t="s" s="2">
+        <v>942</v>
+      </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
       </c>
@@ -45145,13 +45154,11 @@
         <v>43</v>
       </c>
       <c r="W373" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X373" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X373" s="2"/>
       <c r="Y373" t="s" s="2">
-        <v>43</v>
+        <v>943</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45169,10 +45176,10 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>66</v>
+        <v>940</v>
       </c>
       <c r="AF373" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG373" t="s" s="2">
         <v>50</v>
@@ -45181,7 +45188,7 @@
         <v>43</v>
       </c>
       <c r="AI373" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ373" t="s" s="2">
         <v>43</v>
@@ -45193,23 +45200,23 @@
         <v>43</v>
       </c>
       <c r="AM373" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F374" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G374" t="s" s="2">
         <v>43</v>
@@ -45218,21 +45225,21 @@
         <v>43</v>
       </c>
       <c r="I374" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>71</v>
+        <v>945</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M374" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N374" s="2"/>
+        <v>946</v>
+      </c>
+      <c r="M374" s="2"/>
+      <c r="N374" t="s" s="2">
+        <v>947</v>
+      </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
       </c>
@@ -45280,19 +45287,19 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>77</v>
+        <v>944</v>
       </c>
       <c r="AF374" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI374" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ374" t="s" s="2">
         <v>43</v>
@@ -45304,47 +45311,45 @@
         <v>43</v>
       </c>
       <c r="AM374" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="375" hidden="true">
+    <row r="375">
       <c r="A375" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F375" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G375" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H375" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I375" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>326</v>
+        <v>949</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M375" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>950</v>
+      </c>
+      <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>156</v>
+        <v>951</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45393,19 +45398,19 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>328</v>
+        <v>948</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI375" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ375" t="s" s="2">
         <v>43</v>
@@ -45417,12 +45422,12 @@
         <v>43</v>
       </c>
       <c r="AM375" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45445,18 +45450,16 @@
         <v>43</v>
       </c>
       <c r="J376" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>951</v>
+        <v>64</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>952</v>
+        <v>65</v>
       </c>
       <c r="M376" s="2"/>
-      <c r="N376" t="s" s="2">
-        <v>953</v>
-      </c>
+      <c r="N376" s="2"/>
       <c r="O376" t="s" s="2">
         <v>43</v>
       </c>
@@ -45480,11 +45483,13 @@
         <v>43</v>
       </c>
       <c r="W376" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X376" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y376" t="s" s="2">
-        <v>954</v>
+        <v>43</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45502,7 +45507,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>950</v>
+        <v>66</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45514,7 +45519,7 @@
         <v>43</v>
       </c>
       <c r="AI376" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ376" t="s" s="2">
         <v>43</v>
@@ -45526,23 +45531,23 @@
         <v>43</v>
       </c>
       <c r="AM376" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F377" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G377" t="s" s="2">
         <v>43</v>
@@ -45554,20 +45559,18 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>956</v>
+        <v>71</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>957</v>
+        <v>72</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="N377" t="s" s="2">
-        <v>959</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N377" s="2"/>
       <c r="O377" t="s" s="2">
         <v>43</v>
       </c>
@@ -45615,19 +45618,19 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>955</v>
+        <v>77</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI377" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ377" t="s" s="2">
         <v>43</v>
@@ -45639,45 +45642,47 @@
         <v>43</v>
       </c>
       <c r="AM377" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F378" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G378" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H378" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I378" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>961</v>
+        <v>326</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>962</v>
-      </c>
-      <c r="M378" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N378" t="s" s="2">
-        <v>963</v>
+        <v>156</v>
       </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
@@ -45702,11 +45707,13 @@
         <v>43</v>
       </c>
       <c r="W378" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X378" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y378" t="s" s="2">
-        <v>964</v>
+        <v>43</v>
       </c>
       <c r="Z378" t="s" s="2">
         <v>43</v>
@@ -45724,19 +45731,19 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>960</v>
+        <v>328</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI378" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ378" t="s" s="2">
         <v>43</v>
@@ -45748,12 +45755,12 @@
         <v>43</v>
       </c>
       <c r="AM378" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45776,17 +45783,17 @@
         <v>43</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>633</v>
+        <v>180</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45811,13 +45818,11 @@
         <v>43</v>
       </c>
       <c r="W379" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X379" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>43</v>
+        <v>959</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
@@ -45835,7 +45840,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45864,7 +45869,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45890,14 +45895,16 @@
         <v>727</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>971</v>
-      </c>
-      <c r="M380" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>963</v>
+      </c>
       <c r="N380" t="s" s="2">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45946,7 +45953,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45975,7 +45982,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45998,19 +46005,17 @@
         <v>43</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="M381" t="s" s="2">
-        <v>976</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46035,13 +46040,11 @@
         <v>43</v>
       </c>
       <c r="W381" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X381" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X381" s="2"/>
       <c r="Y381" t="s" s="2">
-        <v>43</v>
+        <v>969</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46059,7 +46062,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46088,7 +46091,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46111,19 +46114,17 @@
         <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>180</v>
+        <v>633</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>980</v>
-      </c>
-      <c r="M382" t="s" s="2">
-        <v>981</v>
-      </c>
+        <v>972</v>
+      </c>
+      <c r="M382" s="2"/>
       <c r="N382" t="s" s="2">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46148,13 +46149,13 @@
         <v>43</v>
       </c>
       <c r="W382" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X382" t="s" s="2">
-        <v>983</v>
+        <v>43</v>
       </c>
       <c r="Y382" t="s" s="2">
-        <v>984</v>
+        <v>43</v>
       </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
@@ -46172,7 +46173,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46201,7 +46202,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46224,19 +46225,17 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>986</v>
+        <v>727</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="M383" t="s" s="2">
-        <v>989</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46285,7 +46284,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46314,7 +46313,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46325,7 +46324,7 @@
         <v>41</v>
       </c>
       <c r="F384" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G384" t="s" s="2">
         <v>43</v>
@@ -46337,17 +46336,19 @@
         <v>43</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>993</v>
-      </c>
-      <c r="M384" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>981</v>
+      </c>
       <c r="N384" t="s" s="2">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46396,13 +46397,13 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>43</v>
@@ -46425,7 +46426,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46448,16 +46449,20 @@
         <v>43</v>
       </c>
       <c r="J385" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>64</v>
+        <v>984</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M385" s="2"/>
-      <c r="N385" s="2"/>
+        <v>985</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>987</v>
+      </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
       </c>
@@ -46481,13 +46486,13 @@
         <v>43</v>
       </c>
       <c r="W385" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X385" t="s" s="2">
-        <v>43</v>
+        <v>988</v>
       </c>
       <c r="Y385" t="s" s="2">
-        <v>43</v>
+        <v>989</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46505,7 +46510,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>66</v>
+        <v>983</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46517,7 +46522,7 @@
         <v>43</v>
       </c>
       <c r="AI385" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ385" t="s" s="2">
         <v>43</v>
@@ -46529,23 +46534,23 @@
         <v>43</v>
       </c>
       <c r="AM385" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F386" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G386" t="s" s="2">
         <v>43</v>
@@ -46557,18 +46562,20 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>70</v>
+        <v>991</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>71</v>
+        <v>992</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>72</v>
+        <v>993</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N386" s="2"/>
+        <v>994</v>
+      </c>
+      <c r="N386" t="s" s="2">
+        <v>995</v>
+      </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
       </c>
@@ -46616,19 +46623,19 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>77</v>
+        <v>990</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI386" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ386" t="s" s="2">
         <v>43</v>
@@ -46640,16 +46647,16 @@
         <v>43</v>
       </c>
       <c r="AM386" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
@@ -46662,25 +46669,23 @@
         <v>43</v>
       </c>
       <c r="H387" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I387" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J387" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>326</v>
+        <v>997</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M387" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>998</v>
+      </c>
+      <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>156</v>
+        <v>999</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46729,7 +46734,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>328</v>
+        <v>996</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46741,7 +46746,7 @@
         <v>43</v>
       </c>
       <c r="AI387" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ387" t="s" s="2">
         <v>43</v>
@@ -46753,12 +46758,12 @@
         <v>43</v>
       </c>
       <c r="AM387" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46781,18 +46786,16 @@
         <v>43</v>
       </c>
       <c r="J388" t="s" s="2">
-        <v>426</v>
+        <v>52</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>999</v>
+        <v>64</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="M388" s="2"/>
-      <c r="N388" t="s" s="2">
-        <v>1001</v>
-      </c>
+      <c r="N388" s="2"/>
       <c r="O388" t="s" s="2">
         <v>43</v>
       </c>
@@ -46840,7 +46843,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>998</v>
+        <v>66</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46852,7 +46855,7 @@
         <v>43</v>
       </c>
       <c r="AI388" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ388" t="s" s="2">
         <v>43</v>
@@ -46864,23 +46867,23 @@
         <v>43</v>
       </c>
       <c r="AM388" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F389" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G389" t="s" s="2">
         <v>43</v>
@@ -46892,18 +46895,18 @@
         <v>43</v>
       </c>
       <c r="J389" t="s" s="2">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>1003</v>
+        <v>71</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>1004</v>
-      </c>
-      <c r="M389" s="2"/>
-      <c r="N389" t="s" s="2">
-        <v>1005</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M389" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N389" s="2"/>
       <c r="O389" t="s" s="2">
         <v>43</v>
       </c>
@@ -46927,13 +46930,13 @@
         <v>43</v>
       </c>
       <c r="W389" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X389" t="s" s="2">
-        <v>1006</v>
+        <v>43</v>
       </c>
       <c r="Y389" t="s" s="2">
-        <v>1007</v>
+        <v>43</v>
       </c>
       <c r="Z389" t="s" s="2">
         <v>43</v>
@@ -46951,19 +46954,19 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>1002</v>
+        <v>77</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>43</v>
@@ -46975,45 +46978,47 @@
         <v>43</v>
       </c>
       <c r="AM389" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F390" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G390" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H390" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I390" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J390" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>1009</v>
+        <v>326</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>1010</v>
-      </c>
-      <c r="M390" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M390" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N390" t="s" s="2">
-        <v>1011</v>
+        <v>156</v>
       </c>
       <c r="O390" t="s" s="2">
         <v>43</v>
@@ -47062,19 +47067,19 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>1008</v>
+        <v>328</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI390" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ390" t="s" s="2">
         <v>43</v>
@@ -47086,12 +47091,12 @@
         <v>43</v>
       </c>
       <c r="AM390" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47114,19 +47119,17 @@
         <v>43</v>
       </c>
       <c r="J391" t="s" s="2">
-        <v>180</v>
+        <v>426</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1014</v>
-      </c>
-      <c r="M391" t="s" s="2">
-        <v>1015</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47151,13 +47154,13 @@
         <v>43</v>
       </c>
       <c r="W391" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X391" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y391" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z391" t="s" s="2">
         <v>43</v>
@@ -47175,7 +47178,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47204,7 +47207,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47227,19 +47230,17 @@
         <v>43</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="M392" t="s" s="2">
-        <v>1020</v>
-      </c>
+        <v>1009</v>
+      </c>
+      <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47264,13 +47265,13 @@
         <v>43</v>
       </c>
       <c r="W392" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X392" t="s" s="2">
-        <v>43</v>
+        <v>1011</v>
       </c>
       <c r="Y392" t="s" s="2">
-        <v>43</v>
+        <v>1012</v>
       </c>
       <c r="Z392" t="s" s="2">
         <v>43</v>
@@ -47288,7 +47289,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47317,7 +47318,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47328,7 +47329,7 @@
         <v>41</v>
       </c>
       <c r="F393" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G393" t="s" s="2">
         <v>43</v>
@@ -47340,16 +47341,18 @@
         <v>43</v>
       </c>
       <c r="J393" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="M393" s="2"/>
-      <c r="N393" s="2"/>
+      <c r="N393" t="s" s="2">
+        <v>1016</v>
+      </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
       </c>
@@ -47397,13 +47400,13 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>43</v>
@@ -47426,7 +47429,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47449,16 +47452,20 @@
         <v>43</v>
       </c>
       <c r="J394" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>64</v>
+        <v>1018</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M394" s="2"/>
-      <c r="N394" s="2"/>
+        <v>1019</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>1021</v>
+      </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
       </c>
@@ -47482,13 +47489,13 @@
         <v>43</v>
       </c>
       <c r="W394" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X394" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y394" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z394" t="s" s="2">
         <v>43</v>
@@ -47506,7 +47513,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>66</v>
+        <v>1017</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47518,7 +47525,7 @@
         <v>43</v>
       </c>
       <c r="AI394" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ394" t="s" s="2">
         <v>43</v>
@@ -47530,23 +47537,23 @@
         <v>43</v>
       </c>
       <c r="AM394" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F395" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G395" t="s" s="2">
         <v>43</v>
@@ -47558,18 +47565,20 @@
         <v>43</v>
       </c>
       <c r="J395" t="s" s="2">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>71</v>
+        <v>1023</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>72</v>
+        <v>1024</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N395" s="2"/>
+        <v>1025</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>1026</v>
+      </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
       </c>
@@ -47617,19 +47626,19 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>77</v>
+        <v>1022</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI395" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ395" t="s" s="2">
         <v>43</v>
@@ -47641,7 +47650,7 @@
         <v>43</v>
       </c>
       <c r="AM395" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="396" hidden="true">
@@ -47650,7 +47659,7 @@
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -47663,26 +47672,22 @@
         <v>43</v>
       </c>
       <c r="H396" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I396" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J396" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>326</v>
+        <v>1028</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M396" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N396" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>1029</v>
+      </c>
+      <c r="M396" s="2"/>
+      <c r="N396" s="2"/>
       <c r="O396" t="s" s="2">
         <v>43</v>
       </c>
@@ -47730,7 +47735,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>328</v>
+        <v>1027</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47742,7 +47747,7 @@
         <v>43</v>
       </c>
       <c r="AI396" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ396" t="s" s="2">
         <v>43</v>
@@ -47754,12 +47759,12 @@
         <v>43</v>
       </c>
       <c r="AM396" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47767,7 +47772,7 @@
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F397" t="s" s="2">
         <v>50</v>
@@ -47782,20 +47787,16 @@
         <v>43</v>
       </c>
       <c r="J397" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K397" t="s" s="2">
-        <v>683</v>
+        <v>64</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M397" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N397" t="s" s="2">
-        <v>1029</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M397" s="2"/>
+      <c r="N397" s="2"/>
       <c r="O397" t="s" s="2">
         <v>43</v>
       </c>
@@ -47819,13 +47820,13 @@
         <v>43</v>
       </c>
       <c r="W397" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X397" t="s" s="2">
-        <v>687</v>
+        <v>43</v>
       </c>
       <c r="Y397" t="s" s="2">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="Z397" t="s" s="2">
         <v>43</v>
@@ -47843,10 +47844,10 @@
         <v>43</v>
       </c>
       <c r="AE397" t="s" s="2">
-        <v>1028</v>
+        <v>66</v>
       </c>
       <c r="AF397" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG397" t="s" s="2">
         <v>50</v>
@@ -47855,7 +47856,7 @@
         <v>43</v>
       </c>
       <c r="AI397" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ397" t="s" s="2">
         <v>43</v>
@@ -47867,23 +47868,23 @@
         <v>43</v>
       </c>
       <c r="AM397" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F398" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G398" t="s" s="2">
         <v>43</v>
@@ -47895,18 +47896,18 @@
         <v>43</v>
       </c>
       <c r="J398" t="s" s="2">
-        <v>437</v>
+        <v>70</v>
       </c>
       <c r="K398" t="s" s="2">
-        <v>1031</v>
+        <v>71</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="M398" s="2"/>
-      <c r="N398" t="s" s="2">
-        <v>1033</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N398" s="2"/>
       <c r="O398" t="s" s="2">
         <v>43</v>
       </c>
@@ -47954,19 +47955,19 @@
         <v>43</v>
       </c>
       <c r="AE398" t="s" s="2">
-        <v>1030</v>
+        <v>77</v>
       </c>
       <c r="AF398" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI398" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ398" t="s" s="2">
         <v>43</v>
@@ -47978,47 +47979,47 @@
         <v>43</v>
       </c>
       <c r="AM398" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F399" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H399" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I399" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J399" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K399" t="s" s="2">
-        <v>1035</v>
+        <v>326</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>1036</v>
+        <v>327</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1037</v>
+        <v>73</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1038</v>
+        <v>156</v>
       </c>
       <c r="O399" t="s" s="2">
         <v>43</v>
@@ -48067,19 +48068,19 @@
         <v>43</v>
       </c>
       <c r="AE399" t="s" s="2">
-        <v>1034</v>
+        <v>328</v>
       </c>
       <c r="AF399" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI399" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ399" t="s" s="2">
         <v>43</v>
@@ -48091,12 +48092,12 @@
         <v>43</v>
       </c>
       <c r="AM399" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48104,7 +48105,7 @@
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F400" t="s" s="2">
         <v>50</v>
@@ -48119,19 +48120,19 @@
         <v>43</v>
       </c>
       <c r="J400" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>1040</v>
+        <v>683</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>1041</v>
+        <v>684</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>1042</v>
+        <v>685</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48156,13 +48157,13 @@
         <v>43</v>
       </c>
       <c r="W400" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X400" t="s" s="2">
-        <v>43</v>
+        <v>687</v>
       </c>
       <c r="Y400" t="s" s="2">
-        <v>43</v>
+        <v>688</v>
       </c>
       <c r="Z400" t="s" s="2">
         <v>43</v>
@@ -48180,10 +48181,10 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="AF400" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG400" t="s" s="2">
         <v>50</v>
@@ -48209,7 +48210,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48232,17 +48233,17 @@
         <v>43</v>
       </c>
       <c r="J401" t="s" s="2">
-        <v>180</v>
+        <v>437</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48267,13 +48268,13 @@
         <v>43</v>
       </c>
       <c r="W401" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X401" t="s" s="2">
-        <v>1048</v>
+        <v>43</v>
       </c>
       <c r="Y401" t="s" s="2">
-        <v>1049</v>
+        <v>43</v>
       </c>
       <c r="Z401" t="s" s="2">
         <v>43</v>
@@ -48291,7 +48292,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48320,7 +48321,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48343,17 +48344,19 @@
         <v>43</v>
       </c>
       <c r="J402" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1052</v>
-      </c>
-      <c r="M402" s="2"/>
+        <v>1041</v>
+      </c>
+      <c r="M402" t="s" s="2">
+        <v>1042</v>
+      </c>
       <c r="N402" t="s" s="2">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48378,13 +48381,13 @@
         <v>43</v>
       </c>
       <c r="W402" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X402" t="s" s="2">
-        <v>1054</v>
+        <v>43</v>
       </c>
       <c r="Y402" t="s" s="2">
-        <v>1055</v>
+        <v>43</v>
       </c>
       <c r="Z402" t="s" s="2">
         <v>43</v>
@@ -48402,7 +48405,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48431,7 +48434,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48454,17 +48457,19 @@
         <v>43</v>
       </c>
       <c r="J403" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1058</v>
-      </c>
-      <c r="M403" s="2"/>
+        <v>1046</v>
+      </c>
+      <c r="M403" t="s" s="2">
+        <v>1047</v>
+      </c>
       <c r="N403" t="s" s="2">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48489,13 +48494,13 @@
         <v>43</v>
       </c>
       <c r="W403" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X403" t="s" s="2">
-        <v>1059</v>
+        <v>43</v>
       </c>
       <c r="Y403" t="s" s="2">
-        <v>1060</v>
+        <v>43</v>
       </c>
       <c r="Z403" t="s" s="2">
         <v>43</v>
@@ -48513,7 +48518,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48542,7 +48547,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48553,7 +48558,7 @@
         <v>41</v>
       </c>
       <c r="F404" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G404" t="s" s="2">
         <v>43</v>
@@ -48565,16 +48570,18 @@
         <v>43</v>
       </c>
       <c r="J404" t="s" s="2">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="M404" s="2"/>
-      <c r="N404" s="2"/>
+      <c r="N404" t="s" s="2">
+        <v>1052</v>
+      </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
       </c>
@@ -48598,13 +48605,13 @@
         <v>43</v>
       </c>
       <c r="W404" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X404" t="s" s="2">
-        <v>43</v>
+        <v>1053</v>
       </c>
       <c r="Y404" t="s" s="2">
-        <v>43</v>
+        <v>1054</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
@@ -48622,13 +48629,13 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>43</v>
@@ -48651,7 +48658,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48674,16 +48681,18 @@
         <v>43</v>
       </c>
       <c r="J405" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>64</v>
+        <v>1056</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>65</v>
+        <v>1057</v>
       </c>
       <c r="M405" s="2"/>
-      <c r="N405" s="2"/>
+      <c r="N405" t="s" s="2">
+        <v>1058</v>
+      </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
       </c>
@@ -48707,13 +48716,13 @@
         <v>43</v>
       </c>
       <c r="W405" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
-        <v>43</v>
+        <v>1059</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>43</v>
+        <v>1060</v>
       </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
@@ -48731,7 +48740,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>66</v>
+        <v>1055</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48743,7 +48752,7 @@
         <v>43</v>
       </c>
       <c r="AI405" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ405" t="s" s="2">
         <v>43</v>
@@ -48755,23 +48764,23 @@
         <v>43</v>
       </c>
       <c r="AM405" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F406" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G406" t="s" s="2">
         <v>43</v>
@@ -48783,18 +48792,18 @@
         <v>43</v>
       </c>
       <c r="J406" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>71</v>
+        <v>1062</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M406" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N406" s="2"/>
+        <v>1063</v>
+      </c>
+      <c r="M406" s="2"/>
+      <c r="N406" t="s" s="2">
+        <v>1058</v>
+      </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
       </c>
@@ -48818,13 +48827,13 @@
         <v>43</v>
       </c>
       <c r="W406" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X406" t="s" s="2">
-        <v>43</v>
+        <v>1064</v>
       </c>
       <c r="Y406" t="s" s="2">
-        <v>43</v>
+        <v>1065</v>
       </c>
       <c r="Z406" t="s" s="2">
         <v>43</v>
@@ -48842,19 +48851,19 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>77</v>
+        <v>1061</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI406" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ406" t="s" s="2">
         <v>43</v>
@@ -48866,7 +48875,7 @@
         <v>43</v>
       </c>
       <c r="AM406" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="407" hidden="true">
@@ -48875,7 +48884,7 @@
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48888,26 +48897,22 @@
         <v>43</v>
       </c>
       <c r="H407" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I407" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J407" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>326</v>
+        <v>1067</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M407" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N407" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>1068</v>
+      </c>
+      <c r="M407" s="2"/>
+      <c r="N407" s="2"/>
       <c r="O407" t="s" s="2">
         <v>43</v>
       </c>
@@ -48955,7 +48960,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>328</v>
+        <v>1066</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -48967,7 +48972,7 @@
         <v>43</v>
       </c>
       <c r="AI407" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ407" t="s" s="2">
         <v>43</v>
@@ -48979,12 +48984,12 @@
         <v>43</v>
       </c>
       <c r="AM407" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -48992,7 +48997,7 @@
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F408" t="s" s="2">
         <v>50</v>
@@ -49007,20 +49012,16 @@
         <v>43</v>
       </c>
       <c r="J408" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K408" t="s" s="2">
-        <v>683</v>
+        <v>64</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>1068</v>
-      </c>
-      <c r="M408" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="N408" t="s" s="2">
-        <v>1070</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M408" s="2"/>
+      <c r="N408" s="2"/>
       <c r="O408" t="s" s="2">
         <v>43</v>
       </c>
@@ -49044,13 +49045,13 @@
         <v>43</v>
       </c>
       <c r="W408" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X408" t="s" s="2">
-        <v>1071</v>
+        <v>43</v>
       </c>
       <c r="Y408" t="s" s="2">
-        <v>1072</v>
+        <v>43</v>
       </c>
       <c r="Z408" t="s" s="2">
         <v>43</v>
@@ -49068,10 +49069,10 @@
         <v>43</v>
       </c>
       <c r="AE408" t="s" s="2">
-        <v>1067</v>
+        <v>66</v>
       </c>
       <c r="AF408" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG408" t="s" s="2">
         <v>50</v>
@@ -49080,7 +49081,7 @@
         <v>43</v>
       </c>
       <c r="AI408" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ408" t="s" s="2">
         <v>43</v>
@@ -49092,23 +49093,23 @@
         <v>43</v>
       </c>
       <c r="AM408" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F409" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G409" t="s" s="2">
         <v>43</v>
@@ -49120,18 +49121,18 @@
         <v>43</v>
       </c>
       <c r="J409" t="s" s="2">
-        <v>1074</v>
+        <v>70</v>
       </c>
       <c r="K409" t="s" s="2">
-        <v>1075</v>
+        <v>71</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="M409" s="2"/>
-      <c r="N409" t="s" s="2">
-        <v>1077</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M409" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N409" s="2"/>
       <c r="O409" t="s" s="2">
         <v>43</v>
       </c>
@@ -49179,19 +49180,19 @@
         <v>43</v>
       </c>
       <c r="AE409" t="s" s="2">
-        <v>1073</v>
+        <v>77</v>
       </c>
       <c r="AF409" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI409" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ409" t="s" s="2">
         <v>43</v>
@@ -49203,45 +49204,47 @@
         <v>43</v>
       </c>
       <c r="AM409" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F410" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G410" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H410" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I410" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J410" t="s" s="2">
-        <v>1079</v>
+        <v>70</v>
       </c>
       <c r="K410" t="s" s="2">
-        <v>1080</v>
+        <v>326</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>1081</v>
-      </c>
-      <c r="M410" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M410" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N410" t="s" s="2">
-        <v>1082</v>
+        <v>156</v>
       </c>
       <c r="O410" t="s" s="2">
         <v>43</v>
@@ -49290,35 +49293,370 @@
         <v>43</v>
       </c>
       <c r="AE410" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF410" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG410" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI410" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL410" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM410" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="411" hidden="true">
+      <c r="A411" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B411" s="2"/>
+      <c r="C411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D411" s="2"/>
+      <c r="E411" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F411" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J411" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K411" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="L411" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="M411" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="N411" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="O411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P411" s="2"/>
+      <c r="Q411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W411" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X411" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="Y411" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="Z411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE411" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="AF411" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG411" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI411" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL411" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM411" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="412" hidden="true">
+      <c r="A412" t="s" s="2">
         <v>1078</v>
       </c>
-      <c r="AF410" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG410" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH410" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI410" t="s" s="2">
+      <c r="B412" s="2"/>
+      <c r="C412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D412" s="2"/>
+      <c r="E412" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F412" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J412" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="K412" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="L412" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="M412" s="2"/>
+      <c r="N412" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="O412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P412" s="2"/>
+      <c r="Q412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE412" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="AF412" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG412" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI412" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ410" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK410" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL410" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM410" t="s" s="2">
+      <c r="AJ412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL412" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM412" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="413" hidden="true">
+      <c r="A413" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="B413" s="2"/>
+      <c r="C413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D413" s="2"/>
+      <c r="E413" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F413" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J413" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="K413" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="L413" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="M413" s="2"/>
+      <c r="N413" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="O413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P413" s="2"/>
+      <c r="Q413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE413" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="AF413" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG413" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI413" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL413" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM413" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM410">
+  <autoFilter ref="A1:AM413">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -49328,7 +49666,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI409">
+  <conditionalFormatting sqref="A2:AI412">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14562" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14562" uniqueCount="1089">
   <si>
     <t>Path</t>
   </si>
@@ -1636,7 +1636,10 @@
     <t>dawcode</t>
   </si>
   <si>
-    <t>Dispense As Written</t>
+    <t>Dispense As Written product selection code</t>
+  </si>
+  <si>
+    <t>Dispense As Written product selection code: Prescriber's instruction regarding substitution of generic equivalents or order to dispense the specific prescribed medication.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -18248,7 +18251,7 @@
         <v>513</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>457</v>
@@ -18821,7 +18824,7 @@
         <v>43</v>
       </c>
       <c r="R137" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="S137" t="s" s="2">
         <v>43</v>
@@ -18951,7 +18954,7 @@
       </c>
       <c r="X138" s="2"/>
       <c r="Y138" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
@@ -19336,7 +19339,7 @@
         <v>454</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>43</v>
@@ -19361,7 +19364,7 @@
         <v>317</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L142" t="s" s="2">
         <v>456</v>
@@ -19937,7 +19940,7 @@
         <v>43</v>
       </c>
       <c r="R147" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="S147" t="s" s="2">
         <v>43</v>
@@ -20454,7 +20457,7 @@
         <v>454</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>43</v>
@@ -20479,7 +20482,7 @@
         <v>317</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L152" t="s" s="2">
         <v>456</v>
@@ -21055,7 +21058,7 @@
         <v>43</v>
       </c>
       <c r="R157" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="S157" t="s" s="2">
         <v>43</v>
@@ -21572,7 +21575,7 @@
         <v>454</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C162" t="s" s="2">
         <v>43</v>
@@ -21597,7 +21600,7 @@
         <v>317</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L162" t="s" s="2">
         <v>456</v>
@@ -22173,7 +22176,7 @@
         <v>43</v>
       </c>
       <c r="R167" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>43</v>
@@ -22687,7 +22690,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22713,14 +22716,14 @@
         <v>317</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22769,7 +22772,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22798,7 +22801,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22907,7 +22910,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23018,7 +23021,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23131,7 +23134,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23157,16 +23160,16 @@
         <v>426</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -23215,7 +23218,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>50</v>
@@ -23244,7 +23247,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23270,14 +23273,14 @@
         <v>180</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23305,10 +23308,10 @@
         <v>116</v>
       </c>
       <c r="X177" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Z177" t="s" s="2">
         <v>43</v>
@@ -23326,7 +23329,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>50</v>
@@ -23355,7 +23358,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23381,16 +23384,16 @@
         <v>180</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23418,10 +23421,10 @@
         <v>116</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Z178" t="s" s="2">
         <v>43</v>
@@ -23439,7 +23442,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23468,7 +23471,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23494,14 +23497,14 @@
         <v>180</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23529,10 +23532,10 @@
         <v>116</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>43</v>
@@ -23550,7 +23553,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23579,7 +23582,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23605,16 +23608,16 @@
         <v>180</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23642,10 +23645,10 @@
         <v>116</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="Z180" t="s" s="2">
         <v>43</v>
@@ -23663,7 +23666,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23692,7 +23695,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23718,14 +23721,14 @@
         <v>317</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23774,7 +23777,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23803,7 +23806,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23912,7 +23915,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24023,7 +24026,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24136,7 +24139,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24162,14 +24165,14 @@
         <v>426</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>43</v>
@@ -24218,7 +24221,7 @@
         <v>43</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>50</v>
@@ -24247,7 +24250,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24273,14 +24276,14 @@
         <v>180</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24308,10 +24311,10 @@
         <v>116</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>43</v>
@@ -24329,7 +24332,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>41</v>
@@ -24358,7 +24361,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24384,14 +24387,14 @@
         <v>270</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24440,7 +24443,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24469,7 +24472,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24495,14 +24498,14 @@
         <v>180</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24530,26 +24533,26 @@
         <v>116</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="Z188" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AA188" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AB188" s="2"/>
       <c r="AC188" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD188" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>50</v>
@@ -24578,10 +24581,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C189" t="s" s="2">
         <v>43</v>
@@ -24606,14 +24609,14 @@
         <v>180</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24642,7 +24645,7 @@
       </c>
       <c r="X189" s="2"/>
       <c r="Y189" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Z189" t="s" s="2">
         <v>43</v>
@@ -24660,7 +24663,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>50</v>
@@ -24689,7 +24692,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24712,17 +24715,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24771,7 +24774,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24800,7 +24803,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24826,14 +24829,14 @@
         <v>426</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M191" s="2"/>
       <c r="N191" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24882,7 +24885,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>41</v>
@@ -24911,7 +24914,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24937,16 +24940,16 @@
         <v>317</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24995,7 +24998,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>50</v>
@@ -25016,7 +25019,7 @@
         <v>43</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>43</v>
@@ -25024,7 +25027,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25133,7 +25136,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25244,7 +25247,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25357,7 +25360,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25383,16 +25386,16 @@
         <v>437</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25441,7 +25444,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>50</v>
@@ -25470,7 +25473,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25493,17 +25496,17 @@
         <v>51</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25552,7 +25555,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>50</v>
@@ -25581,7 +25584,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25607,16 +25610,16 @@
         <v>52</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25665,7 +25668,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25694,7 +25697,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25720,14 +25723,14 @@
         <v>317</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25776,7 +25779,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25805,7 +25808,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25914,7 +25917,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26025,7 +26028,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26138,7 +26141,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26161,19 +26164,19 @@
         <v>43</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26222,7 +26225,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26251,7 +26254,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26277,14 +26280,14 @@
         <v>180</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26312,10 +26315,10 @@
         <v>108</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="Z204" t="s" s="2">
         <v>43</v>
@@ -26333,7 +26336,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26362,7 +26365,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26385,17 +26388,17 @@
         <v>43</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26444,7 +26447,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26473,7 +26476,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26499,14 +26502,14 @@
         <v>317</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26555,7 +26558,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26584,7 +26587,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26693,7 +26696,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26804,7 +26807,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26917,7 +26920,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26943,14 +26946,14 @@
         <v>426</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26999,7 +27002,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>50</v>
@@ -27028,7 +27031,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27054,14 +27057,14 @@
         <v>426</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27110,7 +27113,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27139,7 +27142,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27165,14 +27168,14 @@
         <v>426</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27221,7 +27224,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27250,7 +27253,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27276,14 +27279,14 @@
         <v>426</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27332,7 +27335,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27361,7 +27364,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27387,14 +27390,14 @@
         <v>426</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27443,7 +27446,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27472,7 +27475,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27498,14 +27501,14 @@
         <v>180</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27533,10 +27536,10 @@
         <v>116</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Z215" t="s" s="2">
         <v>43</v>
@@ -27554,7 +27557,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27583,7 +27586,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27609,16 +27612,16 @@
         <v>180</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27646,10 +27649,10 @@
         <v>116</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>43</v>
@@ -27667,7 +27670,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27696,11 +27699,11 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27722,16 +27725,16 @@
         <v>180</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27760,7 +27763,7 @@
       </c>
       <c r="X217" s="2"/>
       <c r="Y217" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27778,7 +27781,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>50</v>
@@ -27807,7 +27810,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27833,16 +27836,16 @@
         <v>180</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27870,10 +27873,10 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27891,7 +27894,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27920,7 +27923,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27946,16 +27949,16 @@
         <v>180</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27983,10 +27986,10 @@
         <v>116</v>
       </c>
       <c r="X219" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Y219" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Z219" t="s" s="2">
         <v>43</v>
@@ -28004,7 +28007,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28033,7 +28036,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28059,14 +28062,14 @@
         <v>481</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28115,7 +28118,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28144,7 +28147,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28167,17 +28170,17 @@
         <v>43</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28205,10 +28208,10 @@
         <v>116</v>
       </c>
       <c r="X221" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Y221" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Z221" t="s" s="2">
         <v>43</v>
@@ -28226,7 +28229,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28255,7 +28258,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28278,17 +28281,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28337,7 +28340,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28366,7 +28369,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28389,17 +28392,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28448,7 +28451,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28477,7 +28480,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28500,19 +28503,19 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28561,7 +28564,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28590,7 +28593,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28613,19 +28616,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28674,7 +28677,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28703,7 +28706,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28726,17 +28729,17 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28785,7 +28788,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28814,7 +28817,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28840,16 +28843,16 @@
         <v>180</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28877,10 +28880,10 @@
         <v>116</v>
       </c>
       <c r="X227" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Y227" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Z227" t="s" s="2">
         <v>43</v>
@@ -28898,7 +28901,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28927,7 +28930,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28953,14 +28956,14 @@
         <v>180</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28988,10 +28991,10 @@
         <v>116</v>
       </c>
       <c r="X228" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Z228" t="s" s="2">
         <v>43</v>
@@ -29009,7 +29012,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29038,7 +29041,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29061,17 +29064,17 @@
         <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29120,7 +29123,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29149,7 +29152,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29175,14 +29178,14 @@
         <v>426</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
@@ -29231,7 +29234,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -29260,7 +29263,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29286,14 +29289,14 @@
         <v>317</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O231" t="s" s="2">
         <v>43</v>
@@ -29339,10 +29342,10 @@
         <v>43</v>
       </c>
       <c r="AD231" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -29371,7 +29374,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29480,7 +29483,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29591,7 +29594,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29704,7 +29707,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29730,16 +29733,16 @@
         <v>180</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29768,7 +29771,7 @@
       </c>
       <c r="X235" s="2"/>
       <c r="Y235" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z235" t="s" s="2">
         <v>43</v>
@@ -29786,7 +29789,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>50</v>
@@ -29815,7 +29818,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29841,16 +29844,16 @@
         <v>180</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29878,10 +29881,10 @@
         <v>116</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -29899,7 +29902,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29928,7 +29931,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29951,19 +29954,19 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30012,7 +30015,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30041,7 +30044,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30064,19 +30067,19 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -30125,7 +30128,7 @@
         <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
@@ -30154,10 +30157,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C239" t="s" s="2">
         <v>43</v>
@@ -30182,14 +30185,14 @@
         <v>317</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -30238,7 +30241,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30267,7 +30270,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30376,7 +30379,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30487,7 +30490,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30600,7 +30603,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30626,16 +30629,16 @@
         <v>180</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30664,7 +30667,7 @@
       </c>
       <c r="X243" s="2"/>
       <c r="Y243" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z243" t="s" s="2">
         <v>43</v>
@@ -30682,7 +30685,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>50</v>
@@ -30711,7 +30714,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30737,16 +30740,16 @@
         <v>180</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30774,10 +30777,10 @@
         <v>116</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z244" t="s" s="2">
         <v>43</v>
@@ -30795,7 +30798,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30824,7 +30827,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30847,19 +30850,19 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30908,7 +30911,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30937,7 +30940,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30960,19 +30963,19 @@
         <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -31021,7 +31024,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -31050,10 +31053,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C247" t="s" s="2">
         <v>43</v>
@@ -31078,14 +31081,14 @@
         <v>317</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -31134,7 +31137,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -31163,7 +31166,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31272,7 +31275,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31383,7 +31386,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31496,7 +31499,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31522,16 +31525,16 @@
         <v>180</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31541,7 +31544,7 @@
         <v>43</v>
       </c>
       <c r="R251" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="S251" t="s" s="2">
         <v>43</v>
@@ -31560,7 +31563,7 @@
       </c>
       <c r="X251" s="2"/>
       <c r="Y251" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31578,7 +31581,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>50</v>
@@ -31607,7 +31610,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31633,16 +31636,16 @@
         <v>180</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31671,7 +31674,7 @@
       </c>
       <c r="X252" s="2"/>
       <c r="Y252" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31689,7 +31692,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31718,7 +31721,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31741,19 +31744,19 @@
         <v>43</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31802,7 +31805,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31831,7 +31834,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31854,19 +31857,19 @@
         <v>43</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31915,7 +31918,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31944,10 +31947,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C255" t="s" s="2">
         <v>43</v>
@@ -31972,14 +31975,14 @@
         <v>317</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -32028,7 +32031,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32057,7 +32060,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32166,7 +32169,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32277,7 +32280,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32390,7 +32393,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32416,16 +32419,16 @@
         <v>180</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32454,7 +32457,7 @@
       </c>
       <c r="X259" s="2"/>
       <c r="Y259" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Z259" t="s" s="2">
         <v>43</v>
@@ -32472,7 +32475,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>50</v>
@@ -32501,7 +32504,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32527,16 +32530,16 @@
         <v>180</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32564,10 +32567,10 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y260" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
@@ -32585,7 +32588,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32614,7 +32617,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32637,19 +32640,19 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32698,7 +32701,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32727,7 +32730,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32750,19 +32753,19 @@
         <v>43</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32811,7 +32814,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32840,7 +32843,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32866,10 +32869,10 @@
         <v>317</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="M263" s="2"/>
       <c r="N263" s="2"/>
@@ -32920,7 +32923,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32949,7 +32952,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33058,7 +33061,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33169,7 +33172,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33282,7 +33285,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33308,14 +33311,14 @@
         <v>426</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33364,7 +33367,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>50</v>
@@ -33393,7 +33396,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33419,14 +33422,14 @@
         <v>180</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M268" s="2"/>
       <c r="N268" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33454,10 +33457,10 @@
         <v>116</v>
       </c>
       <c r="X268" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
@@ -33475,7 +33478,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33504,7 +33507,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33530,16 +33533,16 @@
         <v>180</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33567,10 +33570,10 @@
         <v>116</v>
       </c>
       <c r="X269" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y269" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
@@ -33588,7 +33591,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -33617,11 +33620,11 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33643,16 +33646,16 @@
         <v>180</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33681,25 +33684,25 @@
       </c>
       <c r="X270" s="2"/>
       <c r="Y270" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="Z270" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA270" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB270" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC270" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD270" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE270" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="Z270" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA270" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB270" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC270" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD270" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE270" t="s" s="2">
-        <v>815</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>50</v>
@@ -33728,7 +33731,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33754,16 +33757,16 @@
         <v>180</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33791,10 +33794,10 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33812,7 +33815,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33841,7 +33844,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33867,16 +33870,16 @@
         <v>180</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33904,10 +33907,10 @@
         <v>116</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Z272" t="s" s="2">
         <v>43</v>
@@ -33925,7 +33928,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33954,7 +33957,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33977,17 +33980,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -34036,7 +34039,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34065,7 +34068,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34088,17 +34091,17 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M274" s="2"/>
       <c r="N274" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34147,7 +34150,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34176,7 +34179,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34199,19 +34202,19 @@
         <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34260,7 +34263,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34289,7 +34292,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34312,19 +34315,19 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34373,7 +34376,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34402,7 +34405,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34425,17 +34428,17 @@
         <v>43</v>
       </c>
       <c r="J277" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34484,7 +34487,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34513,7 +34516,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34539,14 +34542,14 @@
         <v>426</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>43</v>
@@ -34595,7 +34598,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34624,7 +34627,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34650,10 +34653,10 @@
         <v>43</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -34704,7 +34707,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34733,7 +34736,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34759,10 +34762,10 @@
         <v>317</v>
       </c>
       <c r="K280" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="M280" s="2"/>
       <c r="N280" s="2"/>
@@ -34813,7 +34816,7 @@
         <v>43</v>
       </c>
       <c r="AE280" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF280" t="s" s="2">
         <v>41</v>
@@ -34842,7 +34845,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34951,7 +34954,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35062,7 +35065,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35175,7 +35178,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35201,14 +35204,14 @@
         <v>426</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35257,7 +35260,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>50</v>
@@ -35286,7 +35289,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35312,14 +35315,14 @@
         <v>180</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35347,10 +35350,10 @@
         <v>116</v>
       </c>
       <c r="X285" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="Z285" t="s" s="2">
         <v>43</v>
@@ -35368,7 +35371,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35397,7 +35400,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35423,16 +35426,16 @@
         <v>180</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35460,10 +35463,10 @@
         <v>116</v>
       </c>
       <c r="X286" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y286" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Z286" t="s" s="2">
         <v>43</v>
@@ -35481,7 +35484,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35510,11 +35513,11 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35536,16 +35539,16 @@
         <v>180</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35573,28 +35576,28 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="Y287" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="Z287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE287" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="Y287" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="Z287" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA287" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB287" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC287" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD287" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE287" t="s" s="2">
-        <v>837</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35623,7 +35626,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35649,16 +35652,16 @@
         <v>180</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35686,10 +35689,10 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
@@ -35707,7 +35710,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35736,7 +35739,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35762,16 +35765,16 @@
         <v>180</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35799,10 +35802,10 @@
         <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35820,7 +35823,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35849,7 +35852,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35872,17 +35875,17 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35931,7 +35934,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35960,7 +35963,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35983,17 +35986,17 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -36042,7 +36045,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36071,7 +36074,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36094,19 +36097,19 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36155,7 +36158,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36184,7 +36187,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36207,19 +36210,19 @@
         <v>43</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36268,7 +36271,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36297,7 +36300,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36320,17 +36323,17 @@
         <v>43</v>
       </c>
       <c r="J294" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M294" s="2"/>
       <c r="N294" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36379,7 +36382,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36408,7 +36411,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36434,14 +36437,14 @@
         <v>426</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M295" s="2"/>
       <c r="N295" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36490,7 +36493,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36519,7 +36522,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36545,10 +36548,10 @@
         <v>43</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M296" s="2"/>
       <c r="N296" s="2"/>
@@ -36599,7 +36602,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36628,7 +36631,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36654,14 +36657,14 @@
         <v>317</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36710,7 +36713,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36739,7 +36742,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36848,7 +36851,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36959,7 +36962,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -37072,7 +37075,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37098,14 +37101,14 @@
         <v>426</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M301" s="2"/>
       <c r="N301" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="O301" t="s" s="2">
         <v>43</v>
@@ -37154,7 +37157,7 @@
         <v>43</v>
       </c>
       <c r="AE301" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AF301" t="s" s="2">
         <v>41</v>
@@ -37183,7 +37186,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37209,14 +37212,14 @@
         <v>426</v>
       </c>
       <c r="K302" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="M302" s="2"/>
       <c r="N302" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="O302" t="s" s="2">
         <v>43</v>
@@ -37265,7 +37268,7 @@
         <v>43</v>
       </c>
       <c r="AE302" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="AF302" t="s" s="2">
         <v>41</v>
@@ -37294,7 +37297,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37320,14 +37323,14 @@
         <v>426</v>
       </c>
       <c r="K303" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M303" s="2"/>
       <c r="N303" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="O303" t="s" s="2">
         <v>43</v>
@@ -37376,7 +37379,7 @@
         <v>43</v>
       </c>
       <c r="AE303" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="AF303" t="s" s="2">
         <v>41</v>
@@ -37405,7 +37408,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37431,14 +37434,14 @@
         <v>431</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="M304" s="2"/>
       <c r="N304" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37487,7 +37490,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>41</v>
@@ -37516,11 +37519,11 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37542,16 +37545,16 @@
         <v>180</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37579,10 +37582,10 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37600,7 +37603,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>50</v>
@@ -37629,7 +37632,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37655,16 +37658,16 @@
         <v>180</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37692,10 +37695,10 @@
         <v>116</v>
       </c>
       <c r="X306" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z306" t="s" s="2">
         <v>43</v>
@@ -37713,7 +37716,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37742,7 +37745,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37768,16 +37771,16 @@
         <v>180</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37805,10 +37808,10 @@
         <v>116</v>
       </c>
       <c r="X307" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Y307" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Z307" t="s" s="2">
         <v>43</v>
@@ -37826,7 +37829,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37855,7 +37858,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37881,14 +37884,14 @@
         <v>481</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M308" s="2"/>
       <c r="N308" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37937,7 +37940,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37966,7 +37969,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37989,17 +37992,17 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M309" s="2"/>
       <c r="N309" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -38027,10 +38030,10 @@
         <v>116</v>
       </c>
       <c r="X309" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="Y309" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Z309" t="s" s="2">
         <v>43</v>
@@ -38048,7 +38051,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38077,7 +38080,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38100,17 +38103,17 @@
         <v>43</v>
       </c>
       <c r="J310" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M310" s="2"/>
       <c r="N310" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -38159,7 +38162,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38188,7 +38191,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38211,17 +38214,17 @@
         <v>43</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O311" t="s" s="2">
         <v>43</v>
@@ -38270,7 +38273,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38299,7 +38302,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38322,19 +38325,19 @@
         <v>43</v>
       </c>
       <c r="J312" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O312" t="s" s="2">
         <v>43</v>
@@ -38383,7 +38386,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38412,7 +38415,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38435,19 +38438,19 @@
         <v>43</v>
       </c>
       <c r="J313" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K313" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O313" t="s" s="2">
         <v>43</v>
@@ -38496,7 +38499,7 @@
         <v>43</v>
       </c>
       <c r="AE313" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AF313" t="s" s="2">
         <v>41</v>
@@ -38525,7 +38528,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38551,16 +38554,16 @@
         <v>180</v>
       </c>
       <c r="K314" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O314" t="s" s="2">
         <v>43</v>
@@ -38588,10 +38591,10 @@
         <v>116</v>
       </c>
       <c r="X314" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Y314" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Z314" t="s" s="2">
         <v>43</v>
@@ -38609,7 +38612,7 @@
         <v>43</v>
       </c>
       <c r="AE314" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF314" t="s" s="2">
         <v>41</v>
@@ -38638,7 +38641,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38664,14 +38667,14 @@
         <v>180</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M315" s="2"/>
       <c r="N315" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O315" t="s" s="2">
         <v>43</v>
@@ -38699,10 +38702,10 @@
         <v>116</v>
       </c>
       <c r="X315" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="Y315" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="Z315" t="s" s="2">
         <v>43</v>
@@ -38720,7 +38723,7 @@
         <v>43</v>
       </c>
       <c r="AE315" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="AF315" t="s" s="2">
         <v>41</v>
@@ -38749,7 +38752,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38775,14 +38778,14 @@
         <v>426</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M316" s="2"/>
       <c r="N316" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38831,7 +38834,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>41</v>
@@ -38860,7 +38863,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38886,10 +38889,10 @@
         <v>43</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M317" s="2"/>
       <c r="N317" s="2"/>
@@ -38940,7 +38943,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38969,7 +38972,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38995,10 +38998,10 @@
         <v>317</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" s="2"/>
@@ -39049,7 +39052,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39078,7 +39081,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39187,7 +39190,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39298,7 +39301,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39411,11 +39414,11 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -39437,16 +39440,16 @@
         <v>180</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39474,10 +39477,10 @@
         <v>116</v>
       </c>
       <c r="X322" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="Z322" t="s" s="2">
         <v>43</v>
@@ -39495,7 +39498,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>50</v>
@@ -39524,7 +39527,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39550,16 +39553,16 @@
         <v>180</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O323" t="s" s="2">
         <v>43</v>
@@ -39587,10 +39590,10 @@
         <v>116</v>
       </c>
       <c r="X323" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Y323" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z323" t="s" s="2">
         <v>43</v>
@@ -39608,7 +39611,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39637,7 +39640,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39660,17 +39663,17 @@
         <v>43</v>
       </c>
       <c r="J324" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39719,7 +39722,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39748,7 +39751,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39771,17 +39774,17 @@
         <v>43</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M325" s="2"/>
       <c r="N325" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39830,7 +39833,7 @@
         <v>43</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39859,7 +39862,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39882,19 +39885,19 @@
         <v>43</v>
       </c>
       <c r="J326" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K326" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O326" t="s" s="2">
         <v>43</v>
@@ -39943,7 +39946,7 @@
         <v>43</v>
       </c>
       <c r="AE326" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AF326" t="s" s="2">
         <v>41</v>
@@ -39972,7 +39975,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -39995,19 +39998,19 @@
         <v>43</v>
       </c>
       <c r="J327" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O327" t="s" s="2">
         <v>43</v>
@@ -40056,7 +40059,7 @@
         <v>43</v>
       </c>
       <c r="AE327" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF327" t="s" s="2">
         <v>41</v>
@@ -40085,7 +40088,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40111,14 +40114,14 @@
         <v>426</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M328" s="2"/>
       <c r="N328" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>43</v>
@@ -40167,7 +40170,7 @@
         <v>43</v>
       </c>
       <c r="AE328" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="AF328" t="s" s="2">
         <v>41</v>
@@ -40196,7 +40199,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40222,10 +40225,10 @@
         <v>43</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M329" s="2"/>
       <c r="N329" s="2"/>
@@ -40276,7 +40279,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>41</v>
@@ -40305,7 +40308,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40331,10 +40334,10 @@
         <v>317</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" s="2"/>
@@ -40385,7 +40388,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>41</v>
@@ -40414,7 +40417,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s" s="2">
@@ -40523,7 +40526,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40634,7 +40637,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40747,11 +40750,11 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -40773,16 +40776,16 @@
         <v>180</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
@@ -40810,10 +40813,10 @@
         <v>116</v>
       </c>
       <c r="X334" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="Y334" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="Z334" t="s" s="2">
         <v>43</v>
@@ -40831,7 +40834,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>50</v>
@@ -40860,7 +40863,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40886,16 +40889,16 @@
         <v>180</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40923,10 +40926,10 @@
         <v>116</v>
       </c>
       <c r="X335" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -40944,7 +40947,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>41</v>
@@ -40973,7 +40976,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40996,17 +40999,17 @@
         <v>43</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41055,7 +41058,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>41</v>
@@ -41084,7 +41087,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41107,17 +41110,17 @@
         <v>43</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M337" s="2"/>
       <c r="N337" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41166,7 +41169,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41195,7 +41198,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41218,19 +41221,19 @@
         <v>43</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41279,7 +41282,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41308,7 +41311,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41331,19 +41334,19 @@
         <v>43</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41392,7 +41395,7 @@
         <v>43</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
@@ -41421,7 +41424,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41447,14 +41450,14 @@
         <v>426</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="M340" s="2"/>
       <c r="N340" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41503,7 +41506,7 @@
         <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41532,7 +41535,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41558,10 +41561,10 @@
         <v>43</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="M341" s="2"/>
       <c r="N341" s="2"/>
@@ -41612,7 +41615,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
@@ -41641,7 +41644,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41667,14 +41670,14 @@
         <v>317</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41714,16 +41717,16 @@
         <v>459</v>
       </c>
       <c r="AB342" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="AC342" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD342" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41752,7 +41755,7 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41861,7 +41864,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41887,10 +41890,10 @@
         <v>70</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M344" s="2"/>
       <c r="N344" s="2"/>
@@ -41968,10 +41971,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C345" t="s" s="2">
         <v>43</v>
@@ -41993,13 +41996,13 @@
         <v>43</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M345" s="2"/>
       <c r="N345" s="2"/>
@@ -42059,7 +42062,7 @@
         <v>42</v>
       </c>
       <c r="AH345" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AI345" t="s" s="2">
         <v>78</v>
@@ -42079,7 +42082,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42192,7 +42195,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42218,16 +42221,16 @@
         <v>180</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42256,7 +42259,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42274,7 +42277,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>50</v>
@@ -42303,7 +42306,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42329,16 +42332,16 @@
         <v>180</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42366,10 +42369,10 @@
         <v>116</v>
       </c>
       <c r="X348" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z348" t="s" s="2">
         <v>43</v>
@@ -42387,7 +42390,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42416,7 +42419,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42439,19 +42442,19 @@
         <v>43</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42500,7 +42503,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42529,7 +42532,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42552,19 +42555,19 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42613,7 +42616,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42642,10 +42645,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C351" t="s" s="2">
         <v>43</v>
@@ -42670,14 +42673,14 @@
         <v>317</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42726,7 +42729,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42755,7 +42758,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42864,7 +42867,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42890,10 +42893,10 @@
         <v>70</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M353" s="2"/>
       <c r="N353" s="2"/>
@@ -42971,10 +42974,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C354" t="s" s="2">
         <v>43</v>
@@ -42996,13 +42999,13 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M354" s="2"/>
       <c r="N354" s="2"/>
@@ -43062,7 +43065,7 @@
         <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AI354" t="s" s="2">
         <v>78</v>
@@ -43082,7 +43085,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43195,7 +43198,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43221,16 +43224,16 @@
         <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43259,7 +43262,7 @@
       </c>
       <c r="X356" s="2"/>
       <c r="Y356" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43277,7 +43280,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43306,7 +43309,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43332,16 +43335,16 @@
         <v>180</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43369,10 +43372,10 @@
         <v>116</v>
       </c>
       <c r="X357" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z357" t="s" s="2">
         <v>43</v>
@@ -43390,7 +43393,7 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF357" t="s" s="2">
         <v>41</v>
@@ -43419,7 +43422,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43442,19 +43445,19 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43503,7 +43506,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43532,7 +43535,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43555,19 +43558,19 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43616,7 +43619,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43645,10 +43648,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C360" t="s" s="2">
         <v>43</v>
@@ -43673,14 +43676,14 @@
         <v>317</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43729,7 +43732,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43758,7 +43761,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43867,7 +43870,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43893,10 +43896,10 @@
         <v>70</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" s="2"/>
@@ -43974,10 +43977,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C363" t="s" s="2">
         <v>43</v>
@@ -43999,13 +44002,13 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M363" s="2"/>
       <c r="N363" s="2"/>
@@ -44065,7 +44068,7 @@
         <v>42</v>
       </c>
       <c r="AH363" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AI363" t="s" s="2">
         <v>78</v>
@@ -44085,7 +44088,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44198,7 +44201,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44224,16 +44227,16 @@
         <v>180</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44262,7 +44265,7 @@
       </c>
       <c r="X365" s="2"/>
       <c r="Y365" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44280,7 +44283,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>50</v>
@@ -44309,7 +44312,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44335,16 +44338,16 @@
         <v>180</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44372,10 +44375,10 @@
         <v>116</v>
       </c>
       <c r="X366" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Y366" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="Z366" t="s" s="2">
         <v>43</v>
@@ -44393,7 +44396,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44422,7 +44425,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44445,19 +44448,19 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44506,7 +44509,7 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
@@ -44535,7 +44538,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44558,19 +44561,19 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44619,7 +44622,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44648,7 +44651,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44674,16 +44677,16 @@
         <v>317</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44732,7 +44735,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44761,7 +44764,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44870,7 +44873,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44981,7 +44984,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -45094,7 +45097,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45120,16 +45123,16 @@
         <v>180</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45158,7 +45161,7 @@
       </c>
       <c r="X373" s="2"/>
       <c r="Y373" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45176,7 +45179,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>50</v>
@@ -45205,7 +45208,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45228,17 +45231,17 @@
         <v>51</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45287,7 +45290,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>50</v>
@@ -45316,7 +45319,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45342,14 +45345,14 @@
         <v>317</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45398,7 +45401,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45427,7 +45430,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45536,7 +45539,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45647,7 +45650,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45760,7 +45763,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45786,14 +45789,14 @@
         <v>180</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45822,7 +45825,7 @@
       </c>
       <c r="X379" s="2"/>
       <c r="Y379" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
@@ -45840,7 +45843,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45869,7 +45872,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45892,19 +45895,19 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45953,7 +45956,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45982,7 +45985,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -46008,14 +46011,14 @@
         <v>180</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46044,7 +46047,7 @@
       </c>
       <c r="X381" s="2"/>
       <c r="Y381" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46062,7 +46065,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46091,7 +46094,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46114,17 +46117,17 @@
         <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M382" s="2"/>
       <c r="N382" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46173,7 +46176,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46202,7 +46205,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46225,17 +46228,17 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46284,7 +46287,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46313,7 +46316,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46339,16 +46342,16 @@
         <v>159</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46397,7 +46400,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46426,7 +46429,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46452,16 +46455,16 @@
         <v>180</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46489,10 +46492,10 @@
         <v>116</v>
       </c>
       <c r="X385" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="Y385" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46510,7 +46513,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46539,7 +46542,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46562,19 +46565,19 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46623,7 +46626,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46652,7 +46655,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46678,14 +46681,14 @@
         <v>317</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46734,7 +46737,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46763,7 +46766,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46872,7 +46875,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46983,7 +46986,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47096,7 +47099,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47122,14 +47125,14 @@
         <v>426</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47178,7 +47181,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47207,7 +47210,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47233,14 +47236,14 @@
         <v>126</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47268,10 +47271,10 @@
         <v>174</v>
       </c>
       <c r="X392" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Y392" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Z392" t="s" s="2">
         <v>43</v>
@@ -47289,7 +47292,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47318,7 +47321,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47344,14 +47347,14 @@
         <v>52</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47400,7 +47403,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47429,7 +47432,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47455,16 +47458,16 @@
         <v>180</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47513,7 +47516,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47542,7 +47545,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47568,16 +47571,16 @@
         <v>207</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47626,7 +47629,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47655,7 +47658,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47681,10 +47684,10 @@
         <v>317</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -47735,7 +47738,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47764,7 +47767,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47873,7 +47876,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47984,7 +47987,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48097,7 +48100,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48123,16 +48126,16 @@
         <v>180</v>
       </c>
       <c r="K400" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48160,10 +48163,10 @@
         <v>116</v>
       </c>
       <c r="X400" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Y400" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Z400" t="s" s="2">
         <v>43</v>
@@ -48181,7 +48184,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>50</v>
@@ -48210,7 +48213,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48236,14 +48239,14 @@
         <v>437</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48292,7 +48295,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48321,7 +48324,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48347,16 +48350,16 @@
         <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48405,7 +48408,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48434,7 +48437,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48460,16 +48463,16 @@
         <v>52</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48518,7 +48521,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48547,7 +48550,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48573,14 +48576,14 @@
         <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48608,10 +48611,10 @@
         <v>116</v>
       </c>
       <c r="X404" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="Y404" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
@@ -48629,7 +48632,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48658,7 +48661,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48684,14 +48687,14 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M405" s="2"/>
       <c r="N405" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48719,10 +48722,10 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
@@ -48740,7 +48743,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48769,7 +48772,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48795,14 +48798,14 @@
         <v>180</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M406" s="2"/>
       <c r="N406" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48830,10 +48833,10 @@
         <v>116</v>
       </c>
       <c r="X406" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="Y406" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="Z406" t="s" s="2">
         <v>43</v>
@@ -48851,7 +48854,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48880,7 +48883,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48906,10 +48909,10 @@
         <v>317</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -48960,7 +48963,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -48989,7 +48992,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49098,7 +49101,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49209,7 +49212,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49322,7 +49325,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49348,16 +49351,16 @@
         <v>180</v>
       </c>
       <c r="K411" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49385,10 +49388,10 @@
         <v>116</v>
       </c>
       <c r="X411" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="Y411" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="Z411" t="s" s="2">
         <v>43</v>
@@ -49406,7 +49409,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>50</v>
@@ -49435,7 +49438,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49458,17 +49461,17 @@
         <v>43</v>
       </c>
       <c r="J412" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49517,7 +49520,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49546,7 +49549,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49569,17 +49572,17 @@
         <v>43</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49628,7 +49631,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -772,7 +772,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/claim-type</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-type</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14562" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14563" uniqueCount="1091">
   <si>
     <t>Path</t>
   </si>
@@ -3050,7 +3050,10 @@
     <t>Needed to clarify the monetary adjustment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/AdjudicationDenialReasonVS</t>
+    <t>Payment Adjustment reason codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/payment-adjustment-reason</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.date</t>
@@ -30830,7 +30833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" hidden="true">
+    <row r="245">
       <c r="A245" t="s" s="2">
         <v>786</v>
       </c>
@@ -30840,13 +30843,13 @@
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H245" t="s" s="2">
         <v>43</v>
@@ -46048,11 +46051,13 @@
         <v>43</v>
       </c>
       <c r="W381" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X381" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>971</v>
+      </c>
       <c r="Y381" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="Z381" t="s" s="2">
         <v>43</v>
@@ -46099,7 +46104,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
@@ -46125,14 +46130,14 @@
         <v>635</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M382" s="2"/>
       <c r="N382" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46181,7 +46186,7 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
@@ -46210,7 +46215,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46236,14 +46241,14 @@
         <v>729</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46292,7 +46297,7 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="AF383" t="s" s="2">
         <v>41</v>
@@ -46321,7 +46326,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46347,16 +46352,16 @@
         <v>159</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46405,7 +46410,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46434,7 +46439,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46460,16 +46465,16 @@
         <v>180</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46497,10 +46502,10 @@
         <v>116</v>
       </c>
       <c r="X385" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="Y385" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46518,7 +46523,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46547,7 +46552,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46570,19 +46575,19 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46631,7 +46636,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46660,7 +46665,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46686,14 +46691,14 @@
         <v>317</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46742,7 +46747,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46771,7 +46776,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46880,7 +46885,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
@@ -46991,7 +46996,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47104,7 +47109,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47130,14 +47135,14 @@
         <v>426</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="M391" s="2"/>
       <c r="N391" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47186,7 +47191,7 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
@@ -47215,7 +47220,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
@@ -47241,14 +47246,14 @@
         <v>126</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="M392" s="2"/>
       <c r="N392" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
@@ -47276,10 +47281,10 @@
         <v>174</v>
       </c>
       <c r="X392" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="Y392" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="Z392" t="s" s="2">
         <v>43</v>
@@ -47297,7 +47302,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47326,7 +47331,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
@@ -47352,14 +47357,14 @@
         <v>52</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="M393" s="2"/>
       <c r="N393" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47408,7 +47413,7 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="AF393" t="s" s="2">
         <v>41</v>
@@ -47437,7 +47442,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47463,16 +47468,16 @@
         <v>180</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47521,7 +47526,7 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AF394" t="s" s="2">
         <v>41</v>
@@ -47550,7 +47555,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s" s="2">
@@ -47576,16 +47581,16 @@
         <v>207</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="L395" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O395" t="s" s="2">
         <v>43</v>
@@ -47634,7 +47639,7 @@
         <v>43</v>
       </c>
       <c r="AE395" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="AF395" t="s" s="2">
         <v>41</v>
@@ -47663,7 +47668,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s" s="2">
@@ -47689,10 +47694,10 @@
         <v>317</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M396" s="2"/>
       <c r="N396" s="2"/>
@@ -47743,7 +47748,7 @@
         <v>43</v>
       </c>
       <c r="AE396" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AF396" t="s" s="2">
         <v>41</v>
@@ -47772,7 +47777,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s" s="2">
@@ -47881,7 +47886,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s" s="2">
@@ -47992,7 +47997,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s" s="2">
@@ -48105,7 +48110,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s" s="2">
@@ -48140,7 +48145,7 @@
         <v>687</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="O400" t="s" s="2">
         <v>43</v>
@@ -48189,7 +48194,7 @@
         <v>43</v>
       </c>
       <c r="AE400" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AF400" t="s" s="2">
         <v>50</v>
@@ -48218,7 +48223,7 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -48244,14 +48249,14 @@
         <v>438</v>
       </c>
       <c r="K401" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="M401" s="2"/>
       <c r="N401" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>43</v>
@@ -48300,7 +48305,7 @@
         <v>43</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>41</v>
@@ -48329,7 +48334,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s" s="2">
@@ -48355,16 +48360,16 @@
         <v>52</v>
       </c>
       <c r="K402" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="O402" t="s" s="2">
         <v>43</v>
@@ -48413,7 +48418,7 @@
         <v>43</v>
       </c>
       <c r="AE402" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AF402" t="s" s="2">
         <v>41</v>
@@ -48442,7 +48447,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s" s="2">
@@ -48468,16 +48473,16 @@
         <v>52</v>
       </c>
       <c r="K403" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="O403" t="s" s="2">
         <v>43</v>
@@ -48526,7 +48531,7 @@
         <v>43</v>
       </c>
       <c r="AE403" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="AF403" t="s" s="2">
         <v>41</v>
@@ -48555,7 +48560,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s" s="2">
@@ -48581,14 +48586,14 @@
         <v>180</v>
       </c>
       <c r="K404" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="M404" s="2"/>
       <c r="N404" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="O404" t="s" s="2">
         <v>43</v>
@@ -48616,10 +48621,10 @@
         <v>116</v>
       </c>
       <c r="X404" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="Y404" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="Z404" t="s" s="2">
         <v>43</v>
@@ -48637,7 +48642,7 @@
         <v>43</v>
       </c>
       <c r="AE404" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="AF404" t="s" s="2">
         <v>41</v>
@@ -48666,7 +48671,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s" s="2">
@@ -48692,14 +48697,14 @@
         <v>180</v>
       </c>
       <c r="K405" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="M405" s="2"/>
       <c r="N405" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="O405" t="s" s="2">
         <v>43</v>
@@ -48727,10 +48732,10 @@
         <v>116</v>
       </c>
       <c r="X405" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="Y405" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="Z405" t="s" s="2">
         <v>43</v>
@@ -48748,7 +48753,7 @@
         <v>43</v>
       </c>
       <c r="AE405" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="AF405" t="s" s="2">
         <v>41</v>
@@ -48777,7 +48782,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s" s="2">
@@ -48803,14 +48808,14 @@
         <v>180</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="M406" s="2"/>
       <c r="N406" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="O406" t="s" s="2">
         <v>43</v>
@@ -48838,10 +48843,10 @@
         <v>116</v>
       </c>
       <c r="X406" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="Y406" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="Z406" t="s" s="2">
         <v>43</v>
@@ -48859,7 +48864,7 @@
         <v>43</v>
       </c>
       <c r="AE406" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AF406" t="s" s="2">
         <v>41</v>
@@ -48888,7 +48893,7 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s" s="2">
@@ -48914,10 +48919,10 @@
         <v>317</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="M407" s="2"/>
       <c r="N407" s="2"/>
@@ -48968,7 +48973,7 @@
         <v>43</v>
       </c>
       <c r="AE407" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AF407" t="s" s="2">
         <v>41</v>
@@ -48997,7 +49002,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s" s="2">
@@ -49106,7 +49111,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s" s="2">
@@ -49217,7 +49222,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s" s="2">
@@ -49330,7 +49335,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s" s="2">
@@ -49359,13 +49364,13 @@
         <v>685</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O411" t="s" s="2">
         <v>43</v>
@@ -49393,10 +49398,10 @@
         <v>116</v>
       </c>
       <c r="X411" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="Y411" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="Z411" t="s" s="2">
         <v>43</v>
@@ -49414,7 +49419,7 @@
         <v>43</v>
       </c>
       <c r="AE411" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AF411" t="s" s="2">
         <v>50</v>
@@ -49443,7 +49448,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s" s="2">
@@ -49466,17 +49471,17 @@
         <v>43</v>
       </c>
       <c r="J412" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="K412" t="s" s="2">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="M412" s="2"/>
       <c r="N412" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="O412" t="s" s="2">
         <v>43</v>
@@ -49525,7 +49530,7 @@
         <v>43</v>
       </c>
       <c r="AE412" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="AF412" t="s" s="2">
         <v>41</v>
@@ -49554,7 +49559,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s" s="2">
@@ -49577,17 +49582,17 @@
         <v>43</v>
       </c>
       <c r="J413" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="L413" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M413" s="2"/>
       <c r="N413" t="s" s="2">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="O413" t="s" s="2">
         <v>43</v>
@@ -49636,7 +49641,7 @@
         <v>43</v>
       </c>
       <c r="AE413" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="AF413" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -157,7 +157,10 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}EOB-insurance-focal:EOB.insurance:  at most one slice with focal = true {insurance.select (focal = true).count() &lt; 2}EOB-pharm-careTeam-practitioner:Pharmacy EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code in 
+( 'pcp' | 'prescribing')) implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-pharm-careTeam-organization:Pharmacy EOB:  Careteam roles refer to a practitioner {(ExplanationOfBenefit.careTeam.role.coding.code='performing') implies 
+ExplanationOfBenefit.careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -1174,7 +1174,7 @@
     <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPayeeTypeCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payee.party</t>
@@ -1423,7 +1423,7 @@
     <t>When multiple parties are present it is required to distinguish the roles performed by each member.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerPharmacyProviderRoleVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerPharmacyProviderRole</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.qualification</t>
@@ -1502,7 +1502,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimInformationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.code</t>
@@ -1590,7 +1590,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ProviderNetworkStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ProviderNetworkStatus</t>
   </si>
   <si>
     <t>brandgenericcode</t>
@@ -1607,7 +1607,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPBrandGenericCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPBrandGenericCode</t>
   </si>
   <si>
     <t>rxoriginCode</t>
@@ -1624,7 +1624,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPPrescriptionOriginCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPPrescriptionOriginCode</t>
   </si>
   <si>
     <t>refillNum</t>
@@ -1658,7 +1658,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPDispensedAsWrittenVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPDispensedAsWritten</t>
   </si>
   <si>
     <t>clmrecvddate</t>
@@ -1902,7 +1902,7 @@
     <t>procedureCodeableConcept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCSVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ICD10PCS</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.procedure.udi</t>
@@ -2219,7 +2219,7 @@
     <t>Necessary to state what was provided or done.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANDCNCPDPCompoundCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANDCNCPDPCompoundCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.modifier</t>
@@ -2467,7 +2467,7 @@
     <t>Needed to enable understanding of the context of the other information in the adjudication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimAdjudicationCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.adjudication.reason</t>
@@ -2527,7 +2527,7 @@
     <t>Amounts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodesVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationValueCodes</t>
   </si>
   <si>
     <t>denialreason</t>
@@ -2544,7 +2544,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPRejectCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPRejectCode</t>
   </si>
   <si>
     <t>inoutnetwork</t>
@@ -2553,7 +2553,7 @@
     <t>Benefit Payment Status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatusVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/BenefitPaymentStatus</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.detail</t>
@@ -2592,7 +2592,7 @@
     <t>ExplanationOfBenefit.item.detail.productOrService</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANationalDrugCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANationalDrugCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.detail.modifier</t>
@@ -2975,7 +2975,7 @@
     <t>Needed to convey the type of total provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategoryVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -3023,7 +3023,7 @@
     <t>To advise the requestor when the insurer believes all payments to have been completed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCodeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/ClaimPaymentStatusCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payment.adjustment</t>
@@ -3595,7 +3595,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.30859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$396</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13867" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13974" uniqueCount="1091">
   <si>
     <t>Path</t>
   </si>
@@ -2898,9 +2898,6 @@
     <t>Some insurers will receive line-items but provide the adjudication only at a summary or header-level.</t>
   </si>
   <si>
-    <t>Slice based on $this vpattern</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.adjudication.id</t>
   </si>
   <si>
@@ -2954,6 +2951,13 @@
     <t>To provide the requestor with financial totals by category for the adjudication.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:null}
+</t>
+  </si>
+  <si>
+    <t>Slice based on value pattern</t>
+  </si>
+  <si>
     <t>ExplanationOfBenefit.total.id</t>
   </si>
   <si>
@@ -2970,9 +2974,6 @@
   </si>
   <si>
     <t>Needed to convey the type of total provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PayerAdjudicationAmountCategory</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.total.amount</t>
@@ -3559,7 +3560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM393"/>
+  <dimension ref="A1:AM396"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -40441,7 +40442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="331" hidden="true">
+    <row r="331">
       <c r="A331" t="s" s="2">
         <v>917</v>
       </c>
@@ -40451,7 +40452,7 @@
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F331" t="s" s="2">
         <v>42</v>
@@ -40513,16 +40514,16 @@
         <v>43</v>
       </c>
       <c r="AA331" t="s" s="2">
-        <v>461</v>
+        <v>43</v>
       </c>
       <c r="AB331" t="s" s="2">
-        <v>921</v>
+        <v>43</v>
       </c>
       <c r="AC331" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD331" t="s" s="2">
-        <v>768</v>
+        <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
         <v>917</v>
@@ -40554,7 +40555,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40663,7 +40664,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40689,10 +40690,10 @@
         <v>70</v>
       </c>
       <c r="K333" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="L333" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="L333" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="M333" s="2"/>
       <c r="N333" s="2"/>
@@ -40770,10 +40771,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C334" t="s" s="2">
         <v>43</v>
@@ -40795,13 +40796,13 @@
         <v>43</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K334" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="L334" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="L334" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="M334" s="2"/>
       <c r="N334" s="2"/>
@@ -40861,7 +40862,7 @@
         <v>42</v>
       </c>
       <c r="AH334" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AI334" t="s" s="2">
         <v>78</v>
@@ -40881,7 +40882,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40994,7 +40995,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41105,7 +41106,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41218,7 +41219,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41331,7 +41332,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41442,13 +41443,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="B340" t="s" s="2">
-        <v>802</v>
-      </c>
+        <v>933</v>
+      </c>
+      <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
         <v>43</v>
       </c>
@@ -41457,29 +41456,31 @@
         <v>50</v>
       </c>
       <c r="F340" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H340" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I340" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H340" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I340" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
         <v>317</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>803</v>
+        <v>934</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="M340" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="M340" t="s" s="2">
+        <v>936</v>
+      </c>
       <c r="N340" t="s" s="2">
-        <v>920</v>
+        <v>937</v>
       </c>
       <c r="O340" t="s" s="2">
         <v>43</v>
@@ -41516,19 +41517,19 @@
         <v>43</v>
       </c>
       <c r="AA340" t="s" s="2">
-        <v>43</v>
+        <v>938</v>
       </c>
       <c r="AB340" t="s" s="2">
-        <v>43</v>
+        <v>939</v>
       </c>
       <c r="AC340" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD340" t="s" s="2">
-        <v>43</v>
+        <v>768</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
@@ -41557,7 +41558,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41666,15 +41667,15 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F342" t="s" s="2">
         <v>42</v>
@@ -41692,12 +41693,14 @@
         <v>70</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>924</v>
+        <v>71</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="M342" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M342" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N342" s="2"/>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41734,14 +41737,16 @@
         <v>43</v>
       </c>
       <c r="AA342" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB342" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB342" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC342" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD342" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
         <v>77</v>
@@ -41768,46 +41773,48 @@
         <v>43</v>
       </c>
       <c r="AM342" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="B343" t="s" s="2">
-        <v>926</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F343" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G343" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H343" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H343" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I343" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>927</v>
+        <v>70</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>924</v>
+        <v>326</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="M343" s="2"/>
-      <c r="N343" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M343" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N343" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
       </c>
@@ -41855,7 +41862,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41864,7 +41871,7 @@
         <v>42</v>
       </c>
       <c r="AH343" t="s" s="2">
-        <v>928</v>
+        <v>43</v>
       </c>
       <c r="AI343" t="s" s="2">
         <v>78</v>
@@ -41879,47 +41886,47 @@
         <v>43</v>
       </c>
       <c r="AM343" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="344" hidden="true">
+    <row r="344">
       <c r="A344" t="s" s="2">
-        <v>929</v>
+        <v>943</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F344" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G344" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H344" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I344" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>326</v>
+        <v>773</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>327</v>
+        <v>944</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>73</v>
+        <v>775</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>156</v>
+        <v>945</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -41944,13 +41951,11 @@
         <v>43</v>
       </c>
       <c r="W344" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X344" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X344" s="2"/>
       <c r="Y344" t="s" s="2">
-        <v>43</v>
+        <v>777</v>
       </c>
       <c r="Z344" t="s" s="2">
         <v>43</v>
@@ -41968,19 +41973,19 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>328</v>
+        <v>943</v>
       </c>
       <c r="AF344" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI344" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ344" t="s" s="2">
         <v>43</v>
@@ -41992,12 +41997,12 @@
         <v>43</v>
       </c>
       <c r="AM344" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>930</v>
+        <v>946</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42017,22 +42022,20 @@
         <v>43</v>
       </c>
       <c r="I345" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>773</v>
+        <v>947</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>774</v>
-      </c>
-      <c r="M345" t="s" s="2">
-        <v>775</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="M345" s="2"/>
       <c r="N345" t="s" s="2">
-        <v>776</v>
+        <v>949</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42057,11 +42060,13 @@
         <v>43</v>
       </c>
       <c r="W345" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X345" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X345" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y345" t="s" s="2">
-        <v>804</v>
+        <v>43</v>
       </c>
       <c r="Z345" t="s" s="2">
         <v>43</v>
@@ -42079,7 +42084,7 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>772</v>
+        <v>946</v>
       </c>
       <c r="AF345" t="s" s="2">
         <v>50</v>
@@ -42106,11 +42111,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="346" hidden="true">
+    <row r="346">
       <c r="A346" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="B346" s="2"/>
+        <v>933</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>795</v>
+      </c>
       <c r="C346" t="s" s="2">
         <v>43</v>
       </c>
@@ -42119,31 +42126,31 @@
         <v>41</v>
       </c>
       <c r="F346" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G346" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H346" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I346" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>780</v>
+        <v>935</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>781</v>
+        <v>936</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>782</v>
+        <v>937</v>
       </c>
       <c r="O346" t="s" s="2">
         <v>43</v>
@@ -42168,13 +42175,13 @@
         <v>43</v>
       </c>
       <c r="W346" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X346" t="s" s="2">
-        <v>783</v>
+        <v>43</v>
       </c>
       <c r="Y346" t="s" s="2">
-        <v>784</v>
+        <v>43</v>
       </c>
       <c r="Z346" t="s" s="2">
         <v>43</v>
@@ -42192,13 +42199,13 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>778</v>
+        <v>933</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>43</v>
@@ -42221,7 +42228,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42244,20 +42251,16 @@
         <v>43</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>727</v>
+        <v>52</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>786</v>
+        <v>64</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M347" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="N347" t="s" s="2">
-        <v>789</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M347" s="2"/>
+      <c r="N347" s="2"/>
       <c r="O347" t="s" s="2">
         <v>43</v>
       </c>
@@ -42305,7 +42308,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>785</v>
+        <v>66</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42317,7 +42320,7 @@
         <v>43</v>
       </c>
       <c r="AI347" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ347" t="s" s="2">
         <v>43</v>
@@ -42329,23 +42332,23 @@
         <v>43</v>
       </c>
       <c r="AM347" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F348" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G348" t="s" s="2">
         <v>43</v>
@@ -42357,20 +42360,18 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>732</v>
+        <v>70</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>791</v>
+        <v>71</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>792</v>
+        <v>72</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N348" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N348" s="2"/>
       <c r="O348" t="s" s="2">
         <v>43</v>
       </c>
@@ -42418,19 +42419,19 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>790</v>
+        <v>77</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI348" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ348" t="s" s="2">
         <v>43</v>
@@ -42442,16 +42443,16 @@
         <v>43</v>
       </c>
       <c r="AM348" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -42464,25 +42465,25 @@
         <v>43</v>
       </c>
       <c r="H349" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I349" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>317</v>
+        <v>70</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>935</v>
+        <v>326</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>936</v>
+        <v>327</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>937</v>
+        <v>73</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>938</v>
+        <v>156</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42531,7 +42532,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>934</v>
+        <v>328</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42543,7 +42544,7 @@
         <v>43</v>
       </c>
       <c r="AI349" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ349" t="s" s="2">
         <v>43</v>
@@ -42555,12 +42556,12 @@
         <v>43</v>
       </c>
       <c r="AM349" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42568,7 +42569,7 @@
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F350" t="s" s="2">
         <v>50</v>
@@ -42580,19 +42581,23 @@
         <v>43</v>
       </c>
       <c r="I350" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>64</v>
+        <v>773</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M350" s="2"/>
-      <c r="N350" s="2"/>
+        <v>944</v>
+      </c>
+      <c r="M350" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N350" t="s" s="2">
+        <v>945</v>
+      </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
       </c>
@@ -42616,13 +42621,11 @@
         <v>43</v>
       </c>
       <c r="W350" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X350" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X350" s="2"/>
       <c r="Y350" t="s" s="2">
-        <v>43</v>
+        <v>797</v>
       </c>
       <c r="Z350" t="s" s="2">
         <v>43</v>
@@ -42640,10 +42643,10 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>66</v>
+        <v>943</v>
       </c>
       <c r="AF350" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG350" t="s" s="2">
         <v>50</v>
@@ -42652,7 +42655,7 @@
         <v>43</v>
       </c>
       <c r="AI350" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ350" t="s" s="2">
         <v>43</v>
@@ -42664,23 +42667,23 @@
         <v>43</v>
       </c>
       <c r="AM350" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F351" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G351" t="s" s="2">
         <v>43</v>
@@ -42689,21 +42692,21 @@
         <v>43</v>
       </c>
       <c r="I351" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>71</v>
+        <v>947</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M351" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N351" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="M351" s="2"/>
+      <c r="N351" t="s" s="2">
+        <v>949</v>
+      </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
       </c>
@@ -42751,19 +42754,19 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>77</v>
+        <v>946</v>
       </c>
       <c r="AF351" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI351" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ351" t="s" s="2">
         <v>43</v>
@@ -42775,47 +42778,49 @@
         <v>43</v>
       </c>
       <c r="AM351" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="352" hidden="true">
+    <row r="352">
       <c r="A352" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="B352" s="2"/>
+        <v>933</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="C352" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F352" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G352" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H352" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I352" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>326</v>
+        <v>803</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>327</v>
+        <v>935</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>73</v>
+        <v>936</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>156</v>
+        <v>937</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42864,7 +42869,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>328</v>
+        <v>933</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42876,7 +42881,7 @@
         <v>43</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>43</v>
@@ -42888,12 +42893,12 @@
         <v>43</v>
       </c>
       <c r="AM352" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42901,7 +42906,7 @@
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F353" t="s" s="2">
         <v>50</v>
@@ -42913,23 +42918,19 @@
         <v>43</v>
       </c>
       <c r="I353" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>773</v>
+        <v>64</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>943</v>
-      </c>
-      <c r="M353" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>944</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M353" s="2"/>
+      <c r="N353" s="2"/>
       <c r="O353" t="s" s="2">
         <v>43</v>
       </c>
@@ -42953,11 +42954,13 @@
         <v>43</v>
       </c>
       <c r="W353" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X353" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X353" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y353" t="s" s="2">
-        <v>945</v>
+        <v>43</v>
       </c>
       <c r="Z353" t="s" s="2">
         <v>43</v>
@@ -42975,10 +42978,10 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>942</v>
+        <v>66</v>
       </c>
       <c r="AF353" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG353" t="s" s="2">
         <v>50</v>
@@ -42987,7 +42990,7 @@
         <v>43</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>43</v>
@@ -42999,23 +43002,23 @@
         <v>43</v>
       </c>
       <c r="AM353" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F354" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G354" t="s" s="2">
         <v>43</v>
@@ -43024,21 +43027,21 @@
         <v>43</v>
       </c>
       <c r="I354" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>947</v>
+        <v>71</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="M354" s="2"/>
-      <c r="N354" t="s" s="2">
-        <v>949</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N354" s="2"/>
       <c r="O354" t="s" s="2">
         <v>43</v>
       </c>
@@ -43086,19 +43089,19 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>946</v>
+        <v>77</v>
       </c>
       <c r="AF354" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI354" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ354" t="s" s="2">
         <v>43</v>
@@ -43110,45 +43113,47 @@
         <v>43</v>
       </c>
       <c r="AM354" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F355" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G355" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H355" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H355" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I355" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>317</v>
+        <v>70</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>951</v>
+        <v>326</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="M355" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M355" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N355" t="s" s="2">
-        <v>953</v>
+        <v>156</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43197,19 +43202,19 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>950</v>
+        <v>328</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI355" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ355" t="s" s="2">
         <v>43</v>
@@ -43221,12 +43226,12 @@
         <v>43</v>
       </c>
       <c r="AM355" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43234,7 +43239,7 @@
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F356" t="s" s="2">
         <v>50</v>
@@ -43246,19 +43251,23 @@
         <v>43</v>
       </c>
       <c r="I356" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>64</v>
+        <v>773</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M356" s="2"/>
-      <c r="N356" s="2"/>
+        <v>944</v>
+      </c>
+      <c r="M356" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N356" t="s" s="2">
+        <v>945</v>
+      </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
       </c>
@@ -43282,13 +43291,11 @@
         <v>43</v>
       </c>
       <c r="W356" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X356" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X356" s="2"/>
       <c r="Y356" t="s" s="2">
-        <v>43</v>
+        <v>804</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43306,10 +43313,10 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>66</v>
+        <v>943</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG356" t="s" s="2">
         <v>50</v>
@@ -43318,7 +43325,7 @@
         <v>43</v>
       </c>
       <c r="AI356" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ356" t="s" s="2">
         <v>43</v>
@@ -43330,23 +43337,23 @@
         <v>43</v>
       </c>
       <c r="AM356" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F357" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G357" t="s" s="2">
         <v>43</v>
@@ -43355,21 +43362,21 @@
         <v>43</v>
       </c>
       <c r="I357" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>70</v>
+        <v>727</v>
       </c>
       <c r="K357" t="s" s="2">
-        <v>71</v>
+        <v>947</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M357" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N357" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="M357" s="2"/>
+      <c r="N357" t="s" s="2">
+        <v>949</v>
+      </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
       </c>
@@ -43417,19 +43424,19 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>77</v>
+        <v>946</v>
       </c>
       <c r="AF357" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI357" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ357" t="s" s="2">
         <v>43</v>
@@ -43441,47 +43448,45 @@
         <v>43</v>
       </c>
       <c r="AM357" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="358" hidden="true">
+    <row r="358">
       <c r="A358" t="s" s="2">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F358" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G358" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H358" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I358" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>326</v>
+        <v>951</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M358" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="M358" s="2"/>
       <c r="N358" t="s" s="2">
-        <v>156</v>
+        <v>953</v>
       </c>
       <c r="O358" t="s" s="2">
         <v>43</v>
@@ -43530,19 +43535,19 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>328</v>
+        <v>950</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI358" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ358" t="s" s="2">
         <v>43</v>
@@ -43554,12 +43559,12 @@
         <v>43</v>
       </c>
       <c r="AM358" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43582,18 +43587,16 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>958</v>
+        <v>64</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>959</v>
+        <v>65</v>
       </c>
       <c r="M359" s="2"/>
-      <c r="N359" t="s" s="2">
-        <v>960</v>
-      </c>
+      <c r="N359" s="2"/>
       <c r="O359" t="s" s="2">
         <v>43</v>
       </c>
@@ -43617,11 +43620,13 @@
         <v>43</v>
       </c>
       <c r="W359" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X359" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X359" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y359" t="s" s="2">
-        <v>961</v>
+        <v>43</v>
       </c>
       <c r="Z359" t="s" s="2">
         <v>43</v>
@@ -43639,7 +43644,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>957</v>
+        <v>66</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43651,7 +43656,7 @@
         <v>43</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ359" t="s" s="2">
         <v>43</v>
@@ -43663,23 +43668,23 @@
         <v>43</v>
       </c>
       <c r="AM359" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F360" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G360" t="s" s="2">
         <v>43</v>
@@ -43691,20 +43696,18 @@
         <v>43</v>
       </c>
       <c r="J360" t="s" s="2">
-        <v>727</v>
+        <v>70</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>963</v>
+        <v>71</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>964</v>
+        <v>72</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>965</v>
-      </c>
-      <c r="N360" t="s" s="2">
-        <v>966</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="N360" s="2"/>
       <c r="O360" t="s" s="2">
         <v>43</v>
       </c>
@@ -43752,19 +43755,19 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>962</v>
+        <v>77</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI360" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ360" t="s" s="2">
         <v>43</v>
@@ -43776,45 +43779,47 @@
         <v>43</v>
       </c>
       <c r="AM360" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F361" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G361" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H361" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I361" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>968</v>
+        <v>326</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>969</v>
-      </c>
-      <c r="M361" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M361" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N361" t="s" s="2">
-        <v>970</v>
+        <v>156</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43839,13 +43844,13 @@
         <v>43</v>
       </c>
       <c r="W361" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X361" t="s" s="2">
-        <v>971</v>
+        <v>43</v>
       </c>
       <c r="Y361" t="s" s="2">
-        <v>972</v>
+        <v>43</v>
       </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
@@ -43863,19 +43868,19 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>967</v>
+        <v>328</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>43</v>
@@ -43887,12 +43892,12 @@
         <v>43</v>
       </c>
       <c r="AM361" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43915,17 +43920,17 @@
         <v>43</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>633</v>
+        <v>180</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="M362" s="2"/>
       <c r="N362" t="s" s="2">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43950,13 +43955,11 @@
         <v>43</v>
       </c>
       <c r="W362" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X362" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X362" s="2"/>
       <c r="Y362" t="s" s="2">
-        <v>43</v>
+        <v>961</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
@@ -43974,7 +43977,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -44003,7 +44006,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -44029,14 +44032,16 @@
         <v>727</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>979</v>
-      </c>
-      <c r="M363" s="2"/>
+        <v>964</v>
+      </c>
+      <c r="M363" t="s" s="2">
+        <v>965</v>
+      </c>
       <c r="N363" t="s" s="2">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44085,7 +44090,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44114,7 +44119,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44137,19 +44142,17 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="M364" t="s" s="2">
-        <v>984</v>
-      </c>
+        <v>969</v>
+      </c>
+      <c r="M364" s="2"/>
       <c r="N364" t="s" s="2">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44174,13 +44177,13 @@
         <v>43</v>
       </c>
       <c r="W364" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X364" t="s" s="2">
-        <v>43</v>
+        <v>971</v>
       </c>
       <c r="Y364" t="s" s="2">
-        <v>43</v>
+        <v>972</v>
       </c>
       <c r="Z364" t="s" s="2">
         <v>43</v>
@@ -44198,7 +44201,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44227,7 +44230,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44250,19 +44253,17 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>180</v>
+        <v>633</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="M365" t="s" s="2">
-        <v>989</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="M365" s="2"/>
       <c r="N365" t="s" s="2">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44287,13 +44288,13 @@
         <v>43</v>
       </c>
       <c r="W365" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X365" t="s" s="2">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="Y365" t="s" s="2">
-        <v>992</v>
+        <v>43</v>
       </c>
       <c r="Z365" t="s" s="2">
         <v>43</v>
@@ -44311,7 +44312,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44340,7 +44341,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44363,19 +44364,17 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>994</v>
+        <v>727</v>
       </c>
       <c r="K366" t="s" s="2">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>996</v>
-      </c>
-      <c r="M366" t="s" s="2">
-        <v>997</v>
-      </c>
+        <v>979</v>
+      </c>
+      <c r="M366" s="2"/>
       <c r="N366" t="s" s="2">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="O366" t="s" s="2">
         <v>43</v>
@@ -44424,7 +44423,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44453,7 +44452,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44464,7 +44463,7 @@
         <v>41</v>
       </c>
       <c r="F367" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G367" t="s" s="2">
         <v>43</v>
@@ -44476,17 +44475,19 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>317</v>
+        <v>159</v>
       </c>
       <c r="K367" t="s" s="2">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>1001</v>
-      </c>
-      <c r="M367" s="2"/>
+        <v>983</v>
+      </c>
+      <c r="M367" t="s" s="2">
+        <v>984</v>
+      </c>
       <c r="N367" t="s" s="2">
-        <v>1002</v>
+        <v>985</v>
       </c>
       <c r="O367" t="s" s="2">
         <v>43</v>
@@ -44535,13 +44536,13 @@
         <v>43</v>
       </c>
       <c r="AE367" t="s" s="2">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="AF367" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>43</v>
@@ -44564,7 +44565,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1003</v>
+        <v>986</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44587,16 +44588,20 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>64</v>
+        <v>987</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M368" s="2"/>
-      <c r="N368" s="2"/>
+        <v>988</v>
+      </c>
+      <c r="M368" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="N368" t="s" s="2">
+        <v>990</v>
+      </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
       </c>
@@ -44620,13 +44625,13 @@
         <v>43</v>
       </c>
       <c r="W368" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X368" t="s" s="2">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="Y368" t="s" s="2">
-        <v>43</v>
+        <v>992</v>
       </c>
       <c r="Z368" t="s" s="2">
         <v>43</v>
@@ -44644,7 +44649,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>66</v>
+        <v>986</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44656,7 +44661,7 @@
         <v>43</v>
       </c>
       <c r="AI368" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ368" t="s" s="2">
         <v>43</v>
@@ -44668,23 +44673,23 @@
         <v>43</v>
       </c>
       <c r="AM368" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F369" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G369" t="s" s="2">
         <v>43</v>
@@ -44696,18 +44701,20 @@
         <v>43</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>70</v>
+        <v>994</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>71</v>
+        <v>995</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>72</v>
+        <v>996</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N369" s="2"/>
+        <v>997</v>
+      </c>
+      <c r="N369" t="s" s="2">
+        <v>998</v>
+      </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
       </c>
@@ -44755,19 +44762,19 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>77</v>
+        <v>993</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI369" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ369" t="s" s="2">
         <v>43</v>
@@ -44779,16 +44786,16 @@
         <v>43</v>
       </c>
       <c r="AM369" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
@@ -44801,25 +44808,23 @@
         <v>43</v>
       </c>
       <c r="H370" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I370" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J370" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>326</v>
+        <v>1000</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M370" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1001</v>
+      </c>
+      <c r="M370" s="2"/>
       <c r="N370" t="s" s="2">
-        <v>156</v>
+        <v>1002</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44868,7 +44873,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>328</v>
+        <v>999</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
@@ -44880,7 +44885,7 @@
         <v>43</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ370" t="s" s="2">
         <v>43</v>
@@ -44892,12 +44897,12 @@
         <v>43</v>
       </c>
       <c r="AM370" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44920,18 +44925,16 @@
         <v>43</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>428</v>
+        <v>52</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>1007</v>
+        <v>64</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>1008</v>
+        <v>65</v>
       </c>
       <c r="M371" s="2"/>
-      <c r="N371" t="s" s="2">
-        <v>1009</v>
-      </c>
+      <c r="N371" s="2"/>
       <c r="O371" t="s" s="2">
         <v>43</v>
       </c>
@@ -44979,7 +44982,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>1006</v>
+        <v>66</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -44991,7 +44994,7 @@
         <v>43</v>
       </c>
       <c r="AI371" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ371" t="s" s="2">
         <v>43</v>
@@ -45003,23 +45006,23 @@
         <v>43</v>
       </c>
       <c r="AM371" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F372" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s" s="2">
         <v>43</v>
@@ -45031,18 +45034,18 @@
         <v>43</v>
       </c>
       <c r="J372" t="s" s="2">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>1011</v>
+        <v>71</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1012</v>
-      </c>
-      <c r="M372" s="2"/>
-      <c r="N372" t="s" s="2">
-        <v>1013</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N372" s="2"/>
       <c r="O372" t="s" s="2">
         <v>43</v>
       </c>
@@ -45066,13 +45069,13 @@
         <v>43</v>
       </c>
       <c r="W372" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X372" t="s" s="2">
-        <v>1014</v>
+        <v>43</v>
       </c>
       <c r="Y372" t="s" s="2">
-        <v>1015</v>
+        <v>43</v>
       </c>
       <c r="Z372" t="s" s="2">
         <v>43</v>
@@ -45090,19 +45093,19 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>1010</v>
+        <v>77</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI372" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ372" t="s" s="2">
         <v>43</v>
@@ -45114,45 +45117,47 @@
         <v>43</v>
       </c>
       <c r="AM372" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F373" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H373" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I373" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J373" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>1017</v>
+        <v>326</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>1018</v>
-      </c>
-      <c r="M373" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M373" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N373" t="s" s="2">
-        <v>1019</v>
+        <v>156</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45201,19 +45206,19 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>1016</v>
+        <v>328</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI373" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ373" t="s" s="2">
         <v>43</v>
@@ -45225,12 +45230,12 @@
         <v>43</v>
       </c>
       <c r="AM373" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45253,19 +45258,17 @@
         <v>43</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>180</v>
+        <v>428</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>1022</v>
-      </c>
-      <c r="M374" t="s" s="2">
-        <v>1023</v>
-      </c>
+        <v>1008</v>
+      </c>
+      <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45290,13 +45293,13 @@
         <v>43</v>
       </c>
       <c r="W374" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X374" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z374" t="s" s="2">
         <v>43</v>
@@ -45314,7 +45317,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45343,7 +45346,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45366,19 +45369,17 @@
         <v>43</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>1027</v>
-      </c>
-      <c r="M375" t="s" s="2">
-        <v>1028</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45403,13 +45404,13 @@
         <v>43</v>
       </c>
       <c r="W375" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X375" t="s" s="2">
-        <v>43</v>
+        <v>1014</v>
       </c>
       <c r="Y375" t="s" s="2">
-        <v>43</v>
+        <v>1015</v>
       </c>
       <c r="Z375" t="s" s="2">
         <v>43</v>
@@ -45427,7 +45428,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45456,7 +45457,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45467,7 +45468,7 @@
         <v>41</v>
       </c>
       <c r="F376" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G376" t="s" s="2">
         <v>43</v>
@@ -45479,16 +45480,18 @@
         <v>43</v>
       </c>
       <c r="J376" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="M376" s="2"/>
-      <c r="N376" s="2"/>
+      <c r="N376" t="s" s="2">
+        <v>1019</v>
+      </c>
       <c r="O376" t="s" s="2">
         <v>43</v>
       </c>
@@ -45536,13 +45539,13 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>43</v>
@@ -45565,7 +45568,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45588,16 +45591,20 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K377" t="s" s="2">
-        <v>64</v>
+        <v>1021</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M377" s="2"/>
-      <c r="N377" s="2"/>
+        <v>1022</v>
+      </c>
+      <c r="M377" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="N377" t="s" s="2">
+        <v>1024</v>
+      </c>
       <c r="O377" t="s" s="2">
         <v>43</v>
       </c>
@@ -45621,13 +45628,13 @@
         <v>43</v>
       </c>
       <c r="W377" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X377" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y377" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z377" t="s" s="2">
         <v>43</v>
@@ -45645,7 +45652,7 @@
         <v>43</v>
       </c>
       <c r="AE377" t="s" s="2">
-        <v>66</v>
+        <v>1020</v>
       </c>
       <c r="AF377" t="s" s="2">
         <v>41</v>
@@ -45657,7 +45664,7 @@
         <v>43</v>
       </c>
       <c r="AI377" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ377" t="s" s="2">
         <v>43</v>
@@ -45669,23 +45676,23 @@
         <v>43</v>
       </c>
       <c r="AM377" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F378" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G378" t="s" s="2">
         <v>43</v>
@@ -45697,18 +45704,20 @@
         <v>43</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>71</v>
+        <v>1026</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>72</v>
+        <v>1027</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N378" s="2"/>
+        <v>1028</v>
+      </c>
+      <c r="N378" t="s" s="2">
+        <v>1029</v>
+      </c>
       <c r="O378" t="s" s="2">
         <v>43</v>
       </c>
@@ -45756,19 +45765,19 @@
         <v>43</v>
       </c>
       <c r="AE378" t="s" s="2">
-        <v>77</v>
+        <v>1025</v>
       </c>
       <c r="AF378" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI378" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ378" t="s" s="2">
         <v>43</v>
@@ -45780,16 +45789,16 @@
         <v>43</v>
       </c>
       <c r="AM378" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
@@ -45802,26 +45811,22 @@
         <v>43</v>
       </c>
       <c r="H379" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I379" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>326</v>
+        <v>1031</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M379" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N379" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>1032</v>
+      </c>
+      <c r="M379" s="2"/>
+      <c r="N379" s="2"/>
       <c r="O379" t="s" s="2">
         <v>43</v>
       </c>
@@ -45869,7 +45874,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>328</v>
+        <v>1030</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
@@ -45881,7 +45886,7 @@
         <v>43</v>
       </c>
       <c r="AI379" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ379" t="s" s="2">
         <v>43</v>
@@ -45893,12 +45898,12 @@
         <v>43</v>
       </c>
       <c r="AM379" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45906,7 +45911,7 @@
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F380" t="s" s="2">
         <v>50</v>
@@ -45921,20 +45926,16 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>683</v>
+        <v>64</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M380" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="N380" t="s" s="2">
-        <v>1037</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M380" s="2"/>
+      <c r="N380" s="2"/>
       <c r="O380" t="s" s="2">
         <v>43</v>
       </c>
@@ -45958,13 +45959,13 @@
         <v>43</v>
       </c>
       <c r="W380" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X380" t="s" s="2">
-        <v>687</v>
+        <v>43</v>
       </c>
       <c r="Y380" t="s" s="2">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="Z380" t="s" s="2">
         <v>43</v>
@@ -45982,10 +45983,10 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>1036</v>
+        <v>66</v>
       </c>
       <c r="AF380" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG380" t="s" s="2">
         <v>50</v>
@@ -45994,7 +45995,7 @@
         <v>43</v>
       </c>
       <c r="AI380" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ380" t="s" s="2">
         <v>43</v>
@@ -46006,23 +46007,23 @@
         <v>43</v>
       </c>
       <c r="AM380" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F381" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G381" t="s" s="2">
         <v>43</v>
@@ -46034,18 +46035,18 @@
         <v>43</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>439</v>
+        <v>70</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>1039</v>
+        <v>71</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>1040</v>
-      </c>
-      <c r="M381" s="2"/>
-      <c r="N381" t="s" s="2">
-        <v>1041</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N381" s="2"/>
       <c r="O381" t="s" s="2">
         <v>43</v>
       </c>
@@ -46093,19 +46094,19 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>1038</v>
+        <v>77</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI381" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ381" t="s" s="2">
         <v>43</v>
@@ -46117,47 +46118,47 @@
         <v>43</v>
       </c>
       <c r="AM381" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F382" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G382" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H382" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I382" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>1043</v>
+        <v>326</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>1044</v>
+        <v>327</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>1045</v>
+        <v>73</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>1046</v>
+        <v>156</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46206,19 +46207,19 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>1042</v>
+        <v>328</v>
       </c>
       <c r="AF382" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>43</v>
@@ -46230,12 +46231,12 @@
         <v>43</v>
       </c>
       <c r="AM382" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46243,7 +46244,7 @@
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F383" t="s" s="2">
         <v>50</v>
@@ -46258,19 +46259,19 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>1048</v>
+        <v>683</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>1049</v>
+        <v>684</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>1050</v>
+        <v>685</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46295,13 +46296,13 @@
         <v>43</v>
       </c>
       <c r="W383" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X383" t="s" s="2">
-        <v>43</v>
+        <v>687</v>
       </c>
       <c r="Y383" t="s" s="2">
-        <v>43</v>
+        <v>688</v>
       </c>
       <c r="Z383" t="s" s="2">
         <v>43</v>
@@ -46319,10 +46320,10 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="AF383" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG383" t="s" s="2">
         <v>50</v>
@@ -46348,7 +46349,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46371,17 +46372,17 @@
         <v>43</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="O384" t="s" s="2">
         <v>43</v>
@@ -46406,13 +46407,13 @@
         <v>43</v>
       </c>
       <c r="W384" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X384" t="s" s="2">
-        <v>1056</v>
+        <v>43</v>
       </c>
       <c r="Y384" t="s" s="2">
-        <v>1057</v>
+        <v>43</v>
       </c>
       <c r="Z384" t="s" s="2">
         <v>43</v>
@@ -46430,7 +46431,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46459,7 +46460,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>1058</v>
+        <v>1042</v>
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s" s="2">
@@ -46482,17 +46483,19 @@
         <v>43</v>
       </c>
       <c r="J385" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K385" t="s" s="2">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>1060</v>
-      </c>
-      <c r="M385" s="2"/>
+        <v>1044</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>1045</v>
+      </c>
       <c r="N385" t="s" s="2">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="O385" t="s" s="2">
         <v>43</v>
@@ -46517,13 +46520,13 @@
         <v>43</v>
       </c>
       <c r="W385" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X385" t="s" s="2">
-        <v>1062</v>
+        <v>43</v>
       </c>
       <c r="Y385" t="s" s="2">
-        <v>1063</v>
+        <v>43</v>
       </c>
       <c r="Z385" t="s" s="2">
         <v>43</v>
@@ -46541,7 +46544,7 @@
         <v>43</v>
       </c>
       <c r="AE385" t="s" s="2">
-        <v>1058</v>
+        <v>1042</v>
       </c>
       <c r="AF385" t="s" s="2">
         <v>41</v>
@@ -46570,7 +46573,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s" s="2">
@@ -46593,17 +46596,19 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>1065</v>
+        <v>1048</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>1066</v>
-      </c>
-      <c r="M386" s="2"/>
+        <v>1049</v>
+      </c>
+      <c r="M386" t="s" s="2">
+        <v>1050</v>
+      </c>
       <c r="N386" t="s" s="2">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46628,13 +46633,13 @@
         <v>43</v>
       </c>
       <c r="W386" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X386" t="s" s="2">
-        <v>1067</v>
+        <v>43</v>
       </c>
       <c r="Y386" t="s" s="2">
-        <v>1068</v>
+        <v>43</v>
       </c>
       <c r="Z386" t="s" s="2">
         <v>43</v>
@@ -46652,7 +46657,7 @@
         <v>43</v>
       </c>
       <c r="AE386" t="s" s="2">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="AF386" t="s" s="2">
         <v>41</v>
@@ -46681,7 +46686,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46692,7 +46697,7 @@
         <v>41</v>
       </c>
       <c r="F387" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G387" t="s" s="2">
         <v>43</v>
@@ -46704,16 +46709,18 @@
         <v>43</v>
       </c>
       <c r="J387" t="s" s="2">
-        <v>317</v>
+        <v>180</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>1070</v>
+        <v>1053</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>1071</v>
+        <v>1054</v>
       </c>
       <c r="M387" s="2"/>
-      <c r="N387" s="2"/>
+      <c r="N387" t="s" s="2">
+        <v>1055</v>
+      </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
       </c>
@@ -46737,13 +46744,13 @@
         <v>43</v>
       </c>
       <c r="W387" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X387" t="s" s="2">
-        <v>43</v>
+        <v>1056</v>
       </c>
       <c r="Y387" t="s" s="2">
-        <v>43</v>
+        <v>1057</v>
       </c>
       <c r="Z387" t="s" s="2">
         <v>43</v>
@@ -46761,13 +46768,13 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>43</v>
@@ -46790,7 +46797,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46813,16 +46820,18 @@
         <v>43</v>
       </c>
       <c r="J388" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>64</v>
+        <v>1059</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>65</v>
+        <v>1060</v>
       </c>
       <c r="M388" s="2"/>
-      <c r="N388" s="2"/>
+      <c r="N388" t="s" s="2">
+        <v>1061</v>
+      </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
       </c>
@@ -46846,13 +46855,13 @@
         <v>43</v>
       </c>
       <c r="W388" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X388" t="s" s="2">
-        <v>43</v>
+        <v>1062</v>
       </c>
       <c r="Y388" t="s" s="2">
-        <v>43</v>
+        <v>1063</v>
       </c>
       <c r="Z388" t="s" s="2">
         <v>43</v>
@@ -46870,7 +46879,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>66</v>
+        <v>1058</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46882,7 +46891,7 @@
         <v>43</v>
       </c>
       <c r="AI388" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ388" t="s" s="2">
         <v>43</v>
@@ -46894,23 +46903,23 @@
         <v>43</v>
       </c>
       <c r="AM388" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s" s="2">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F389" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G389" t="s" s="2">
         <v>43</v>
@@ -46922,18 +46931,18 @@
         <v>43</v>
       </c>
       <c r="J389" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K389" t="s" s="2">
-        <v>71</v>
+        <v>1065</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M389" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N389" s="2"/>
+        <v>1066</v>
+      </c>
+      <c r="M389" s="2"/>
+      <c r="N389" t="s" s="2">
+        <v>1061</v>
+      </c>
       <c r="O389" t="s" s="2">
         <v>43</v>
       </c>
@@ -46957,13 +46966,13 @@
         <v>43</v>
       </c>
       <c r="W389" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X389" t="s" s="2">
-        <v>43</v>
+        <v>1067</v>
       </c>
       <c r="Y389" t="s" s="2">
-        <v>43</v>
+        <v>1068</v>
       </c>
       <c r="Z389" t="s" s="2">
         <v>43</v>
@@ -46981,19 +46990,19 @@
         <v>43</v>
       </c>
       <c r="AE389" t="s" s="2">
-        <v>77</v>
+        <v>1064</v>
       </c>
       <c r="AF389" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>43</v>
@@ -47005,16 +47014,16 @@
         <v>43</v>
       </c>
       <c r="AM389" t="s" s="2">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -47027,26 +47036,22 @@
         <v>43</v>
       </c>
       <c r="H390" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I390" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J390" t="s" s="2">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>326</v>
+        <v>1070</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M390" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N390" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="M390" s="2"/>
+      <c r="N390" s="2"/>
       <c r="O390" t="s" s="2">
         <v>43</v>
       </c>
@@ -47094,7 +47099,7 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>328</v>
+        <v>1069</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
@@ -47106,7 +47111,7 @@
         <v>43</v>
       </c>
       <c r="AI390" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ390" t="s" s="2">
         <v>43</v>
@@ -47118,12 +47123,12 @@
         <v>43</v>
       </c>
       <c r="AM390" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
@@ -47131,7 +47136,7 @@
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F391" t="s" s="2">
         <v>50</v>
@@ -47146,20 +47151,16 @@
         <v>43</v>
       </c>
       <c r="J391" t="s" s="2">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>683</v>
+        <v>64</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="M391" t="s" s="2">
-        <v>1077</v>
-      </c>
-      <c r="N391" t="s" s="2">
-        <v>1078</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M391" s="2"/>
+      <c r="N391" s="2"/>
       <c r="O391" t="s" s="2">
         <v>43</v>
       </c>
@@ -47183,13 +47184,13 @@
         <v>43</v>
       </c>
       <c r="W391" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X391" t="s" s="2">
-        <v>1079</v>
+        <v>43</v>
       </c>
       <c r="Y391" t="s" s="2">
-        <v>1080</v>
+        <v>43</v>
       </c>
       <c r="Z391" t="s" s="2">
         <v>43</v>
@@ -47207,10 +47208,10 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>1075</v>
+        <v>66</v>
       </c>
       <c r="AF391" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG391" t="s" s="2">
         <v>50</v>
@@ -47219,7 +47220,7 @@
         <v>43</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>43</v>
@@ -47231,23 +47232,23 @@
         <v>43</v>
       </c>
       <c r="AM391" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F392" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G392" t="s" s="2">
         <v>43</v>
@@ -47259,18 +47260,18 @@
         <v>43</v>
       </c>
       <c r="J392" t="s" s="2">
-        <v>1082</v>
+        <v>70</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>1083</v>
+        <v>71</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>1084</v>
-      </c>
-      <c r="M392" s="2"/>
-      <c r="N392" t="s" s="2">
-        <v>1085</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="M392" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N392" s="2"/>
       <c r="O392" t="s" s="2">
         <v>43</v>
       </c>
@@ -47318,19 +47319,19 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>1081</v>
+        <v>77</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI392" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ392" t="s" s="2">
         <v>43</v>
@@ -47342,45 +47343,47 @@
         <v>43</v>
       </c>
       <c r="AM392" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1086</v>
+        <v>1074</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F393" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G393" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H393" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I393" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J393" t="s" s="2">
-        <v>1087</v>
+        <v>70</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>1088</v>
+        <v>326</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="M393" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M393" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N393" t="s" s="2">
-        <v>1090</v>
+        <v>156</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47429,35 +47432,370 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF393" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG393" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH393" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI393" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ393" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK393" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL393" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM393" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="394" hidden="true">
+      <c r="A394" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="B394" s="2"/>
+      <c r="C394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D394" s="2"/>
+      <c r="E394" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F394" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="N394" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="O394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P394" s="2"/>
+      <c r="Q394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>1079</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>1080</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="AF394" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG394" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI394" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL394" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM394" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="395" hidden="true">
+      <c r="A395" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="B395" s="2"/>
+      <c r="C395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F395" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>1082</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>1083</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>1084</v>
+      </c>
+      <c r="M395" s="2"/>
+      <c r="N395" t="s" s="2">
+        <v>1085</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P395" s="2"/>
+      <c r="Q395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG395" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI395" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL395" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM395" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="396" hidden="true">
+      <c r="A396" t="s" s="2">
         <v>1086</v>
       </c>
-      <c r="AF393" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG393" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH393" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI393" t="s" s="2">
+      <c r="B396" s="2"/>
+      <c r="C396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D396" s="2"/>
+      <c r="E396" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F396" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>1087</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>1088</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>1089</v>
+      </c>
+      <c r="M396" s="2"/>
+      <c r="N396" t="s" s="2">
+        <v>1090</v>
+      </c>
+      <c r="O396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P396" s="2"/>
+      <c r="Q396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>1086</v>
+      </c>
+      <c r="AF396" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG396" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI396" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ393" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK393" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL393" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM393" t="s" s="2">
+      <c r="AJ396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL396" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM396" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM393">
+  <autoFilter ref="A1:AM396">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -47467,7 +47805,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI392">
+  <conditionalFormatting sqref="A2:AI395">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$396</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$395</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13974" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13941" uniqueCount="1086">
   <si>
     <t>Path</t>
   </si>
@@ -2904,23 +2904,6 @@
     <t>ExplanationOfBenefit.adjudication.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>adjudication-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/carin-bb/StructureDefinition/AdjudicationType}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ExplanationOfBenefit.adjudication.modifierExtension</t>
   </si>
   <si>
@@ -2951,7 +2934,7 @@
     <t>To provide the requestor with financial totals by category for the adjudication.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:null}
+    <t xml:space="preserve">value:category}
 </t>
   </si>
   <si>
@@ -3560,7 +3543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM396"/>
+  <dimension ref="A1:AM395"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -40668,11 +40651,11 @@
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F333" t="s" s="2">
         <v>42</v>
@@ -40690,12 +40673,14 @@
         <v>70</v>
       </c>
       <c r="K333" t="s" s="2">
-        <v>923</v>
+        <v>71</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="M333" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M333" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N333" s="2"/>
       <c r="O333" t="s" s="2">
         <v>43</v>
@@ -40732,14 +40717,16 @@
         <v>43</v>
       </c>
       <c r="AA333" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB333" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB333" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC333" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD333" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AE333" t="s" s="2">
         <v>77</v>
@@ -40766,46 +40753,48 @@
         <v>43</v>
       </c>
       <c r="AM333" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="B334" t="s" s="2">
-        <v>925</v>
-      </c>
+        <v>923</v>
+      </c>
+      <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F334" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G334" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H334" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H334" t="s" s="2">
-        <v>43</v>
-      </c>
       <c r="I334" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J334" t="s" s="2">
-        <v>926</v>
+        <v>70</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>923</v>
+        <v>326</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="M334" s="2"/>
-      <c r="N334" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M334" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N334" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O334" t="s" s="2">
         <v>43</v>
       </c>
@@ -40853,7 +40842,7 @@
         <v>43</v>
       </c>
       <c r="AE334" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF334" t="s" s="2">
         <v>41</v>
@@ -40862,7 +40851,7 @@
         <v>42</v>
       </c>
       <c r="AH334" t="s" s="2">
-        <v>927</v>
+        <v>43</v>
       </c>
       <c r="AI334" t="s" s="2">
         <v>78</v>
@@ -40877,47 +40866,47 @@
         <v>43</v>
       </c>
       <c r="AM334" t="s" s="2">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F335" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G335" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H335" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I335" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J335" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>326</v>
+        <v>773</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>327</v>
+        <v>774</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>73</v>
+        <v>775</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>156</v>
+        <v>776</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40942,13 +40931,11 @@
         <v>43</v>
       </c>
       <c r="W335" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X335" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X335" s="2"/>
       <c r="Y335" t="s" s="2">
-        <v>43</v>
+        <v>777</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -40966,19 +40953,19 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>328</v>
+        <v>772</v>
       </c>
       <c r="AF335" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI335" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ335" t="s" s="2">
         <v>43</v>
@@ -40990,12 +40977,12 @@
         <v>43</v>
       </c>
       <c r="AM335" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -41003,7 +40990,7 @@
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F336" t="s" s="2">
         <v>50</v>
@@ -41021,16 +41008,16 @@
         <v>180</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41055,11 +41042,13 @@
         <v>43</v>
       </c>
       <c r="W336" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X336" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="X336" t="s" s="2">
+        <v>783</v>
+      </c>
       <c r="Y336" t="s" s="2">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="Z336" t="s" s="2">
         <v>43</v>
@@ -41077,10 +41066,10 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="AF336" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG336" t="s" s="2">
         <v>50</v>
@@ -41106,7 +41095,7 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s" s="2">
@@ -41129,19 +41118,19 @@
         <v>43</v>
       </c>
       <c r="J337" t="s" s="2">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41166,13 +41155,13 @@
         <v>43</v>
       </c>
       <c r="W337" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>783</v>
+        <v>43</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>784</v>
+        <v>43</v>
       </c>
       <c r="Z337" t="s" s="2">
         <v>43</v>
@@ -41190,7 +41179,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41219,7 +41208,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41242,19 +41231,19 @@
         <v>43</v>
       </c>
       <c r="J338" t="s" s="2">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="O338" t="s" s="2">
         <v>43</v>
@@ -41303,7 +41292,7 @@
         <v>43</v>
       </c>
       <c r="AE338" t="s" s="2">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="AF338" t="s" s="2">
         <v>41</v>
@@ -41332,7 +41321,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41340,10 +41329,10 @@
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F339" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G339" t="s" s="2">
         <v>43</v>
@@ -41352,22 +41341,22 @@
         <v>43</v>
       </c>
       <c r="I339" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>732</v>
+        <v>317</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>791</v>
+        <v>929</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>792</v>
+        <v>930</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>793</v>
+        <v>931</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>794</v>
+        <v>932</v>
       </c>
       <c r="O339" t="s" s="2">
         <v>43</v>
@@ -41404,25 +41393,25 @@
         <v>43</v>
       </c>
       <c r="AA339" t="s" s="2">
-        <v>43</v>
+        <v>933</v>
       </c>
       <c r="AB339" t="s" s="2">
-        <v>43</v>
+        <v>934</v>
       </c>
       <c r="AC339" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD339" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AE339" t="s" s="2">
-        <v>790</v>
+        <v>928</v>
       </c>
       <c r="AF339" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>43</v>
@@ -41445,7 +41434,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41453,10 +41442,10 @@
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F340" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G340" t="s" s="2">
         <v>43</v>
@@ -41465,23 +41454,19 @@
         <v>43</v>
       </c>
       <c r="I340" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J340" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K340" t="s" s="2">
-        <v>934</v>
+        <v>64</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="M340" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="N340" t="s" s="2">
-        <v>937</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M340" s="2"/>
+      <c r="N340" s="2"/>
       <c r="O340" t="s" s="2">
         <v>43</v>
       </c>
@@ -41517,31 +41502,31 @@
         <v>43</v>
       </c>
       <c r="AA340" t="s" s="2">
-        <v>938</v>
+        <v>43</v>
       </c>
       <c r="AB340" t="s" s="2">
-        <v>939</v>
+        <v>43</v>
       </c>
       <c r="AC340" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD340" t="s" s="2">
-        <v>768</v>
+        <v>43</v>
       </c>
       <c r="AE340" t="s" s="2">
-        <v>933</v>
+        <v>66</v>
       </c>
       <c r="AF340" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI340" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ340" t="s" s="2">
         <v>43</v>
@@ -41553,23 +41538,23 @@
         <v>43</v>
       </c>
       <c r="AM340" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F341" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G341" t="s" s="2">
         <v>43</v>
@@ -41581,15 +41566,17 @@
         <v>43</v>
       </c>
       <c r="J341" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M341" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M341" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N341" s="2"/>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41638,19 +41625,19 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI341" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ341" t="s" s="2">
         <v>43</v>
@@ -41667,11 +41654,11 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -41684,24 +41671,26 @@
         <v>43</v>
       </c>
       <c r="H342" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I342" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J342" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M342" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N342" s="2"/>
+      <c r="N342" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
       </c>
@@ -41749,7 +41738,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>41</v>
@@ -41773,47 +41762,47 @@
         <v>43</v>
       </c>
       <c r="AM342" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="343" hidden="true">
+    <row r="343">
       <c r="A343" t="s" s="2">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F343" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G343" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H343" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I343" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>326</v>
+        <v>773</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>327</v>
+        <v>939</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>73</v>
+        <v>775</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>156</v>
+        <v>940</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41838,13 +41827,11 @@
         <v>43</v>
       </c>
       <c r="W343" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X343" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X343" s="2"/>
       <c r="Y343" t="s" s="2">
-        <v>43</v>
+        <v>777</v>
       </c>
       <c r="Z343" t="s" s="2">
         <v>43</v>
@@ -41862,19 +41849,19 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>328</v>
+        <v>938</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>43</v>
@@ -41886,12 +41873,12 @@
         <v>43</v>
       </c>
       <c r="AM343" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41905,7 +41892,7 @@
         <v>50</v>
       </c>
       <c r="G344" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H344" t="s" s="2">
         <v>43</v>
@@ -41914,19 +41901,17 @@
         <v>51</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="K344" t="s" s="2">
-        <v>773</v>
+        <v>942</v>
       </c>
       <c r="L344" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="M344" s="2"/>
+      <c r="N344" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="M344" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N344" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="O344" t="s" s="2">
         <v>43</v>
@@ -41951,11 +41936,13 @@
         <v>43</v>
       </c>
       <c r="W344" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X344" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X344" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y344" t="s" s="2">
-        <v>777</v>
+        <v>43</v>
       </c>
       <c r="Z344" t="s" s="2">
         <v>43</v>
@@ -41973,7 +41960,7 @@
         <v>43</v>
       </c>
       <c r="AE344" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AF344" t="s" s="2">
         <v>50</v>
@@ -42000,23 +41987,25 @@
         <v>43</v>
       </c>
     </row>
-    <row r="345" hidden="true">
+    <row r="345">
       <c r="A345" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="B345" s="2"/>
+        <v>928</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>795</v>
+      </c>
       <c r="C345" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F345" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G345" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H345" t="s" s="2">
         <v>43</v>
@@ -42025,17 +42014,19 @@
         <v>51</v>
       </c>
       <c r="J345" t="s" s="2">
-        <v>727</v>
+        <v>317</v>
       </c>
       <c r="K345" t="s" s="2">
-        <v>947</v>
+        <v>796</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="M345" s="2"/>
+        <v>930</v>
+      </c>
+      <c r="M345" t="s" s="2">
+        <v>931</v>
+      </c>
       <c r="N345" t="s" s="2">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="O345" t="s" s="2">
         <v>43</v>
@@ -42084,13 +42075,13 @@
         <v>43</v>
       </c>
       <c r="AE345" t="s" s="2">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="AF345" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>43</v>
@@ -42111,13 +42102,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>933</v>
-      </c>
-      <c r="B346" t="s" s="2">
-        <v>795</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
         <v>43</v>
       </c>
@@ -42126,32 +42115,28 @@
         <v>41</v>
       </c>
       <c r="F346" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G346" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H346" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I346" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J346" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>796</v>
+        <v>64</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="M346" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="N346" t="s" s="2">
-        <v>937</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M346" s="2"/>
+      <c r="N346" s="2"/>
       <c r="O346" t="s" s="2">
         <v>43</v>
       </c>
@@ -42199,19 +42184,19 @@
         <v>43</v>
       </c>
       <c r="AE346" t="s" s="2">
-        <v>933</v>
+        <v>66</v>
       </c>
       <c r="AF346" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI346" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ346" t="s" s="2">
         <v>43</v>
@@ -42223,23 +42208,23 @@
         <v>43</v>
       </c>
       <c r="AM346" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F347" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G347" t="s" s="2">
         <v>43</v>
@@ -42251,15 +42236,17 @@
         <v>43</v>
       </c>
       <c r="J347" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M347" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N347" s="2"/>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42308,19 +42295,19 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI347" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ347" t="s" s="2">
         <v>43</v>
@@ -42337,11 +42324,11 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -42354,24 +42341,26 @@
         <v>43</v>
       </c>
       <c r="H348" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I348" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J348" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M348" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N348" s="2"/>
+      <c r="N348" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
       </c>
@@ -42419,7 +42408,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42443,47 +42432,47 @@
         <v>43</v>
       </c>
       <c r="AM348" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F349" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G349" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H349" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I349" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J349" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>326</v>
+        <v>773</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>327</v>
+        <v>939</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>73</v>
+        <v>775</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>156</v>
+        <v>940</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42508,13 +42497,11 @@
         <v>43</v>
       </c>
       <c r="W349" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X349" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X349" s="2"/>
       <c r="Y349" t="s" s="2">
-        <v>43</v>
+        <v>797</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42532,19 +42519,19 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>328</v>
+        <v>938</v>
       </c>
       <c r="AF349" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI349" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ349" t="s" s="2">
         <v>43</v>
@@ -42556,12 +42543,12 @@
         <v>43</v>
       </c>
       <c r="AM349" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42584,19 +42571,17 @@
         <v>51</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>773</v>
+        <v>942</v>
       </c>
       <c r="L350" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="M350" s="2"/>
+      <c r="N350" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="M350" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N350" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42621,11 +42606,13 @@
         <v>43</v>
       </c>
       <c r="W350" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X350" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X350" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y350" t="s" s="2">
-        <v>797</v>
+        <v>43</v>
       </c>
       <c r="Z350" t="s" s="2">
         <v>43</v>
@@ -42643,7 +42630,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>50</v>
@@ -42670,11 +42657,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="351" hidden="true">
+    <row r="351">
       <c r="A351" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="B351" s="2"/>
+        <v>928</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>802</v>
+      </c>
       <c r="C351" t="s" s="2">
         <v>43</v>
       </c>
@@ -42686,7 +42675,7 @@
         <v>50</v>
       </c>
       <c r="G351" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H351" t="s" s="2">
         <v>43</v>
@@ -42695,17 +42684,19 @@
         <v>51</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>727</v>
+        <v>317</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>947</v>
+        <v>803</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="M351" s="2"/>
+        <v>930</v>
+      </c>
+      <c r="M351" t="s" s="2">
+        <v>931</v>
+      </c>
       <c r="N351" t="s" s="2">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42754,13 +42745,13 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="AF351" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>43</v>
@@ -42781,47 +42772,41 @@
         <v>43</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>933</v>
-      </c>
-      <c r="B352" t="s" s="2">
-        <v>802</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F352" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G352" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H352" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I352" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J352" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>803</v>
+        <v>64</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="M352" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="N352" t="s" s="2">
-        <v>937</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M352" s="2"/>
+      <c r="N352" s="2"/>
       <c r="O352" t="s" s="2">
         <v>43</v>
       </c>
@@ -42869,19 +42854,19 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>933</v>
+        <v>66</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>43</v>
@@ -42893,23 +42878,23 @@
         <v>43</v>
       </c>
       <c r="AM352" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F353" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s" s="2">
         <v>43</v>
@@ -42921,15 +42906,17 @@
         <v>43</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M353" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M353" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N353" s="2"/>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -42978,19 +42965,19 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI353" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ353" t="s" s="2">
         <v>43</v>
@@ -43007,11 +42994,11 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -43024,24 +43011,26 @@
         <v>43</v>
       </c>
       <c r="H354" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I354" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J354" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M354" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N354" s="2"/>
+      <c r="N354" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
       </c>
@@ -43089,7 +43078,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43113,47 +43102,47 @@
         <v>43</v>
       </c>
       <c r="AM354" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F355" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H355" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I355" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J355" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>326</v>
+        <v>773</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>327</v>
+        <v>939</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>73</v>
+        <v>775</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>156</v>
+        <v>940</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43178,13 +43167,11 @@
         <v>43</v>
       </c>
       <c r="W355" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X355" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X355" s="2"/>
       <c r="Y355" t="s" s="2">
-        <v>43</v>
+        <v>804</v>
       </c>
       <c r="Z355" t="s" s="2">
         <v>43</v>
@@ -43202,19 +43189,19 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>328</v>
+        <v>938</v>
       </c>
       <c r="AF355" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI355" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ355" t="s" s="2">
         <v>43</v>
@@ -43226,12 +43213,12 @@
         <v>43</v>
       </c>
       <c r="AM355" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43254,19 +43241,17 @@
         <v>51</v>
       </c>
       <c r="J356" t="s" s="2">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>773</v>
+        <v>942</v>
       </c>
       <c r="L356" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="M356" s="2"/>
+      <c r="N356" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="M356" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N356" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="O356" t="s" s="2">
         <v>43</v>
@@ -43291,11 +43276,13 @@
         <v>43</v>
       </c>
       <c r="W356" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X356" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X356" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y356" t="s" s="2">
-        <v>804</v>
+        <v>43</v>
       </c>
       <c r="Z356" t="s" s="2">
         <v>43</v>
@@ -43313,7 +43300,7 @@
         <v>43</v>
       </c>
       <c r="AE356" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="AF356" t="s" s="2">
         <v>50</v>
@@ -43340,9 +43327,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="357" hidden="true">
+    <row r="357">
       <c r="A357" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43350,32 +43337,32 @@
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F357" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G357" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H357" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I357" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>727</v>
+        <v>317</v>
       </c>
       <c r="K357" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="L357" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="L357" t="s" s="2">
-        <v>948</v>
       </c>
       <c r="M357" s="2"/>
       <c r="N357" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O357" t="s" s="2">
         <v>43</v>
@@ -43424,10 +43411,10 @@
         <v>43</v>
       </c>
       <c r="AE357" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AF357" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG357" t="s" s="2">
         <v>50</v>
@@ -43451,9 +43438,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43467,7 +43454,7 @@
         <v>50</v>
       </c>
       <c r="G358" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H358" t="s" s="2">
         <v>43</v>
@@ -43476,18 +43463,16 @@
         <v>43</v>
       </c>
       <c r="J358" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K358" t="s" s="2">
-        <v>951</v>
+        <v>64</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>952</v>
+        <v>65</v>
       </c>
       <c r="M358" s="2"/>
-      <c r="N358" t="s" s="2">
-        <v>953</v>
-      </c>
+      <c r="N358" s="2"/>
       <c r="O358" t="s" s="2">
         <v>43</v>
       </c>
@@ -43535,7 +43520,7 @@
         <v>43</v>
       </c>
       <c r="AE358" t="s" s="2">
-        <v>950</v>
+        <v>66</v>
       </c>
       <c r="AF358" t="s" s="2">
         <v>41</v>
@@ -43547,7 +43532,7 @@
         <v>43</v>
       </c>
       <c r="AI358" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ358" t="s" s="2">
         <v>43</v>
@@ -43559,23 +43544,23 @@
         <v>43</v>
       </c>
       <c r="AM358" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F359" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G359" t="s" s="2">
         <v>43</v>
@@ -43587,15 +43572,17 @@
         <v>43</v>
       </c>
       <c r="J359" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M359" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M359" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N359" s="2"/>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43644,19 +43631,19 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ359" t="s" s="2">
         <v>43</v>
@@ -43673,11 +43660,11 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -43690,24 +43677,26 @@
         <v>43</v>
       </c>
       <c r="H360" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I360" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J360" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M360" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N360" s="2"/>
+      <c r="N360" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
       </c>
@@ -43755,7 +43744,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43779,47 +43768,45 @@
         <v>43</v>
       </c>
       <c r="AM360" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F361" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G361" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H361" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I361" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J361" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>326</v>
+        <v>953</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M361" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>156</v>
+        <v>955</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43844,13 +43831,11 @@
         <v>43</v>
       </c>
       <c r="W361" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X361" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X361" s="2"/>
       <c r="Y361" t="s" s="2">
-        <v>43</v>
+        <v>956</v>
       </c>
       <c r="Z361" t="s" s="2">
         <v>43</v>
@@ -43868,19 +43853,19 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>328</v>
+        <v>952</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>43</v>
@@ -43892,7 +43877,7 @@
         <v>43</v>
       </c>
       <c r="AM361" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="362" hidden="true">
@@ -43920,7 +43905,7 @@
         <v>43</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="K362" t="s" s="2">
         <v>958</v>
@@ -43928,9 +43913,11 @@
       <c r="L362" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="M362" s="2"/>
+      <c r="M362" t="s" s="2">
+        <v>960</v>
+      </c>
       <c r="N362" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43955,11 +43942,13 @@
         <v>43</v>
       </c>
       <c r="W362" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X362" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="X362" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="Y362" t="s" s="2">
-        <v>961</v>
+        <v>43</v>
       </c>
       <c r="Z362" t="s" s="2">
         <v>43</v>
@@ -44029,7 +44018,7 @@
         <v>43</v>
       </c>
       <c r="J363" t="s" s="2">
-        <v>727</v>
+        <v>180</v>
       </c>
       <c r="K363" t="s" s="2">
         <v>963</v>
@@ -44037,11 +44026,9 @@
       <c r="L363" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="M363" t="s" s="2">
+      <c r="M363" s="2"/>
+      <c r="N363" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="N363" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44066,13 +44053,13 @@
         <v>43</v>
       </c>
       <c r="W363" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X363" t="s" s="2">
-        <v>43</v>
+        <v>966</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>43</v>
+        <v>967</v>
       </c>
       <c r="Z363" t="s" s="2">
         <v>43</v>
@@ -44119,7 +44106,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44142,17 +44129,17 @@
         <v>43</v>
       </c>
       <c r="J364" t="s" s="2">
-        <v>180</v>
+        <v>633</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="O364" t="s" s="2">
         <v>43</v>
@@ -44177,13 +44164,13 @@
         <v>43</v>
       </c>
       <c r="W364" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X364" t="s" s="2">
-        <v>971</v>
+        <v>43</v>
       </c>
       <c r="Y364" t="s" s="2">
-        <v>972</v>
+        <v>43</v>
       </c>
       <c r="Z364" t="s" s="2">
         <v>43</v>
@@ -44201,7 +44188,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44230,7 +44217,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44253,17 +44240,17 @@
         <v>43</v>
       </c>
       <c r="J365" t="s" s="2">
-        <v>633</v>
+        <v>727</v>
       </c>
       <c r="K365" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="L365" t="s" s="2">
         <v>974</v>
-      </c>
-      <c r="L365" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="M365" s="2"/>
       <c r="N365" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O365" t="s" s="2">
         <v>43</v>
@@ -44312,7 +44299,7 @@
         <v>43</v>
       </c>
       <c r="AE365" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AF365" t="s" s="2">
         <v>41</v>
@@ -44341,7 +44328,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44364,15 +44351,17 @@
         <v>43</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>727</v>
+        <v>159</v>
       </c>
       <c r="K366" t="s" s="2">
+        <v>977</v>
+      </c>
+      <c r="L366" t="s" s="2">
         <v>978</v>
       </c>
-      <c r="L366" t="s" s="2">
+      <c r="M366" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="M366" s="2"/>
       <c r="N366" t="s" s="2">
         <v>980</v>
       </c>
@@ -44423,7 +44412,7 @@
         <v>43</v>
       </c>
       <c r="AE366" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AF366" t="s" s="2">
         <v>41</v>
@@ -44475,7 +44464,7 @@
         <v>43</v>
       </c>
       <c r="J367" t="s" s="2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="K367" t="s" s="2">
         <v>982</v>
@@ -44512,13 +44501,13 @@
         <v>43</v>
       </c>
       <c r="W367" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X367" t="s" s="2">
-        <v>43</v>
+        <v>986</v>
       </c>
       <c r="Y367" t="s" s="2">
-        <v>43</v>
+        <v>987</v>
       </c>
       <c r="Z367" t="s" s="2">
         <v>43</v>
@@ -44565,7 +44554,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44588,19 +44577,19 @@
         <v>43</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>180</v>
+        <v>989</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44625,13 +44614,13 @@
         <v>43</v>
       </c>
       <c r="W368" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X368" t="s" s="2">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="Y368" t="s" s="2">
-        <v>992</v>
+        <v>43</v>
       </c>
       <c r="Z368" t="s" s="2">
         <v>43</v>
@@ -44649,7 +44638,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>41</v>
@@ -44678,7 +44667,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44689,7 +44678,7 @@
         <v>41</v>
       </c>
       <c r="F369" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G369" t="s" s="2">
         <v>43</v>
@@ -44701,7 +44690,7 @@
         <v>43</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>994</v>
+        <v>317</v>
       </c>
       <c r="K369" t="s" s="2">
         <v>995</v>
@@ -44709,11 +44698,9 @@
       <c r="L369" t="s" s="2">
         <v>996</v>
       </c>
-      <c r="M369" t="s" s="2">
+      <c r="M369" s="2"/>
+      <c r="N369" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44762,13 +44749,13 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>43</v>
@@ -44791,7 +44778,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44802,7 +44789,7 @@
         <v>41</v>
       </c>
       <c r="F370" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G370" t="s" s="2">
         <v>43</v>
@@ -44814,18 +44801,16 @@
         <v>43</v>
       </c>
       <c r="J370" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>1000</v>
+        <v>64</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>1001</v>
+        <v>65</v>
       </c>
       <c r="M370" s="2"/>
-      <c r="N370" t="s" s="2">
-        <v>1002</v>
-      </c>
+      <c r="N370" s="2"/>
       <c r="O370" t="s" s="2">
         <v>43</v>
       </c>
@@ -44873,19 +44858,19 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>999</v>
+        <v>66</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ370" t="s" s="2">
         <v>43</v>
@@ -44897,23 +44882,23 @@
         <v>43</v>
       </c>
       <c r="AM370" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F371" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G371" t="s" s="2">
         <v>43</v>
@@ -44925,15 +44910,17 @@
         <v>43</v>
       </c>
       <c r="J371" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M371" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N371" s="2"/>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44982,19 +44969,19 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH371" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI371" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ371" t="s" s="2">
         <v>43</v>
@@ -45011,11 +44998,11 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
@@ -45028,24 +45015,26 @@
         <v>43</v>
       </c>
       <c r="H372" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I372" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J372" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M372" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N372" s="2"/>
+      <c r="N372" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
       </c>
@@ -45093,7 +45082,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45117,47 +45106,45 @@
         <v>43</v>
       </c>
       <c r="AM372" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F373" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H373" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I373" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J373" t="s" s="2">
-        <v>70</v>
+        <v>428</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>326</v>
+        <v>1002</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M373" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="M373" s="2"/>
       <c r="N373" t="s" s="2">
-        <v>156</v>
+        <v>1004</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45206,19 +45193,19 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>328</v>
+        <v>1001</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI373" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ373" t="s" s="2">
         <v>43</v>
@@ -45230,12 +45217,12 @@
         <v>43</v>
       </c>
       <c r="AM373" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45258,17 +45245,17 @@
         <v>43</v>
       </c>
       <c r="J374" t="s" s="2">
-        <v>428</v>
+        <v>126</v>
       </c>
       <c r="K374" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L374" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="L374" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45293,13 +45280,13 @@
         <v>43</v>
       </c>
       <c r="W374" t="s" s="2">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="X374" t="s" s="2">
-        <v>43</v>
+        <v>1009</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>43</v>
+        <v>1010</v>
       </c>
       <c r="Z374" t="s" s="2">
         <v>43</v>
@@ -45317,7 +45304,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45346,7 +45333,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45369,17 +45356,17 @@
         <v>43</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="O375" t="s" s="2">
         <v>43</v>
@@ -45404,13 +45391,13 @@
         <v>43</v>
       </c>
       <c r="W375" t="s" s="2">
-        <v>174</v>
+        <v>43</v>
       </c>
       <c r="X375" t="s" s="2">
-        <v>1014</v>
+        <v>43</v>
       </c>
       <c r="Y375" t="s" s="2">
-        <v>1015</v>
+        <v>43</v>
       </c>
       <c r="Z375" t="s" s="2">
         <v>43</v>
@@ -45428,7 +45415,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45457,7 +45444,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45480,15 +45467,17 @@
         <v>43</v>
       </c>
       <c r="J376" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K376" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="L376" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="L376" t="s" s="2">
+      <c r="M376" t="s" s="2">
         <v>1018</v>
       </c>
-      <c r="M376" s="2"/>
       <c r="N376" t="s" s="2">
         <v>1019</v>
       </c>
@@ -45515,13 +45504,13 @@
         <v>43</v>
       </c>
       <c r="W376" t="s" s="2">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="X376" t="s" s="2">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="Y376" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="Z376" t="s" s="2">
         <v>43</v>
@@ -45539,7 +45528,7 @@
         <v>43</v>
       </c>
       <c r="AE376" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AF376" t="s" s="2">
         <v>41</v>
@@ -45591,7 +45580,7 @@
         <v>43</v>
       </c>
       <c r="J377" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="K377" t="s" s="2">
         <v>1021</v>
@@ -45628,13 +45617,13 @@
         <v>43</v>
       </c>
       <c r="W377" t="s" s="2">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="X377" t="s" s="2">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="Y377" t="s" s="2">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="Z377" t="s" s="2">
         <v>43</v>
@@ -45692,7 +45681,7 @@
         <v>41</v>
       </c>
       <c r="F378" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G378" t="s" s="2">
         <v>43</v>
@@ -45704,7 +45693,7 @@
         <v>43</v>
       </c>
       <c r="J378" t="s" s="2">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="K378" t="s" s="2">
         <v>1026</v>
@@ -45712,12 +45701,8 @@
       <c r="L378" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="M378" t="s" s="2">
-        <v>1028</v>
-      </c>
-      <c r="N378" t="s" s="2">
-        <v>1029</v>
-      </c>
+      <c r="M378" s="2"/>
+      <c r="N378" s="2"/>
       <c r="O378" t="s" s="2">
         <v>43</v>
       </c>
@@ -45771,7 +45756,7 @@
         <v>41</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>43</v>
@@ -45794,7 +45779,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45805,7 +45790,7 @@
         <v>41</v>
       </c>
       <c r="F379" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G379" t="s" s="2">
         <v>43</v>
@@ -45817,13 +45802,13 @@
         <v>43</v>
       </c>
       <c r="J379" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>1031</v>
+        <v>64</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>1032</v>
+        <v>65</v>
       </c>
       <c r="M379" s="2"/>
       <c r="N379" s="2"/>
@@ -45874,19 +45859,19 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>1030</v>
+        <v>66</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI379" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ379" t="s" s="2">
         <v>43</v>
@@ -45898,23 +45883,23 @@
         <v>43</v>
       </c>
       <c r="AM379" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F380" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G380" t="s" s="2">
         <v>43</v>
@@ -45926,15 +45911,17 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M380" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N380" s="2"/>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45983,19 +45970,19 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI380" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ380" t="s" s="2">
         <v>43</v>
@@ -46012,11 +45999,11 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -46029,24 +46016,26 @@
         <v>43</v>
       </c>
       <c r="H381" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I381" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J381" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M381" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N381" s="2"/>
+      <c r="N381" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
       </c>
@@ -46094,7 +46083,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>
@@ -46118,47 +46107,47 @@
         <v>43</v>
       </c>
       <c r="AM381" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F382" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G382" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H382" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I382" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J382" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K382" t="s" s="2">
-        <v>326</v>
+        <v>683</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>327</v>
+        <v>684</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>73</v>
+        <v>685</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>156</v>
+        <v>1032</v>
       </c>
       <c r="O382" t="s" s="2">
         <v>43</v>
@@ -46183,13 +46172,13 @@
         <v>43</v>
       </c>
       <c r="W382" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X382" t="s" s="2">
-        <v>43</v>
+        <v>687</v>
       </c>
       <c r="Y382" t="s" s="2">
-        <v>43</v>
+        <v>688</v>
       </c>
       <c r="Z382" t="s" s="2">
         <v>43</v>
@@ -46207,19 +46196,19 @@
         <v>43</v>
       </c>
       <c r="AE382" t="s" s="2">
-        <v>328</v>
+        <v>1031</v>
       </c>
       <c r="AF382" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>43</v>
@@ -46231,12 +46220,12 @@
         <v>43</v>
       </c>
       <c r="AM382" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s" s="2">
@@ -46244,7 +46233,7 @@
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F383" t="s" s="2">
         <v>50</v>
@@ -46259,19 +46248,17 @@
         <v>43</v>
       </c>
       <c r="J383" t="s" s="2">
-        <v>180</v>
+        <v>439</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>683</v>
+        <v>1034</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="M383" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="M383" s="2"/>
       <c r="N383" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="O383" t="s" s="2">
         <v>43</v>
@@ -46296,13 +46283,13 @@
         <v>43</v>
       </c>
       <c r="W383" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X383" t="s" s="2">
-        <v>687</v>
+        <v>43</v>
       </c>
       <c r="Y383" t="s" s="2">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="Z383" t="s" s="2">
         <v>43</v>
@@ -46320,10 +46307,10 @@
         <v>43</v>
       </c>
       <c r="AE383" t="s" s="2">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="AF383" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG383" t="s" s="2">
         <v>50</v>
@@ -46349,7 +46336,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s" s="2">
@@ -46372,15 +46359,17 @@
         <v>43</v>
       </c>
       <c r="J384" t="s" s="2">
-        <v>439</v>
+        <v>52</v>
       </c>
       <c r="K384" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="L384" t="s" s="2">
         <v>1039</v>
       </c>
-      <c r="L384" t="s" s="2">
+      <c r="M384" t="s" s="2">
         <v>1040</v>
       </c>
-      <c r="M384" s="2"/>
       <c r="N384" t="s" s="2">
         <v>1041</v>
       </c>
@@ -46431,7 +46420,7 @@
         <v>43</v>
       </c>
       <c r="AE384" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="AF384" t="s" s="2">
         <v>41</v>
@@ -46596,7 +46585,7 @@
         <v>43</v>
       </c>
       <c r="J386" t="s" s="2">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="K386" t="s" s="2">
         <v>1048</v>
@@ -46604,11 +46593,9 @@
       <c r="L386" t="s" s="2">
         <v>1049</v>
       </c>
-      <c r="M386" t="s" s="2">
+      <c r="M386" s="2"/>
+      <c r="N386" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="N386" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="O386" t="s" s="2">
         <v>43</v>
@@ -46633,13 +46620,13 @@
         <v>43</v>
       </c>
       <c r="W386" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X386" t="s" s="2">
-        <v>43</v>
+        <v>1051</v>
       </c>
       <c r="Y386" t="s" s="2">
-        <v>43</v>
+        <v>1052</v>
       </c>
       <c r="Z386" t="s" s="2">
         <v>43</v>
@@ -46686,7 +46673,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s" s="2">
@@ -46712,14 +46699,14 @@
         <v>180</v>
       </c>
       <c r="K387" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="M387" s="2"/>
       <c r="N387" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="O387" t="s" s="2">
         <v>43</v>
@@ -46747,10 +46734,10 @@
         <v>116</v>
       </c>
       <c r="X387" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="Y387" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="Z387" t="s" s="2">
         <v>43</v>
@@ -46768,7 +46755,7 @@
         <v>43</v>
       </c>
       <c r="AE387" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="AF387" t="s" s="2">
         <v>41</v>
@@ -46797,7 +46784,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s" s="2">
@@ -46823,14 +46810,14 @@
         <v>180</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="M388" s="2"/>
       <c r="N388" t="s" s="2">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="O388" t="s" s="2">
         <v>43</v>
@@ -46879,7 +46866,7 @@
         <v>43</v>
       </c>
       <c r="AE388" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AF388" t="s" s="2">
         <v>41</v>
@@ -46919,7 +46906,7 @@
         <v>41</v>
       </c>
       <c r="F389" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G389" t="s" s="2">
         <v>43</v>
@@ -46931,7 +46918,7 @@
         <v>43</v>
       </c>
       <c r="J389" t="s" s="2">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="K389" t="s" s="2">
         <v>1065</v>
@@ -46940,9 +46927,7 @@
         <v>1066</v>
       </c>
       <c r="M389" s="2"/>
-      <c r="N389" t="s" s="2">
-        <v>1061</v>
-      </c>
+      <c r="N389" s="2"/>
       <c r="O389" t="s" s="2">
         <v>43</v>
       </c>
@@ -46966,13 +46951,13 @@
         <v>43</v>
       </c>
       <c r="W389" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X389" t="s" s="2">
-        <v>1067</v>
+        <v>43</v>
       </c>
       <c r="Y389" t="s" s="2">
-        <v>1068</v>
+        <v>43</v>
       </c>
       <c r="Z389" t="s" s="2">
         <v>43</v>
@@ -46996,7 +46981,7 @@
         <v>41</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>43</v>
@@ -47019,7 +47004,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s" s="2">
@@ -47030,7 +47015,7 @@
         <v>41</v>
       </c>
       <c r="F390" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G390" t="s" s="2">
         <v>43</v>
@@ -47042,13 +47027,13 @@
         <v>43</v>
       </c>
       <c r="J390" t="s" s="2">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>1070</v>
+        <v>64</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>1071</v>
+        <v>65</v>
       </c>
       <c r="M390" s="2"/>
       <c r="N390" s="2"/>
@@ -47099,19 +47084,19 @@
         <v>43</v>
       </c>
       <c r="AE390" t="s" s="2">
-        <v>1069</v>
+        <v>66</v>
       </c>
       <c r="AF390" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI390" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ390" t="s" s="2">
         <v>43</v>
@@ -47123,23 +47108,23 @@
         <v>43</v>
       </c>
       <c r="AM390" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F391" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G391" t="s" s="2">
         <v>43</v>
@@ -47151,15 +47136,17 @@
         <v>43</v>
       </c>
       <c r="J391" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M391" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M391" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N391" s="2"/>
       <c r="O391" t="s" s="2">
         <v>43</v>
@@ -47208,19 +47195,19 @@
         <v>43</v>
       </c>
       <c r="AE391" t="s" s="2">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AF391" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>43</v>
@@ -47237,11 +47224,11 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s" s="2">
-        <v>69</v>
+        <v>325</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -47254,24 +47241,26 @@
         <v>43</v>
       </c>
       <c r="H392" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I392" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J392" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K392" t="s" s="2">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="M392" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N392" s="2"/>
+      <c r="N392" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="O392" t="s" s="2">
         <v>43</v>
       </c>
@@ -47319,7 +47308,7 @@
         <v>43</v>
       </c>
       <c r="AE392" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AF392" t="s" s="2">
         <v>41</v>
@@ -47343,47 +47332,47 @@
         <v>43</v>
       </c>
       <c r="AM392" t="s" s="2">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s" s="2">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F393" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G393" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H393" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I393" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J393" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K393" t="s" s="2">
-        <v>326</v>
+        <v>683</v>
       </c>
       <c r="L393" t="s" s="2">
-        <v>327</v>
+        <v>1071</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>73</v>
+        <v>1072</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>156</v>
+        <v>1073</v>
       </c>
       <c r="O393" t="s" s="2">
         <v>43</v>
@@ -47408,13 +47397,13 @@
         <v>43</v>
       </c>
       <c r="W393" t="s" s="2">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="X393" t="s" s="2">
-        <v>43</v>
+        <v>1074</v>
       </c>
       <c r="Y393" t="s" s="2">
-        <v>43</v>
+        <v>1075</v>
       </c>
       <c r="Z393" t="s" s="2">
         <v>43</v>
@@ -47432,19 +47421,19 @@
         <v>43</v>
       </c>
       <c r="AE393" t="s" s="2">
-        <v>328</v>
+        <v>1070</v>
       </c>
       <c r="AF393" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI393" t="s" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="AJ393" t="s" s="2">
         <v>43</v>
@@ -47456,12 +47445,12 @@
         <v>43</v>
       </c>
       <c r="AM393" t="s" s="2">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s" s="2">
@@ -47469,7 +47458,7 @@
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F394" t="s" s="2">
         <v>50</v>
@@ -47484,19 +47473,17 @@
         <v>43</v>
       </c>
       <c r="J394" t="s" s="2">
-        <v>180</v>
+        <v>1077</v>
       </c>
       <c r="K394" t="s" s="2">
-        <v>683</v>
+        <v>1078</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="M394" t="s" s="2">
-        <v>1077</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="M394" s="2"/>
       <c r="N394" t="s" s="2">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="O394" t="s" s="2">
         <v>43</v>
@@ -47521,13 +47508,13 @@
         <v>43</v>
       </c>
       <c r="W394" t="s" s="2">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="X394" t="s" s="2">
-        <v>1079</v>
+        <v>43</v>
       </c>
       <c r="Y394" t="s" s="2">
-        <v>1080</v>
+        <v>43</v>
       </c>
       <c r="Z394" t="s" s="2">
         <v>43</v>
@@ -47545,10 +47532,10 @@
         <v>43</v>
       </c>
       <c r="AE394" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AF394" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG394" t="s" s="2">
         <v>50</v>
@@ -47683,119 +47670,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="396" hidden="true">
-      <c r="A396" t="s" s="2">
-        <v>1086</v>
-      </c>
-      <c r="B396" s="2"/>
-      <c r="C396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D396" s="2"/>
-      <c r="E396" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F396" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J396" t="s" s="2">
-        <v>1087</v>
-      </c>
-      <c r="K396" t="s" s="2">
-        <v>1088</v>
-      </c>
-      <c r="L396" t="s" s="2">
-        <v>1089</v>
-      </c>
-      <c r="M396" s="2"/>
-      <c r="N396" t="s" s="2">
-        <v>1090</v>
-      </c>
-      <c r="O396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P396" s="2"/>
-      <c r="Q396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE396" t="s" s="2">
-        <v>1086</v>
-      </c>
-      <c r="AF396" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG396" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI396" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AJ396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL396" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM396" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM396">
+  <autoFilter ref="A1:AM395">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -47805,7 +47681,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI395">
+  <conditionalFormatting sqref="A2:AI394">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -1312,8 +1312,8 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-pharm-careTeam-practitioner:Pharmacy EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
-( 'pcp' or 'prescribing')) implies 
+EOB-careteam-qualification:Care Team Performing physician's qualifications are from US-Core-Provider-Specialty Value Set {ExplanationOfBenefit.careTeam.role.coding.code='performing' implies ExplanationOfBenefit.careTeam.qualification.memberOf('http://hl7.org/fhir/us/core/ValueSet/us-core-provider-specialty')}EOB-pharm-careTeam-practitioner:Pharmacy EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
+( 'primary' or 'prescribing')) implies 
  careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-pharm-careTeam-organization:Pharmacy EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code='performing') implies 
  careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
   </si>

--- a/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-CARIN-BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -1630,7 +1630,7 @@
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPDispensedAsWritten</t>
   </si>
   <si>
-    <t>clmrecvddate</t>
+    <t>claimrecvddate</t>
   </si>
   <si>
     <t>The date the claim was received by the payer (88)</t>
@@ -1639,7 +1639,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
-    &lt;code value="clmrecvddate"/&gt;
+    &lt;code value="claimrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
